--- a/personal_decorating/AA预算表_水电卫厨砖.xlsx
+++ b/personal_decorating/AA预算表_水电卫厨砖.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="13176" tabRatio="769" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="13176" tabRatio="769" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="EP0电路基材安排" sheetId="12" r:id="rId3"/>
     <sheet name="EP1电路插座开关安排" sheetId="8" r:id="rId4"/>
     <sheet name="WP0水路基材安排" sheetId="13" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="14" r:id="rId6"/>
-    <sheet name="瓷砖用量预估" sheetId="15" r:id="rId7"/>
+    <sheet name="瓷砖用量预估" sheetId="15" r:id="rId6"/>
+    <sheet name="石膏线_批墙" sheetId="14" r:id="rId7"/>
     <sheet name="插座路实际数量统计" sheetId="9" r:id="rId8"/>
     <sheet name="装修流程和待办 - 表格 2" sheetId="2" r:id="rId9"/>
     <sheet name="装修流程和待办 - 待办事项列表" sheetId="3" r:id="rId10"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="418">
   <si>
     <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
   </si>
@@ -1528,6 +1528,64 @@
   </si>
   <si>
     <t>三孔(单相空调)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料用量预估</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：
+石膏线:龙眼款，预估80米(73.56米)；
+批墙：2边腻子2遍漆</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>批墙</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>腻子</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>师傅工费预估</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>石膏线</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2776,7 +2834,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3407,60 +3465,81 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3558,6 +3637,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3879,7 +3961,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4075,7 +4157,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4171,7 +4253,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4364,7 +4446,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -5679,11 +5761,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="49.95" customHeight="1">
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="217" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
     </row>
     <row r="7" spans="2:4" ht="17.399999999999999">
       <c r="B7" s="1" t="s">
@@ -6057,39 +6139,39 @@
   <sheetData>
     <row r="1" spans="1:12" ht="49.65" customHeight="1"/>
     <row r="2" spans="1:12" ht="22.2" customHeight="1">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="261" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="254" t="s">
+      <c r="B2" s="261" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="254" t="s">
+      <c r="C2" s="261" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="254" t="s">
+      <c r="D2" s="261" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
       <c r="G2" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="254" t="s">
+      <c r="H2" s="261" t="s">
         <v>238</v>
       </c>
-      <c r="I2" s="229"/>
-      <c r="J2" s="254" t="s">
+      <c r="I2" s="236"/>
+      <c r="J2" s="261" t="s">
         <v>234</v>
       </c>
-      <c r="K2" s="229"/>
-      <c r="L2" s="254" t="s">
+      <c r="K2" s="236"/>
+      <c r="L2" s="261" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="22.65" customHeight="1">
-      <c r="A3" s="255"/>
-      <c r="B3" s="255"/>
-      <c r="C3" s="255"/>
+      <c r="A3" s="262"/>
+      <c r="B3" s="262"/>
+      <c r="C3" s="262"/>
       <c r="D3" s="102" t="s">
         <v>234</v>
       </c>
@@ -6112,7 +6194,7 @@
       <c r="K3" s="102" t="s">
         <v>244</v>
       </c>
-      <c r="L3" s="255"/>
+      <c r="L3" s="262"/>
     </row>
     <row r="4" spans="1:12" ht="22.8" customHeight="1">
       <c r="A4" s="63"/>
@@ -6395,10 +6477,10 @@
       <c r="L23" s="109"/>
     </row>
     <row r="24" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A24" s="252" t="s">
+      <c r="A24" s="259" t="s">
         <v>230</v>
       </c>
-      <c r="B24" s="253"/>
+      <c r="B24" s="260"/>
       <c r="C24" s="110"/>
       <c r="D24" s="111"/>
       <c r="E24" s="112">
@@ -6460,16 +6542,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="235" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
     </row>
     <row r="2" spans="1:8" ht="22.65" customHeight="1">
       <c r="A2" s="116" t="s">
@@ -6494,7 +6576,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="138.6" customHeight="1">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="263" t="s">
         <v>171</v>
       </c>
       <c r="B3" s="117" t="s">
@@ -6508,7 +6590,7 @@
       <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8" ht="82.65" customHeight="1">
-      <c r="A4" s="226"/>
+      <c r="A4" s="227"/>
       <c r="B4" s="83" t="s">
         <v>251</v>
       </c>
@@ -6520,7 +6602,7 @@
       <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:8" ht="148.65" customHeight="1">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="264" t="s">
         <v>205</v>
       </c>
       <c r="B5" s="83" t="s">
@@ -6534,7 +6616,7 @@
       <c r="H5" s="69"/>
     </row>
     <row r="6" spans="1:8" ht="72" customHeight="1">
-      <c r="A6" s="226"/>
+      <c r="A6" s="227"/>
       <c r="B6" s="83" t="s">
         <v>251</v>
       </c>
@@ -6783,12 +6865,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="41.85" customHeight="1">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="265" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
     </row>
     <row r="2" spans="1:4" ht="22.8" customHeight="1">
       <c r="A2" s="146"/>
@@ -6951,12 +7033,12 @@
     <row r="1" spans="2:8" ht="6.45" customHeight="1"/>
     <row r="2" spans="2:8" ht="41.25" customHeight="1">
       <c r="B2" s="152"/>
-      <c r="C2" s="259"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6979,7 +7061,7 @@
   </sheetPr>
   <dimension ref="A1:IV120"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A79" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -7001,20 +7083,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="163.95" customHeight="1"/>
     <row r="2" spans="1:12" ht="31.35" customHeight="1">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="219" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1">
       <c r="A3" s="56" t="s">
@@ -7055,10 +7137,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A4" s="225" t="s">
+      <c r="A4" s="223" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="221" t="s">
+      <c r="B4" s="229" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="61" t="b">
@@ -7081,8 +7163,8 @@
       <c r="L4" s="63"/>
     </row>
     <row r="5" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A5" s="213"/>
-      <c r="B5" s="216"/>
+      <c r="A5" s="221"/>
+      <c r="B5" s="225"/>
       <c r="C5" s="64" t="b">
         <v>0</v>
       </c>
@@ -7101,8 +7183,8 @@
       <c r="L5" s="66"/>
     </row>
     <row r="6" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A6" s="213"/>
-      <c r="B6" s="216"/>
+      <c r="A6" s="221"/>
+      <c r="B6" s="225"/>
       <c r="C6" s="67" t="b">
         <v>0</v>
       </c>
@@ -7119,8 +7201,8 @@
       <c r="L6" s="69"/>
     </row>
     <row r="7" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A7" s="213"/>
-      <c r="B7" s="220" t="s">
+      <c r="A7" s="221"/>
+      <c r="B7" s="224" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="64" t="b">
@@ -7139,8 +7221,8 @@
       <c r="L7" s="66"/>
     </row>
     <row r="8" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A8" s="218"/>
-      <c r="B8" s="217"/>
+      <c r="A8" s="222"/>
+      <c r="B8" s="231"/>
       <c r="C8" s="71" t="b">
         <v>0</v>
       </c>
@@ -7157,10 +7239,10 @@
       <c r="L8" s="69"/>
     </row>
     <row r="9" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A9" s="212" t="s">
+      <c r="A9" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="222"/>
+      <c r="B9" s="230"/>
       <c r="C9" s="73" t="b">
         <v>0</v>
       </c>
@@ -7177,8 +7259,8 @@
       <c r="L9" s="66"/>
     </row>
     <row r="10" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A10" s="213"/>
-      <c r="B10" s="216"/>
+      <c r="A10" s="221"/>
+      <c r="B10" s="225"/>
       <c r="C10" s="67" t="b">
         <v>0</v>
       </c>
@@ -7195,8 +7277,8 @@
       <c r="L10" s="69"/>
     </row>
     <row r="11" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A11" s="213"/>
-      <c r="B11" s="216"/>
+      <c r="A11" s="221"/>
+      <c r="B11" s="225"/>
       <c r="C11" s="64" t="b">
         <v>0</v>
       </c>
@@ -7213,8 +7295,8 @@
       <c r="L11" s="66"/>
     </row>
     <row r="12" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A12" s="213"/>
-      <c r="B12" s="216"/>
+      <c r="A12" s="221"/>
+      <c r="B12" s="225"/>
       <c r="C12" s="67" t="b">
         <v>0</v>
       </c>
@@ -7231,8 +7313,8 @@
       <c r="L12" s="69"/>
     </row>
     <row r="13" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A13" s="218"/>
-      <c r="B13" s="217"/>
+      <c r="A13" s="222"/>
+      <c r="B13" s="231"/>
       <c r="C13" s="75" t="b">
         <v>0</v>
       </c>
@@ -7249,7 +7331,7 @@
       <c r="L13" s="66"/>
     </row>
     <row r="14" spans="1:12" ht="23.1" customHeight="1">
-      <c r="A14" s="212" t="s">
+      <c r="A14" s="220" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="77" t="s">
@@ -7271,8 +7353,8 @@
       <c r="L14" s="69"/>
     </row>
     <row r="15" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A15" s="213"/>
-      <c r="B15" s="220" t="s">
+      <c r="A15" s="221"/>
+      <c r="B15" s="224" t="s">
         <v>93</v>
       </c>
       <c r="C15" s="64" t="b">
@@ -7291,8 +7373,8 @@
       <c r="L15" s="66"/>
     </row>
     <row r="16" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A16" s="213"/>
-      <c r="B16" s="216"/>
+      <c r="A16" s="221"/>
+      <c r="B16" s="225"/>
       <c r="C16" s="67" t="b">
         <v>0</v>
       </c>
@@ -7309,8 +7391,8 @@
       <c r="L16" s="69"/>
     </row>
     <row r="17" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A17" s="213"/>
-      <c r="B17" s="216"/>
+      <c r="A17" s="221"/>
+      <c r="B17" s="225"/>
       <c r="C17" s="64" t="b">
         <v>0</v>
       </c>
@@ -7327,8 +7409,8 @@
       <c r="L17" s="66"/>
     </row>
     <row r="18" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A18" s="213"/>
-      <c r="B18" s="216"/>
+      <c r="A18" s="221"/>
+      <c r="B18" s="225"/>
       <c r="C18" s="67" t="b">
         <v>0</v>
       </c>
@@ -7345,8 +7427,8 @@
       <c r="L18" s="69"/>
     </row>
     <row r="19" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A19" s="213"/>
-      <c r="B19" s="216"/>
+      <c r="A19" s="221"/>
+      <c r="B19" s="225"/>
       <c r="C19" s="64" t="b">
         <v>0</v>
       </c>
@@ -7363,8 +7445,8 @@
       <c r="L19" s="66"/>
     </row>
     <row r="20" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A20" s="218"/>
-      <c r="B20" s="217"/>
+      <c r="A20" s="222"/>
+      <c r="B20" s="231"/>
       <c r="C20" s="71" t="b">
         <v>0</v>
       </c>
@@ -7381,10 +7463,10 @@
       <c r="L20" s="69"/>
     </row>
     <row r="21" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A21" s="212" t="s">
+      <c r="A21" s="220" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="223" t="s">
+      <c r="B21" s="232" t="s">
         <v>101</v>
       </c>
       <c r="C21" s="73" t="b">
@@ -7403,8 +7485,8 @@
       <c r="L21" s="66"/>
     </row>
     <row r="22" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A22" s="213"/>
-      <c r="B22" s="216"/>
+      <c r="A22" s="221"/>
+      <c r="B22" s="225"/>
       <c r="C22" s="67" t="b">
         <v>0</v>
       </c>
@@ -7421,8 +7503,8 @@
       <c r="L22" s="69"/>
     </row>
     <row r="23" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A23" s="213"/>
-      <c r="B23" s="216"/>
+      <c r="A23" s="221"/>
+      <c r="B23" s="225"/>
       <c r="C23" s="64" t="b">
         <v>0</v>
       </c>
@@ -7439,8 +7521,8 @@
       <c r="L23" s="66"/>
     </row>
     <row r="24" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A24" s="213"/>
-      <c r="B24" s="216"/>
+      <c r="A24" s="221"/>
+      <c r="B24" s="225"/>
       <c r="C24" s="67" t="b">
         <v>0</v>
       </c>
@@ -7457,8 +7539,8 @@
       <c r="L24" s="69"/>
     </row>
     <row r="25" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A25" s="213"/>
-      <c r="B25" s="215" t="s">
+      <c r="A25" s="221"/>
+      <c r="B25" s="234" t="s">
         <v>106</v>
       </c>
       <c r="C25" s="64" t="b">
@@ -7477,8 +7559,8 @@
       <c r="L25" s="66"/>
     </row>
     <row r="26" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A26" s="213"/>
-      <c r="B26" s="216"/>
+      <c r="A26" s="221"/>
+      <c r="B26" s="225"/>
       <c r="C26" s="67" t="b">
         <v>0</v>
       </c>
@@ -7495,8 +7577,8 @@
       <c r="L26" s="69"/>
     </row>
     <row r="27" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A27" s="213"/>
-      <c r="B27" s="215" t="s">
+      <c r="A27" s="221"/>
+      <c r="B27" s="234" t="s">
         <v>109</v>
       </c>
       <c r="C27" s="64" t="b">
@@ -7515,8 +7597,8 @@
       <c r="L27" s="66"/>
     </row>
     <row r="28" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A28" s="213"/>
-      <c r="B28" s="216"/>
+      <c r="A28" s="221"/>
+      <c r="B28" s="225"/>
       <c r="C28" s="67" t="b">
         <v>0</v>
       </c>
@@ -7533,8 +7615,8 @@
       <c r="L28" s="69"/>
     </row>
     <row r="29" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A29" s="213"/>
-      <c r="B29" s="216"/>
+      <c r="A29" s="221"/>
+      <c r="B29" s="225"/>
       <c r="C29" s="64" t="b">
         <v>0</v>
       </c>
@@ -7551,8 +7633,8 @@
       <c r="L29" s="66"/>
     </row>
     <row r="30" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A30" s="213"/>
-      <c r="B30" s="216"/>
+      <c r="A30" s="221"/>
+      <c r="B30" s="225"/>
       <c r="C30" s="67" t="b">
         <v>0</v>
       </c>
@@ -7569,8 +7651,8 @@
       <c r="L30" s="69"/>
     </row>
     <row r="31" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A31" s="213"/>
-      <c r="B31" s="216"/>
+      <c r="A31" s="221"/>
+      <c r="B31" s="225"/>
       <c r="C31" s="64" t="b">
         <v>0</v>
       </c>
@@ -7587,8 +7669,8 @@
       <c r="L31" s="66"/>
     </row>
     <row r="32" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A32" s="213"/>
-      <c r="B32" s="216"/>
+      <c r="A32" s="221"/>
+      <c r="B32" s="225"/>
       <c r="C32" s="67" t="b">
         <v>0</v>
       </c>
@@ -7605,8 +7687,8 @@
       <c r="L32" s="69"/>
     </row>
     <row r="33" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A33" s="213"/>
-      <c r="B33" s="216"/>
+      <c r="A33" s="221"/>
+      <c r="B33" s="225"/>
       <c r="C33" s="64" t="b">
         <v>0</v>
       </c>
@@ -7623,8 +7705,8 @@
       <c r="L33" s="66"/>
     </row>
     <row r="34" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A34" s="213"/>
-      <c r="B34" s="215" t="s">
+      <c r="A34" s="221"/>
+      <c r="B34" s="234" t="s">
         <v>117</v>
       </c>
       <c r="C34" s="67" t="b">
@@ -7643,8 +7725,8 @@
       <c r="L34" s="69"/>
     </row>
     <row r="35" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A35" s="218"/>
-      <c r="B35" s="217"/>
+      <c r="A35" s="222"/>
+      <c r="B35" s="231"/>
       <c r="C35" s="75" t="b">
         <v>0</v>
       </c>
@@ -7661,10 +7743,10 @@
       <c r="L35" s="66"/>
     </row>
     <row r="36" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A36" s="212" t="s">
+      <c r="A36" s="220" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="219" t="s">
+      <c r="B36" s="226" t="s">
         <v>121</v>
       </c>
       <c r="C36" s="78" t="b">
@@ -7683,8 +7765,8 @@
       <c r="L36" s="69"/>
     </row>
     <row r="37" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A37" s="213"/>
-      <c r="B37" s="216"/>
+      <c r="A37" s="221"/>
+      <c r="B37" s="225"/>
       <c r="C37" s="64" t="b">
         <v>0</v>
       </c>
@@ -7701,7 +7783,7 @@
       <c r="L37" s="66"/>
     </row>
     <row r="38" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A38" s="213"/>
+      <c r="A38" s="221"/>
       <c r="B38" s="70" t="s">
         <v>123</v>
       </c>
@@ -7721,8 +7803,8 @@
       <c r="L38" s="69"/>
     </row>
     <row r="39" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A39" s="213"/>
-      <c r="B39" s="215" t="s">
+      <c r="A39" s="221"/>
+      <c r="B39" s="234" t="s">
         <v>124</v>
       </c>
       <c r="C39" s="64" t="b">
@@ -7741,8 +7823,8 @@
       <c r="L39" s="66"/>
     </row>
     <row r="40" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A40" s="213"/>
-      <c r="B40" s="216"/>
+      <c r="A40" s="221"/>
+      <c r="B40" s="225"/>
       <c r="C40" s="67" t="b">
         <v>0</v>
       </c>
@@ -7759,8 +7841,8 @@
       <c r="L40" s="69"/>
     </row>
     <row r="41" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A41" s="218"/>
-      <c r="B41" s="217"/>
+      <c r="A41" s="222"/>
+      <c r="B41" s="231"/>
       <c r="C41" s="75" t="b">
         <v>0</v>
       </c>
@@ -7777,7 +7859,7 @@
       <c r="L41" s="66"/>
     </row>
     <row r="42" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A42" s="212" t="s">
+      <c r="A42" s="220" t="s">
         <v>128</v>
       </c>
       <c r="B42" s="77" t="s">
@@ -7799,8 +7881,8 @@
       <c r="L42" s="69"/>
     </row>
     <row r="43" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A43" s="213"/>
-      <c r="B43" s="220" t="s">
+      <c r="A43" s="221"/>
+      <c r="B43" s="224" t="s">
         <v>131</v>
       </c>
       <c r="C43" s="64" t="b">
@@ -7819,8 +7901,8 @@
       <c r="L43" s="66"/>
     </row>
     <row r="44" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A44" s="213"/>
-      <c r="B44" s="216"/>
+      <c r="A44" s="221"/>
+      <c r="B44" s="225"/>
       <c r="C44" s="67" t="b">
         <v>0</v>
       </c>
@@ -7837,8 +7919,8 @@
       <c r="L44" s="69"/>
     </row>
     <row r="45" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A45" s="213"/>
-      <c r="B45" s="216"/>
+      <c r="A45" s="221"/>
+      <c r="B45" s="225"/>
       <c r="C45" s="64" t="b">
         <v>0</v>
       </c>
@@ -7855,8 +7937,8 @@
       <c r="L45" s="66"/>
     </row>
     <row r="46" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A46" s="213"/>
-      <c r="B46" s="220" t="s">
+      <c r="A46" s="221"/>
+      <c r="B46" s="224" t="s">
         <v>135</v>
       </c>
       <c r="C46" s="67" t="b">
@@ -7875,8 +7957,8 @@
       <c r="L46" s="69"/>
     </row>
     <row r="47" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A47" s="213"/>
-      <c r="B47" s="216"/>
+      <c r="A47" s="221"/>
+      <c r="B47" s="225"/>
       <c r="C47" s="64" t="b">
         <v>0</v>
       </c>
@@ -7893,15 +7975,15 @@
       <c r="L47" s="66"/>
     </row>
     <row r="48" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A48" s="213"/>
-      <c r="B48" s="216"/>
+      <c r="A48" s="221"/>
+      <c r="B48" s="225"/>
       <c r="C48" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D48" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="226"/>
+      <c r="E48" s="227"/>
       <c r="F48" s="69"/>
       <c r="G48" s="69"/>
       <c r="H48" s="69"/>
@@ -7911,15 +7993,15 @@
       <c r="L48" s="69"/>
     </row>
     <row r="49" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A49" s="213"/>
-      <c r="B49" s="216"/>
+      <c r="A49" s="221"/>
+      <c r="B49" s="225"/>
       <c r="C49" s="64" t="b">
         <v>0</v>
       </c>
       <c r="D49" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="E49" s="227"/>
+      <c r="E49" s="228"/>
       <c r="F49" s="66"/>
       <c r="G49" s="66"/>
       <c r="H49" s="66"/>
@@ -7929,8 +8011,8 @@
       <c r="L49" s="66"/>
     </row>
     <row r="50" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A50" s="213"/>
-      <c r="B50" s="220" t="s">
+      <c r="A50" s="221"/>
+      <c r="B50" s="224" t="s">
         <v>140</v>
       </c>
       <c r="C50" s="67" t="b">
@@ -7939,7 +8021,7 @@
       <c r="D50" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="E50" s="226"/>
+      <c r="E50" s="227"/>
       <c r="F50" s="69"/>
       <c r="G50" s="69"/>
       <c r="H50" s="69"/>
@@ -7949,15 +8031,15 @@
       <c r="L50" s="69"/>
     </row>
     <row r="51" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A51" s="213"/>
-      <c r="B51" s="216"/>
+      <c r="A51" s="221"/>
+      <c r="B51" s="225"/>
       <c r="C51" s="64" t="b">
         <v>0</v>
       </c>
       <c r="D51" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="E51" s="227"/>
+      <c r="E51" s="228"/>
       <c r="F51" s="66"/>
       <c r="G51" s="66"/>
       <c r="H51" s="66"/>
@@ -7967,8 +8049,8 @@
       <c r="L51" s="66"/>
     </row>
     <row r="52" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A52" s="213"/>
-      <c r="B52" s="216"/>
+      <c r="A52" s="221"/>
+      <c r="B52" s="225"/>
       <c r="C52" s="67" t="b">
         <v>0</v>
       </c>
@@ -7985,7 +8067,7 @@
       <c r="L52" s="69"/>
     </row>
     <row r="53" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A53" s="213"/>
+      <c r="A53" s="221"/>
       <c r="B53" s="70" t="s">
         <v>144</v>
       </c>
@@ -8005,7 +8087,7 @@
       <c r="L53" s="66"/>
     </row>
     <row r="54" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A54" s="213"/>
+      <c r="A54" s="221"/>
       <c r="B54" s="70" t="s">
         <v>146</v>
       </c>
@@ -8025,7 +8107,7 @@
       <c r="L54" s="69"/>
     </row>
     <row r="55" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A55" s="218"/>
+      <c r="A55" s="222"/>
       <c r="B55" s="84" t="s">
         <v>148</v>
       </c>
@@ -8045,10 +8127,10 @@
       <c r="L55" s="66"/>
     </row>
     <row r="56" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A56" s="212" t="s">
+      <c r="A56" s="220" t="s">
         <v>150</v>
       </c>
-      <c r="B56" s="219" t="s">
+      <c r="B56" s="226" t="s">
         <v>151</v>
       </c>
       <c r="C56" s="78" t="b">
@@ -8067,8 +8149,8 @@
       <c r="L56" s="69"/>
     </row>
     <row r="57" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A57" s="213"/>
-      <c r="B57" s="216"/>
+      <c r="A57" s="221"/>
+      <c r="B57" s="225"/>
       <c r="C57" s="64" t="b">
         <v>0</v>
       </c>
@@ -8085,8 +8167,8 @@
       <c r="L57" s="66"/>
     </row>
     <row r="58" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A58" s="213"/>
-      <c r="B58" s="216"/>
+      <c r="A58" s="221"/>
+      <c r="B58" s="225"/>
       <c r="C58" s="67" t="b">
         <v>0</v>
       </c>
@@ -8103,8 +8185,8 @@
       <c r="L58" s="69"/>
     </row>
     <row r="59" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A59" s="213"/>
-      <c r="B59" s="216"/>
+      <c r="A59" s="221"/>
+      <c r="B59" s="225"/>
       <c r="C59" s="64" t="b">
         <v>0</v>
       </c>
@@ -8121,8 +8203,8 @@
       <c r="L59" s="66"/>
     </row>
     <row r="60" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A60" s="213"/>
-      <c r="B60" s="216"/>
+      <c r="A60" s="221"/>
+      <c r="B60" s="225"/>
       <c r="C60" s="67" t="b">
         <v>0</v>
       </c>
@@ -8139,8 +8221,8 @@
       <c r="L60" s="69"/>
     </row>
     <row r="61" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A61" s="213"/>
-      <c r="B61" s="216"/>
+      <c r="A61" s="221"/>
+      <c r="B61" s="225"/>
       <c r="C61" s="64" t="b">
         <v>0</v>
       </c>
@@ -8157,8 +8239,8 @@
       <c r="L61" s="66"/>
     </row>
     <row r="62" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A62" s="213"/>
-      <c r="B62" s="220" t="s">
+      <c r="A62" s="221"/>
+      <c r="B62" s="224" t="s">
         <v>158</v>
       </c>
       <c r="C62" s="67" t="b">
@@ -8177,8 +8259,8 @@
       <c r="L62" s="69"/>
     </row>
     <row r="63" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A63" s="213"/>
-      <c r="B63" s="216"/>
+      <c r="A63" s="221"/>
+      <c r="B63" s="225"/>
       <c r="C63" s="64" t="b">
         <v>0</v>
       </c>
@@ -8195,7 +8277,7 @@
       <c r="L63" s="66"/>
     </row>
     <row r="64" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A64" s="218"/>
+      <c r="A64" s="222"/>
       <c r="B64" s="84" t="s">
         <v>161</v>
       </c>
@@ -8215,10 +8297,10 @@
       <c r="L64" s="69"/>
     </row>
     <row r="65" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A65" s="212" t="s">
+      <c r="A65" s="220" t="s">
         <v>163</v>
       </c>
-      <c r="B65" s="219" t="s">
+      <c r="B65" s="226" t="s">
         <v>158</v>
       </c>
       <c r="C65" s="73" t="b">
@@ -8237,8 +8319,8 @@
       <c r="L65" s="66"/>
     </row>
     <row r="66" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A66" s="213"/>
-      <c r="B66" s="216"/>
+      <c r="A66" s="221"/>
+      <c r="B66" s="225"/>
       <c r="C66" s="67" t="b">
         <v>0</v>
       </c>
@@ -8255,8 +8337,8 @@
       <c r="L66" s="69"/>
     </row>
     <row r="67" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A67" s="213"/>
-      <c r="B67" s="216"/>
+      <c r="A67" s="221"/>
+      <c r="B67" s="225"/>
       <c r="C67" s="64" t="b">
         <v>0</v>
       </c>
@@ -8273,8 +8355,8 @@
       <c r="L67" s="66"/>
     </row>
     <row r="68" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A68" s="213"/>
-      <c r="B68" s="216"/>
+      <c r="A68" s="221"/>
+      <c r="B68" s="225"/>
       <c r="C68" s="67" t="b">
         <v>0</v>
       </c>
@@ -8291,8 +8373,8 @@
       <c r="L68" s="69"/>
     </row>
     <row r="69" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A69" s="213"/>
-      <c r="B69" s="220" t="s">
+      <c r="A69" s="221"/>
+      <c r="B69" s="224" t="s">
         <v>161</v>
       </c>
       <c r="C69" s="64" t="b">
@@ -8311,8 +8393,8 @@
       <c r="L69" s="66"/>
     </row>
     <row r="70" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A70" s="213"/>
-      <c r="B70" s="216"/>
+      <c r="A70" s="221"/>
+      <c r="B70" s="225"/>
       <c r="C70" s="67" t="b">
         <v>0</v>
       </c>
@@ -8329,8 +8411,8 @@
       <c r="L70" s="69"/>
     </row>
     <row r="71" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A71" s="213"/>
-      <c r="B71" s="216"/>
+      <c r="A71" s="221"/>
+      <c r="B71" s="225"/>
       <c r="C71" s="64" t="b">
         <v>0</v>
       </c>
@@ -8347,8 +8429,8 @@
       <c r="L71" s="66"/>
     </row>
     <row r="72" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A72" s="213"/>
-      <c r="B72" s="220" t="s">
+      <c r="A72" s="221"/>
+      <c r="B72" s="224" t="s">
         <v>171</v>
       </c>
       <c r="C72" s="67" t="b">
@@ -8367,8 +8449,8 @@
       <c r="L72" s="69"/>
     </row>
     <row r="73" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A73" s="213"/>
-      <c r="B73" s="216"/>
+      <c r="A73" s="221"/>
+      <c r="B73" s="225"/>
       <c r="C73" s="64" t="b">
         <v>0</v>
       </c>
@@ -8385,8 +8467,8 @@
       <c r="L73" s="66"/>
     </row>
     <row r="74" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A74" s="213"/>
-      <c r="B74" s="216"/>
+      <c r="A74" s="221"/>
+      <c r="B74" s="225"/>
       <c r="C74" s="67" t="b">
         <v>0</v>
       </c>
@@ -8403,7 +8485,7 @@
       <c r="L74" s="69"/>
     </row>
     <row r="75" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A75" s="218"/>
+      <c r="A75" s="222"/>
       <c r="B75" s="84" t="s">
         <v>151</v>
       </c>
@@ -8423,10 +8505,10 @@
       <c r="L75" s="66"/>
     </row>
     <row r="76" spans="1:12" ht="23.1" customHeight="1">
-      <c r="A76" s="212" t="s">
+      <c r="A76" s="220" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="219" t="s">
+      <c r="B76" s="226" t="s">
         <v>177</v>
       </c>
       <c r="C76" s="78" t="b">
@@ -8445,8 +8527,8 @@
       <c r="L76" s="69"/>
     </row>
     <row r="77" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A77" s="213"/>
-      <c r="B77" s="216"/>
+      <c r="A77" s="221"/>
+      <c r="B77" s="225"/>
       <c r="C77" s="64" t="b">
         <v>0</v>
       </c>
@@ -8463,8 +8545,8 @@
       <c r="L77" s="66"/>
     </row>
     <row r="78" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A78" s="213"/>
-      <c r="B78" s="220" t="s">
+      <c r="A78" s="221"/>
+      <c r="B78" s="224" t="s">
         <v>180</v>
       </c>
       <c r="C78" s="67" t="b">
@@ -8483,8 +8565,8 @@
       <c r="L78" s="69"/>
     </row>
     <row r="79" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A79" s="213"/>
-      <c r="B79" s="216"/>
+      <c r="A79" s="221"/>
+      <c r="B79" s="225"/>
       <c r="C79" s="64" t="b">
         <v>0</v>
       </c>
@@ -8501,8 +8583,8 @@
       <c r="L79" s="66"/>
     </row>
     <row r="80" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A80" s="213"/>
-      <c r="B80" s="216"/>
+      <c r="A80" s="221"/>
+      <c r="B80" s="225"/>
       <c r="C80" s="67" t="b">
         <v>0</v>
       </c>
@@ -8519,8 +8601,8 @@
       <c r="L80" s="69"/>
     </row>
     <row r="81" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A81" s="213"/>
-      <c r="B81" s="216"/>
+      <c r="A81" s="221"/>
+      <c r="B81" s="225"/>
       <c r="C81" s="64" t="b">
         <v>0</v>
       </c>
@@ -8537,8 +8619,8 @@
       <c r="L81" s="66"/>
     </row>
     <row r="82" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A82" s="213"/>
-      <c r="B82" s="216"/>
+      <c r="A82" s="221"/>
+      <c r="B82" s="225"/>
       <c r="C82" s="67" t="b">
         <v>0</v>
       </c>
@@ -8555,8 +8637,8 @@
       <c r="L82" s="69"/>
     </row>
     <row r="83" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A83" s="213"/>
-      <c r="B83" s="216"/>
+      <c r="A83" s="221"/>
+      <c r="B83" s="225"/>
       <c r="C83" s="64" t="b">
         <v>0</v>
       </c>
@@ -8573,8 +8655,8 @@
       <c r="L83" s="66"/>
     </row>
     <row r="84" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A84" s="213"/>
-      <c r="B84" s="220" t="s">
+      <c r="A84" s="221"/>
+      <c r="B84" s="224" t="s">
         <v>171</v>
       </c>
       <c r="C84" s="67" t="b">
@@ -8593,8 +8675,8 @@
       <c r="L84" s="69"/>
     </row>
     <row r="85" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A85" s="213"/>
-      <c r="B85" s="216"/>
+      <c r="A85" s="221"/>
+      <c r="B85" s="225"/>
       <c r="C85" s="64" t="b">
         <v>0</v>
       </c>
@@ -8611,8 +8693,8 @@
       <c r="L85" s="66"/>
     </row>
     <row r="86" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A86" s="213"/>
-      <c r="B86" s="216"/>
+      <c r="A86" s="221"/>
+      <c r="B86" s="225"/>
       <c r="C86" s="67" t="b">
         <v>0</v>
       </c>
@@ -8629,8 +8711,8 @@
       <c r="L86" s="69"/>
     </row>
     <row r="87" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A87" s="213"/>
-      <c r="B87" s="216"/>
+      <c r="A87" s="221"/>
+      <c r="B87" s="225"/>
       <c r="C87" s="64" t="b">
         <v>0</v>
       </c>
@@ -8647,8 +8729,8 @@
       <c r="L87" s="66"/>
     </row>
     <row r="88" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A88" s="213"/>
-      <c r="B88" s="216"/>
+      <c r="A88" s="221"/>
+      <c r="B88" s="225"/>
       <c r="C88" s="67" t="b">
         <v>0</v>
       </c>
@@ -8665,8 +8747,8 @@
       <c r="L88" s="69"/>
     </row>
     <row r="89" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A89" s="213"/>
-      <c r="B89" s="220" t="s">
+      <c r="A89" s="221"/>
+      <c r="B89" s="224" t="s">
         <v>161</v>
       </c>
       <c r="C89" s="64" t="b">
@@ -8685,8 +8767,8 @@
       <c r="L89" s="66"/>
     </row>
     <row r="90" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A90" s="213"/>
-      <c r="B90" s="216"/>
+      <c r="A90" s="221"/>
+      <c r="B90" s="225"/>
       <c r="C90" s="67" t="b">
         <v>0</v>
       </c>
@@ -8703,8 +8785,8 @@
       <c r="L90" s="69"/>
     </row>
     <row r="91" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A91" s="213"/>
-      <c r="B91" s="220" t="s">
+      <c r="A91" s="221"/>
+      <c r="B91" s="224" t="s">
         <v>193</v>
       </c>
       <c r="C91" s="64" t="b">
@@ -8723,8 +8805,8 @@
       <c r="L91" s="66"/>
     </row>
     <row r="92" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A92" s="213"/>
-      <c r="B92" s="216"/>
+      <c r="A92" s="221"/>
+      <c r="B92" s="225"/>
       <c r="C92" s="67" t="b">
         <v>0</v>
       </c>
@@ -8741,8 +8823,8 @@
       <c r="L92" s="69"/>
     </row>
     <row r="93" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A93" s="213"/>
-      <c r="B93" s="216"/>
+      <c r="A93" s="221"/>
+      <c r="B93" s="225"/>
       <c r="C93" s="64" t="b">
         <v>0</v>
       </c>
@@ -8759,8 +8841,8 @@
       <c r="L93" s="66"/>
     </row>
     <row r="94" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A94" s="213"/>
-      <c r="B94" s="216"/>
+      <c r="A94" s="221"/>
+      <c r="B94" s="225"/>
       <c r="C94" s="67" t="b">
         <v>0</v>
       </c>
@@ -8777,8 +8859,8 @@
       <c r="L94" s="69"/>
     </row>
     <row r="95" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A95" s="213"/>
-      <c r="B95" s="216"/>
+      <c r="A95" s="221"/>
+      <c r="B95" s="225"/>
       <c r="C95" s="64" t="b">
         <v>0</v>
       </c>
@@ -8795,8 +8877,8 @@
       <c r="L95" s="66"/>
     </row>
     <row r="96" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A96" s="213"/>
-      <c r="B96" s="216"/>
+      <c r="A96" s="221"/>
+      <c r="B96" s="225"/>
       <c r="C96" s="67" t="b">
         <v>0</v>
       </c>
@@ -8813,8 +8895,8 @@
       <c r="L96" s="69"/>
     </row>
     <row r="97" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A97" s="213"/>
-      <c r="B97" s="216"/>
+      <c r="A97" s="221"/>
+      <c r="B97" s="225"/>
       <c r="C97" s="64" t="b">
         <v>0</v>
       </c>
@@ -8831,8 +8913,8 @@
       <c r="L97" s="66"/>
     </row>
     <row r="98" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A98" s="213"/>
-      <c r="B98" s="215" t="s">
+      <c r="A98" s="221"/>
+      <c r="B98" s="234" t="s">
         <v>201</v>
       </c>
       <c r="C98" s="67" t="b">
@@ -8851,8 +8933,8 @@
       <c r="L98" s="69"/>
     </row>
     <row r="99" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A99" s="213"/>
-      <c r="B99" s="216"/>
+      <c r="A99" s="221"/>
+      <c r="B99" s="225"/>
       <c r="C99" s="64" t="b">
         <v>0</v>
       </c>
@@ -8869,8 +8951,8 @@
       <c r="L99" s="66"/>
     </row>
     <row r="100" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A100" s="213"/>
-      <c r="B100" s="216"/>
+      <c r="A100" s="221"/>
+      <c r="B100" s="225"/>
       <c r="C100" s="67" t="b">
         <v>0</v>
       </c>
@@ -8887,8 +8969,8 @@
       <c r="L100" s="69"/>
     </row>
     <row r="101" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A101" s="213"/>
-      <c r="B101" s="216"/>
+      <c r="A101" s="221"/>
+      <c r="B101" s="225"/>
       <c r="C101" s="64" t="b">
         <v>0</v>
       </c>
@@ -8905,8 +8987,8 @@
       <c r="L101" s="66"/>
     </row>
     <row r="102" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A102" s="213"/>
-      <c r="B102" s="215" t="s">
+      <c r="A102" s="221"/>
+      <c r="B102" s="234" t="s">
         <v>205</v>
       </c>
       <c r="C102" s="67" t="b">
@@ -8925,8 +9007,8 @@
       <c r="L102" s="69"/>
     </row>
     <row r="103" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A103" s="213"/>
-      <c r="B103" s="216"/>
+      <c r="A103" s="221"/>
+      <c r="B103" s="225"/>
       <c r="C103" s="64" t="b">
         <v>0</v>
       </c>
@@ -8943,8 +9025,8 @@
       <c r="L103" s="66"/>
     </row>
     <row r="104" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A104" s="213"/>
-      <c r="B104" s="220" t="s">
+      <c r="A104" s="221"/>
+      <c r="B104" s="224" t="s">
         <v>151</v>
       </c>
       <c r="C104" s="67" t="b">
@@ -8963,8 +9045,8 @@
       <c r="L104" s="69"/>
     </row>
     <row r="105" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A105" s="213"/>
-      <c r="B105" s="216"/>
+      <c r="A105" s="221"/>
+      <c r="B105" s="225"/>
       <c r="C105" s="64" t="b">
         <v>0</v>
       </c>
@@ -8981,8 +9063,8 @@
       <c r="L105" s="66"/>
     </row>
     <row r="106" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A106" s="213"/>
-      <c r="B106" s="216"/>
+      <c r="A106" s="221"/>
+      <c r="B106" s="225"/>
       <c r="C106" s="67" t="b">
         <v>0</v>
       </c>
@@ -8999,8 +9081,8 @@
       <c r="L106" s="69"/>
     </row>
     <row r="107" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A107" s="213"/>
-      <c r="B107" s="216"/>
+      <c r="A107" s="221"/>
+      <c r="B107" s="225"/>
       <c r="C107" s="64" t="b">
         <v>0</v>
       </c>
@@ -9017,8 +9099,8 @@
       <c r="L107" s="66"/>
     </row>
     <row r="108" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A108" s="213"/>
-      <c r="B108" s="216"/>
+      <c r="A108" s="221"/>
+      <c r="B108" s="225"/>
       <c r="C108" s="67" t="b">
         <v>0</v>
       </c>
@@ -9035,8 +9117,8 @@
       <c r="L108" s="69"/>
     </row>
     <row r="109" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A109" s="213"/>
-      <c r="B109" s="220" t="s">
+      <c r="A109" s="221"/>
+      <c r="B109" s="224" t="s">
         <v>213</v>
       </c>
       <c r="C109" s="64" t="b">
@@ -9055,8 +9137,8 @@
       <c r="L109" s="66"/>
     </row>
     <row r="110" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A110" s="213"/>
-      <c r="B110" s="216"/>
+      <c r="A110" s="221"/>
+      <c r="B110" s="225"/>
       <c r="C110" s="67" t="b">
         <v>0</v>
       </c>
@@ -9073,8 +9155,8 @@
       <c r="L110" s="69"/>
     </row>
     <row r="111" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A111" s="218"/>
-      <c r="B111" s="217"/>
+      <c r="A111" s="222"/>
+      <c r="B111" s="231"/>
       <c r="C111" s="75" t="b">
         <v>0</v>
       </c>
@@ -9113,7 +9195,7 @@
       <c r="L112" s="69"/>
     </row>
     <row r="113" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A113" s="212" t="s">
+      <c r="A113" s="220" t="s">
         <v>220</v>
       </c>
       <c r="B113" s="77" t="s">
@@ -9135,7 +9217,7 @@
       <c r="L113" s="66"/>
     </row>
     <row r="114" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A114" s="213"/>
+      <c r="A114" s="221"/>
       <c r="B114" s="70" t="s">
         <v>223</v>
       </c>
@@ -9155,7 +9237,7 @@
       <c r="L114" s="69"/>
     </row>
     <row r="115" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A115" s="213"/>
+      <c r="A115" s="221"/>
       <c r="B115" s="89"/>
       <c r="C115" s="64" t="b">
         <v>0</v>
@@ -9173,7 +9255,7 @@
       <c r="L115" s="66"/>
     </row>
     <row r="116" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A116" s="213"/>
+      <c r="A116" s="221"/>
       <c r="B116" s="89"/>
       <c r="C116" s="67" t="b">
         <v>0</v>
@@ -9191,7 +9273,7 @@
       <c r="L116" s="69"/>
     </row>
     <row r="117" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A117" s="213"/>
+      <c r="A117" s="221"/>
       <c r="B117" s="70" t="s">
         <v>227</v>
       </c>
@@ -9209,7 +9291,7 @@
       <c r="L117" s="66"/>
     </row>
     <row r="118" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A118" s="213"/>
+      <c r="A118" s="221"/>
       <c r="B118" s="70" t="s">
         <v>228</v>
       </c>
@@ -9227,7 +9309,7 @@
       <c r="L118" s="69"/>
     </row>
     <row r="119" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A119" s="214"/>
+      <c r="A119" s="233"/>
       <c r="B119" s="90" t="s">
         <v>229</v>
       </c>
@@ -9274,29 +9356,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A42:A55"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A65:A75"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="A113:A119"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B27:B33"/>
@@ -9313,6 +9372,29 @@
     <mergeCell ref="A76:A111"/>
     <mergeCell ref="B104:B108"/>
     <mergeCell ref="B84:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A65:A75"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="E48:E51"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="K120">
@@ -9334,6 +9416,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:IV38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9353,24 +9436,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="235" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
     </row>
     <row r="2" spans="1:6" ht="30.6" customHeight="1">
-      <c r="A2" s="230" t="s">
+      <c r="A2" s="237" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
     </row>
     <row r="3" spans="1:6" ht="22.65" customHeight="1">
       <c r="A3" s="116" t="s">
@@ -9396,7 +9479,7 @@
       <c r="A4" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="231" t="s">
+      <c r="B4" s="238" t="s">
         <v>269</v>
       </c>
       <c r="C4" s="63"/>
@@ -9406,7 +9489,7 @@
     </row>
     <row r="5" spans="1:6" ht="22.8" customHeight="1">
       <c r="A5" s="154"/>
-      <c r="B5" s="232"/>
+      <c r="B5" s="239"/>
       <c r="C5" s="158"/>
       <c r="D5" s="158"/>
       <c r="E5" s="158"/>
@@ -9424,7 +9507,7 @@
     </row>
     <row r="7" spans="1:6" ht="22.8" customHeight="1">
       <c r="A7" s="154"/>
-      <c r="B7" s="233" t="s">
+      <c r="B7" s="240" t="s">
         <v>271</v>
       </c>
       <c r="C7" s="158"/>
@@ -9434,7 +9517,7 @@
     </row>
     <row r="8" spans="1:6" ht="22.8" customHeight="1">
       <c r="A8" s="154"/>
-      <c r="B8" s="213"/>
+      <c r="B8" s="221"/>
       <c r="C8" s="157"/>
       <c r="D8" s="157"/>
       <c r="E8" s="157"/>
@@ -9442,7 +9525,7 @@
     </row>
     <row r="9" spans="1:6" ht="22.8" customHeight="1">
       <c r="A9" s="154"/>
-      <c r="B9" s="232"/>
+      <c r="B9" s="239"/>
       <c r="C9" s="158"/>
       <c r="D9" s="158"/>
       <c r="E9" s="158"/>
@@ -9481,7 +9564,9 @@
       <c r="F12" s="157"/>
     </row>
     <row r="13" spans="1:6" ht="22.8" customHeight="1">
-      <c r="A13" s="154"/>
+      <c r="A13" s="268" t="s">
+        <v>408</v>
+      </c>
       <c r="B13" s="160"/>
       <c r="C13" s="158"/>
       <c r="D13" s="158"/>
@@ -9769,9 +9854,9 @@
   </sheetPr>
   <dimension ref="A1:JC39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D18" sqref="D18"/>
+      <selection pane="topRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="21.6" customHeight="1"/>
@@ -9787,38 +9872,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:263" ht="41.25" customHeight="1">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="235" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
     </row>
     <row r="2" spans="1:263" ht="39" customHeight="1">
-      <c r="A2" s="230" t="s">
+      <c r="A2" s="237" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
     </row>
     <row r="3" spans="1:263" ht="22.65" customHeight="1">
       <c r="A3" s="116" t="s">
@@ -12438,6 +12523,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:IV14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12457,24 +12543,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="235" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1">
-      <c r="A2" s="230" t="s">
+      <c r="A2" s="237" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
     </row>
     <row r="3" spans="1:6" ht="22.65" customHeight="1">
       <c r="A3" s="116" t="s">
@@ -12640,25 +12726,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:IV36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="A1:XFD1048576 A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <sheetData/>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IV36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -12671,25 +12743,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="34.200000000000003" customHeight="1">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="241" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="236"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="243"/>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:256" ht="40.200000000000003" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="244" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="239"/>
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="246"/>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:256">
@@ -18872,6 +18944,2888 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:IV23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="210"/>
+    <col min="2" max="2" width="12.77734375" style="210" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="210" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="210" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="210"/>
+    <col min="6" max="6" width="12.5546875" style="210" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="210" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="210"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:256" ht="34.200000000000003" customHeight="1">
+      <c r="A1" s="241" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="243"/>
+      <c r="J1" s="241" t="s">
+        <v>413</v>
+      </c>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="243"/>
+    </row>
+    <row r="2" spans="1:256" ht="40.200000000000003" customHeight="1">
+      <c r="A2" s="244" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="246"/>
+      <c r="J2" s="244" t="s">
+        <v>409</v>
+      </c>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="246"/>
+    </row>
+    <row r="3" spans="1:256">
+      <c r="A3" s="116" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="116" t="s">
+        <v>390</v>
+      </c>
+      <c r="E3" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="116" t="s">
+        <v>396</v>
+      </c>
+      <c r="G3" s="116" t="s">
+        <v>398</v>
+      </c>
+      <c r="J3" s="116" t="s">
+        <v>264</v>
+      </c>
+      <c r="K3" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="L3" s="116" t="s">
+        <v>389</v>
+      </c>
+      <c r="M3" s="116" t="s">
+        <v>416</v>
+      </c>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116" t="s">
+        <v>414</v>
+      </c>
+      <c r="P3" s="116" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:256" ht="22.2" customHeight="1">
+      <c r="A4" s="199" t="s">
+        <v>410</v>
+      </c>
+      <c r="B4" s="201"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="J4" s="199" t="s">
+        <v>410</v>
+      </c>
+      <c r="K4" s="201"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+    </row>
+    <row r="5" spans="1:256" ht="22.2" customHeight="1">
+      <c r="A5" s="212"/>
+      <c r="B5" s="172" t="s">
+        <v>412</v>
+      </c>
+      <c r="C5" s="172"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
+      <c r="J5" s="212"/>
+      <c r="K5" s="172"/>
+      <c r="L5" s="172"/>
+      <c r="M5" s="214"/>
+      <c r="N5" s="214"/>
+      <c r="O5" s="214"/>
+      <c r="P5" s="214"/>
+    </row>
+    <row r="6" spans="1:256" ht="22.2" customHeight="1">
+      <c r="A6" s="212"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="J6" s="212"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="213"/>
+      <c r="M6" s="213"/>
+      <c r="N6" s="213"/>
+      <c r="O6" s="213"/>
+      <c r="P6" s="213"/>
+    </row>
+    <row r="7" spans="1:256" ht="22.2" customHeight="1">
+      <c r="A7" s="212"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="178"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="214"/>
+      <c r="N7" s="214"/>
+      <c r="O7" s="214"/>
+      <c r="P7" s="214"/>
+    </row>
+    <row r="8" spans="1:256" ht="22.2" customHeight="1">
+      <c r="A8" s="212"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="J8" s="212"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="213"/>
+      <c r="M8" s="213"/>
+      <c r="N8" s="213"/>
+      <c r="O8" s="213"/>
+      <c r="P8" s="213"/>
+    </row>
+    <row r="9" spans="1:256" ht="22.2" customHeight="1">
+      <c r="A9" s="212"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="214"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="214"/>
+      <c r="J9" s="212"/>
+      <c r="K9" s="200"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="214"/>
+      <c r="N9" s="214"/>
+      <c r="O9" s="214"/>
+      <c r="P9" s="214"/>
+    </row>
+    <row r="10" spans="1:256" ht="22.2" customHeight="1">
+      <c r="A10" s="177"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="213"/>
+      <c r="M10" s="213"/>
+      <c r="N10" s="213"/>
+      <c r="O10" s="213"/>
+      <c r="P10" s="213"/>
+    </row>
+    <row r="11" spans="1:256" ht="22.2" customHeight="1">
+      <c r="A11" s="212"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="214"/>
+      <c r="J11" s="212"/>
+      <c r="K11" s="163" t="s">
+        <v>388</v>
+      </c>
+      <c r="L11" s="214"/>
+      <c r="M11" s="214"/>
+      <c r="N11" s="214"/>
+      <c r="O11" s="214"/>
+      <c r="P11" s="214"/>
+    </row>
+    <row r="12" spans="1:256" ht="22.2" customHeight="1">
+      <c r="A12" s="180" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="125"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="213"/>
+      <c r="J12" s="212"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="213"/>
+      <c r="M12" s="213"/>
+      <c r="N12" s="213"/>
+      <c r="O12" s="213"/>
+      <c r="P12" s="213"/>
+    </row>
+    <row r="13" spans="1:256" ht="22.8" customHeight="1">
+      <c r="A13" s="212"/>
+      <c r="B13" s="215"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="212"/>
+      <c r="K13" s="215"/>
+      <c r="L13" s="214"/>
+      <c r="M13" s="214"/>
+      <c r="N13" s="214"/>
+      <c r="O13" s="214"/>
+      <c r="P13" s="214"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="151"/>
+      <c r="T13" s="151"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="151"/>
+      <c r="W13" s="151"/>
+      <c r="X13" s="151"/>
+      <c r="Y13" s="151"/>
+      <c r="Z13" s="151"/>
+      <c r="AA13" s="151"/>
+      <c r="AB13" s="151"/>
+      <c r="AC13" s="151"/>
+      <c r="AD13" s="151"/>
+      <c r="AE13" s="151"/>
+      <c r="AF13" s="151"/>
+      <c r="AG13" s="151"/>
+      <c r="AH13" s="151"/>
+      <c r="AI13" s="151"/>
+      <c r="AJ13" s="151"/>
+      <c r="AK13" s="151"/>
+      <c r="AL13" s="151"/>
+      <c r="AM13" s="151"/>
+      <c r="AN13" s="151"/>
+      <c r="AO13" s="151"/>
+      <c r="AP13" s="151"/>
+      <c r="AQ13" s="151"/>
+      <c r="AR13" s="151"/>
+      <c r="AS13" s="151"/>
+      <c r="AT13" s="151"/>
+      <c r="AU13" s="151"/>
+      <c r="AV13" s="151"/>
+      <c r="AW13" s="151"/>
+      <c r="AX13" s="151"/>
+      <c r="AY13" s="151"/>
+      <c r="AZ13" s="151"/>
+      <c r="BA13" s="151"/>
+      <c r="BB13" s="151"/>
+      <c r="BC13" s="151"/>
+      <c r="BD13" s="151"/>
+      <c r="BE13" s="151"/>
+      <c r="BF13" s="151"/>
+      <c r="BG13" s="151"/>
+      <c r="BH13" s="151"/>
+      <c r="BI13" s="151"/>
+      <c r="BJ13" s="151"/>
+      <c r="BK13" s="151"/>
+      <c r="BL13" s="151"/>
+      <c r="BM13" s="151"/>
+      <c r="BN13" s="151"/>
+      <c r="BO13" s="151"/>
+      <c r="BP13" s="151"/>
+      <c r="BQ13" s="151"/>
+      <c r="BR13" s="151"/>
+      <c r="BS13" s="151"/>
+      <c r="BT13" s="151"/>
+      <c r="BU13" s="151"/>
+      <c r="BV13" s="151"/>
+      <c r="BW13" s="151"/>
+      <c r="BX13" s="151"/>
+      <c r="BY13" s="151"/>
+      <c r="BZ13" s="151"/>
+      <c r="CA13" s="151"/>
+      <c r="CB13" s="151"/>
+      <c r="CC13" s="151"/>
+      <c r="CD13" s="151"/>
+      <c r="CE13" s="151"/>
+      <c r="CF13" s="151"/>
+      <c r="CG13" s="151"/>
+      <c r="CH13" s="151"/>
+      <c r="CI13" s="151"/>
+      <c r="CJ13" s="151"/>
+      <c r="CK13" s="151"/>
+      <c r="CL13" s="151"/>
+      <c r="CM13" s="151"/>
+      <c r="CN13" s="151"/>
+      <c r="CO13" s="151"/>
+      <c r="CP13" s="151"/>
+      <c r="CQ13" s="151"/>
+      <c r="CR13" s="151"/>
+      <c r="CS13" s="151"/>
+      <c r="CT13" s="151"/>
+      <c r="CU13" s="151"/>
+      <c r="CV13" s="151"/>
+      <c r="CW13" s="151"/>
+      <c r="CX13" s="151"/>
+      <c r="CY13" s="151"/>
+      <c r="CZ13" s="151"/>
+      <c r="DA13" s="151"/>
+      <c r="DB13" s="151"/>
+      <c r="DC13" s="151"/>
+      <c r="DD13" s="151"/>
+      <c r="DE13" s="151"/>
+      <c r="DF13" s="151"/>
+      <c r="DG13" s="151"/>
+      <c r="DH13" s="151"/>
+      <c r="DI13" s="151"/>
+      <c r="DJ13" s="151"/>
+      <c r="DK13" s="151"/>
+      <c r="DL13" s="151"/>
+      <c r="DM13" s="151"/>
+      <c r="DN13" s="151"/>
+      <c r="DO13" s="151"/>
+      <c r="DP13" s="151"/>
+      <c r="DQ13" s="151"/>
+      <c r="DR13" s="151"/>
+      <c r="DS13" s="151"/>
+      <c r="DT13" s="151"/>
+      <c r="DU13" s="151"/>
+      <c r="DV13" s="151"/>
+      <c r="DW13" s="151"/>
+      <c r="DX13" s="151"/>
+      <c r="DY13" s="151"/>
+      <c r="DZ13" s="151"/>
+      <c r="EA13" s="151"/>
+      <c r="EB13" s="151"/>
+      <c r="EC13" s="151"/>
+      <c r="ED13" s="151"/>
+      <c r="EE13" s="151"/>
+      <c r="EF13" s="151"/>
+      <c r="EG13" s="151"/>
+      <c r="EH13" s="151"/>
+      <c r="EI13" s="151"/>
+      <c r="EJ13" s="151"/>
+      <c r="EK13" s="151"/>
+      <c r="EL13" s="151"/>
+      <c r="EM13" s="151"/>
+      <c r="EN13" s="151"/>
+      <c r="EO13" s="151"/>
+      <c r="EP13" s="151"/>
+      <c r="EQ13" s="151"/>
+      <c r="ER13" s="151"/>
+      <c r="ES13" s="151"/>
+      <c r="ET13" s="151"/>
+      <c r="EU13" s="151"/>
+      <c r="EV13" s="151"/>
+      <c r="EW13" s="151"/>
+      <c r="EX13" s="151"/>
+      <c r="EY13" s="151"/>
+      <c r="EZ13" s="151"/>
+      <c r="FA13" s="151"/>
+      <c r="FB13" s="151"/>
+      <c r="FC13" s="151"/>
+      <c r="FD13" s="151"/>
+      <c r="FE13" s="151"/>
+      <c r="FF13" s="151"/>
+      <c r="FG13" s="151"/>
+      <c r="FH13" s="151"/>
+      <c r="FI13" s="151"/>
+      <c r="FJ13" s="151"/>
+      <c r="FK13" s="151"/>
+      <c r="FL13" s="151"/>
+      <c r="FM13" s="151"/>
+      <c r="FN13" s="151"/>
+      <c r="FO13" s="151"/>
+      <c r="FP13" s="151"/>
+      <c r="FQ13" s="151"/>
+      <c r="FR13" s="151"/>
+      <c r="FS13" s="151"/>
+      <c r="FT13" s="151"/>
+      <c r="FU13" s="151"/>
+      <c r="FV13" s="151"/>
+      <c r="FW13" s="151"/>
+      <c r="FX13" s="151"/>
+      <c r="FY13" s="151"/>
+      <c r="FZ13" s="151"/>
+      <c r="GA13" s="151"/>
+      <c r="GB13" s="151"/>
+      <c r="GC13" s="151"/>
+      <c r="GD13" s="151"/>
+      <c r="GE13" s="151"/>
+      <c r="GF13" s="151"/>
+      <c r="GG13" s="151"/>
+      <c r="GH13" s="151"/>
+      <c r="GI13" s="151"/>
+      <c r="GJ13" s="151"/>
+      <c r="GK13" s="151"/>
+      <c r="GL13" s="151"/>
+      <c r="GM13" s="151"/>
+      <c r="GN13" s="151"/>
+      <c r="GO13" s="151"/>
+      <c r="GP13" s="151"/>
+      <c r="GQ13" s="151"/>
+      <c r="GR13" s="151"/>
+      <c r="GS13" s="151"/>
+      <c r="GT13" s="151"/>
+      <c r="GU13" s="151"/>
+      <c r="GV13" s="151"/>
+      <c r="GW13" s="151"/>
+      <c r="GX13" s="151"/>
+      <c r="GY13" s="151"/>
+      <c r="GZ13" s="151"/>
+      <c r="HA13" s="151"/>
+      <c r="HB13" s="151"/>
+      <c r="HC13" s="151"/>
+      <c r="HD13" s="151"/>
+      <c r="HE13" s="151"/>
+      <c r="HF13" s="151"/>
+      <c r="HG13" s="151"/>
+      <c r="HH13" s="151"/>
+      <c r="HI13" s="151"/>
+      <c r="HJ13" s="151"/>
+      <c r="HK13" s="151"/>
+      <c r="HL13" s="151"/>
+      <c r="HM13" s="151"/>
+      <c r="HN13" s="151"/>
+      <c r="HO13" s="151"/>
+      <c r="HP13" s="151"/>
+      <c r="HQ13" s="151"/>
+      <c r="HR13" s="151"/>
+      <c r="HS13" s="151"/>
+      <c r="HT13" s="151"/>
+      <c r="HU13" s="151"/>
+      <c r="HV13" s="151"/>
+      <c r="HW13" s="151"/>
+      <c r="HX13" s="151"/>
+      <c r="HY13" s="151"/>
+      <c r="HZ13" s="151"/>
+      <c r="IA13" s="151"/>
+      <c r="IB13" s="151"/>
+      <c r="IC13" s="151"/>
+      <c r="ID13" s="151"/>
+      <c r="IE13" s="151"/>
+      <c r="IF13" s="151"/>
+      <c r="IG13" s="151"/>
+      <c r="IH13" s="151"/>
+      <c r="II13" s="151"/>
+      <c r="IJ13" s="151"/>
+      <c r="IK13" s="151"/>
+      <c r="IL13" s="151"/>
+      <c r="IM13" s="151"/>
+      <c r="IN13" s="151"/>
+      <c r="IO13" s="151"/>
+      <c r="IP13" s="151"/>
+      <c r="IQ13" s="151"/>
+      <c r="IR13" s="151"/>
+      <c r="IS13" s="151"/>
+      <c r="IT13" s="151"/>
+      <c r="IU13" s="151"/>
+      <c r="IV13" s="151"/>
+    </row>
+    <row r="14" spans="1:256" ht="22.8" customHeight="1">
+      <c r="A14" s="211"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="211"/>
+      <c r="K14" s="164" t="s">
+        <v>415</v>
+      </c>
+      <c r="L14" s="213">
+        <v>800</v>
+      </c>
+      <c r="M14" s="213">
+        <v>4.952</v>
+      </c>
+      <c r="N14" s="213">
+        <v>8</v>
+      </c>
+      <c r="O14" s="213"/>
+      <c r="P14" s="213"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="151"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="151"/>
+      <c r="W14" s="151"/>
+      <c r="X14" s="151"/>
+      <c r="Y14" s="151"/>
+      <c r="Z14" s="151"/>
+      <c r="AA14" s="151"/>
+      <c r="AB14" s="151"/>
+      <c r="AC14" s="151"/>
+      <c r="AD14" s="151"/>
+      <c r="AE14" s="151"/>
+      <c r="AF14" s="151"/>
+      <c r="AG14" s="151"/>
+      <c r="AH14" s="151"/>
+      <c r="AI14" s="151"/>
+      <c r="AJ14" s="151"/>
+      <c r="AK14" s="151"/>
+      <c r="AL14" s="151"/>
+      <c r="AM14" s="151"/>
+      <c r="AN14" s="151"/>
+      <c r="AO14" s="151"/>
+      <c r="AP14" s="151"/>
+      <c r="AQ14" s="151"/>
+      <c r="AR14" s="151"/>
+      <c r="AS14" s="151"/>
+      <c r="AT14" s="151"/>
+      <c r="AU14" s="151"/>
+      <c r="AV14" s="151"/>
+      <c r="AW14" s="151"/>
+      <c r="AX14" s="151"/>
+      <c r="AY14" s="151"/>
+      <c r="AZ14" s="151"/>
+      <c r="BA14" s="151"/>
+      <c r="BB14" s="151"/>
+      <c r="BC14" s="151"/>
+      <c r="BD14" s="151"/>
+      <c r="BE14" s="151"/>
+      <c r="BF14" s="151"/>
+      <c r="BG14" s="151"/>
+      <c r="BH14" s="151"/>
+      <c r="BI14" s="151"/>
+      <c r="BJ14" s="151"/>
+      <c r="BK14" s="151"/>
+      <c r="BL14" s="151"/>
+      <c r="BM14" s="151"/>
+      <c r="BN14" s="151"/>
+      <c r="BO14" s="151"/>
+      <c r="BP14" s="151"/>
+      <c r="BQ14" s="151"/>
+      <c r="BR14" s="151"/>
+      <c r="BS14" s="151"/>
+      <c r="BT14" s="151"/>
+      <c r="BU14" s="151"/>
+      <c r="BV14" s="151"/>
+      <c r="BW14" s="151"/>
+      <c r="BX14" s="151"/>
+      <c r="BY14" s="151"/>
+      <c r="BZ14" s="151"/>
+      <c r="CA14" s="151"/>
+      <c r="CB14" s="151"/>
+      <c r="CC14" s="151"/>
+      <c r="CD14" s="151"/>
+      <c r="CE14" s="151"/>
+      <c r="CF14" s="151"/>
+      <c r="CG14" s="151"/>
+      <c r="CH14" s="151"/>
+      <c r="CI14" s="151"/>
+      <c r="CJ14" s="151"/>
+      <c r="CK14" s="151"/>
+      <c r="CL14" s="151"/>
+      <c r="CM14" s="151"/>
+      <c r="CN14" s="151"/>
+      <c r="CO14" s="151"/>
+      <c r="CP14" s="151"/>
+      <c r="CQ14" s="151"/>
+      <c r="CR14" s="151"/>
+      <c r="CS14" s="151"/>
+      <c r="CT14" s="151"/>
+      <c r="CU14" s="151"/>
+      <c r="CV14" s="151"/>
+      <c r="CW14" s="151"/>
+      <c r="CX14" s="151"/>
+      <c r="CY14" s="151"/>
+      <c r="CZ14" s="151"/>
+      <c r="DA14" s="151"/>
+      <c r="DB14" s="151"/>
+      <c r="DC14" s="151"/>
+      <c r="DD14" s="151"/>
+      <c r="DE14" s="151"/>
+      <c r="DF14" s="151"/>
+      <c r="DG14" s="151"/>
+      <c r="DH14" s="151"/>
+      <c r="DI14" s="151"/>
+      <c r="DJ14" s="151"/>
+      <c r="DK14" s="151"/>
+      <c r="DL14" s="151"/>
+      <c r="DM14" s="151"/>
+      <c r="DN14" s="151"/>
+      <c r="DO14" s="151"/>
+      <c r="DP14" s="151"/>
+      <c r="DQ14" s="151"/>
+      <c r="DR14" s="151"/>
+      <c r="DS14" s="151"/>
+      <c r="DT14" s="151"/>
+      <c r="DU14" s="151"/>
+      <c r="DV14" s="151"/>
+      <c r="DW14" s="151"/>
+      <c r="DX14" s="151"/>
+      <c r="DY14" s="151"/>
+      <c r="DZ14" s="151"/>
+      <c r="EA14" s="151"/>
+      <c r="EB14" s="151"/>
+      <c r="EC14" s="151"/>
+      <c r="ED14" s="151"/>
+      <c r="EE14" s="151"/>
+      <c r="EF14" s="151"/>
+      <c r="EG14" s="151"/>
+      <c r="EH14" s="151"/>
+      <c r="EI14" s="151"/>
+      <c r="EJ14" s="151"/>
+      <c r="EK14" s="151"/>
+      <c r="EL14" s="151"/>
+      <c r="EM14" s="151"/>
+      <c r="EN14" s="151"/>
+      <c r="EO14" s="151"/>
+      <c r="EP14" s="151"/>
+      <c r="EQ14" s="151"/>
+      <c r="ER14" s="151"/>
+      <c r="ES14" s="151"/>
+      <c r="ET14" s="151"/>
+      <c r="EU14" s="151"/>
+      <c r="EV14" s="151"/>
+      <c r="EW14" s="151"/>
+      <c r="EX14" s="151"/>
+      <c r="EY14" s="151"/>
+      <c r="EZ14" s="151"/>
+      <c r="FA14" s="151"/>
+      <c r="FB14" s="151"/>
+      <c r="FC14" s="151"/>
+      <c r="FD14" s="151"/>
+      <c r="FE14" s="151"/>
+      <c r="FF14" s="151"/>
+      <c r="FG14" s="151"/>
+      <c r="FH14" s="151"/>
+      <c r="FI14" s="151"/>
+      <c r="FJ14" s="151"/>
+      <c r="FK14" s="151"/>
+      <c r="FL14" s="151"/>
+      <c r="FM14" s="151"/>
+      <c r="FN14" s="151"/>
+      <c r="FO14" s="151"/>
+      <c r="FP14" s="151"/>
+      <c r="FQ14" s="151"/>
+      <c r="FR14" s="151"/>
+      <c r="FS14" s="151"/>
+      <c r="FT14" s="151"/>
+      <c r="FU14" s="151"/>
+      <c r="FV14" s="151"/>
+      <c r="FW14" s="151"/>
+      <c r="FX14" s="151"/>
+      <c r="FY14" s="151"/>
+      <c r="FZ14" s="151"/>
+      <c r="GA14" s="151"/>
+      <c r="GB14" s="151"/>
+      <c r="GC14" s="151"/>
+      <c r="GD14" s="151"/>
+      <c r="GE14" s="151"/>
+      <c r="GF14" s="151"/>
+      <c r="GG14" s="151"/>
+      <c r="GH14" s="151"/>
+      <c r="GI14" s="151"/>
+      <c r="GJ14" s="151"/>
+      <c r="GK14" s="151"/>
+      <c r="GL14" s="151"/>
+      <c r="GM14" s="151"/>
+      <c r="GN14" s="151"/>
+      <c r="GO14" s="151"/>
+      <c r="GP14" s="151"/>
+      <c r="GQ14" s="151"/>
+      <c r="GR14" s="151"/>
+      <c r="GS14" s="151"/>
+      <c r="GT14" s="151"/>
+      <c r="GU14" s="151"/>
+      <c r="GV14" s="151"/>
+      <c r="GW14" s="151"/>
+      <c r="GX14" s="151"/>
+      <c r="GY14" s="151"/>
+      <c r="GZ14" s="151"/>
+      <c r="HA14" s="151"/>
+      <c r="HB14" s="151"/>
+      <c r="HC14" s="151"/>
+      <c r="HD14" s="151"/>
+      <c r="HE14" s="151"/>
+      <c r="HF14" s="151"/>
+      <c r="HG14" s="151"/>
+      <c r="HH14" s="151"/>
+      <c r="HI14" s="151"/>
+      <c r="HJ14" s="151"/>
+      <c r="HK14" s="151"/>
+      <c r="HL14" s="151"/>
+      <c r="HM14" s="151"/>
+      <c r="HN14" s="151"/>
+      <c r="HO14" s="151"/>
+      <c r="HP14" s="151"/>
+      <c r="HQ14" s="151"/>
+      <c r="HR14" s="151"/>
+      <c r="HS14" s="151"/>
+      <c r="HT14" s="151"/>
+      <c r="HU14" s="151"/>
+      <c r="HV14" s="151"/>
+      <c r="HW14" s="151"/>
+      <c r="HX14" s="151"/>
+      <c r="HY14" s="151"/>
+      <c r="HZ14" s="151"/>
+      <c r="IA14" s="151"/>
+      <c r="IB14" s="151"/>
+      <c r="IC14" s="151"/>
+      <c r="ID14" s="151"/>
+      <c r="IE14" s="151"/>
+      <c r="IF14" s="151"/>
+      <c r="IG14" s="151"/>
+      <c r="IH14" s="151"/>
+      <c r="II14" s="151"/>
+      <c r="IJ14" s="151"/>
+      <c r="IK14" s="151"/>
+      <c r="IL14" s="151"/>
+      <c r="IM14" s="151"/>
+      <c r="IN14" s="151"/>
+      <c r="IO14" s="151"/>
+      <c r="IP14" s="151"/>
+      <c r="IQ14" s="151"/>
+      <c r="IR14" s="151"/>
+      <c r="IS14" s="151"/>
+      <c r="IT14" s="151"/>
+      <c r="IU14" s="151"/>
+      <c r="IV14" s="151"/>
+    </row>
+    <row r="15" spans="1:256" ht="22.8" customHeight="1">
+      <c r="A15" s="212"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="214"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="212"/>
+      <c r="K15" s="163" t="s">
+        <v>392</v>
+      </c>
+      <c r="L15" s="214"/>
+      <c r="M15" s="214"/>
+      <c r="N15" s="214"/>
+      <c r="O15" s="214"/>
+      <c r="P15" s="214"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="151"/>
+      <c r="S15" s="151"/>
+      <c r="T15" s="151"/>
+      <c r="U15" s="151"/>
+      <c r="V15" s="151"/>
+      <c r="W15" s="151"/>
+      <c r="X15" s="151"/>
+      <c r="Y15" s="151"/>
+      <c r="Z15" s="151"/>
+      <c r="AA15" s="151"/>
+      <c r="AB15" s="151"/>
+      <c r="AC15" s="151"/>
+      <c r="AD15" s="151"/>
+      <c r="AE15" s="151"/>
+      <c r="AF15" s="151"/>
+      <c r="AG15" s="151"/>
+      <c r="AH15" s="151"/>
+      <c r="AI15" s="151"/>
+      <c r="AJ15" s="151"/>
+      <c r="AK15" s="151"/>
+      <c r="AL15" s="151"/>
+      <c r="AM15" s="151"/>
+      <c r="AN15" s="151"/>
+      <c r="AO15" s="151"/>
+      <c r="AP15" s="151"/>
+      <c r="AQ15" s="151"/>
+      <c r="AR15" s="151"/>
+      <c r="AS15" s="151"/>
+      <c r="AT15" s="151"/>
+      <c r="AU15" s="151"/>
+      <c r="AV15" s="151"/>
+      <c r="AW15" s="151"/>
+      <c r="AX15" s="151"/>
+      <c r="AY15" s="151"/>
+      <c r="AZ15" s="151"/>
+      <c r="BA15" s="151"/>
+      <c r="BB15" s="151"/>
+      <c r="BC15" s="151"/>
+      <c r="BD15" s="151"/>
+      <c r="BE15" s="151"/>
+      <c r="BF15" s="151"/>
+      <c r="BG15" s="151"/>
+      <c r="BH15" s="151"/>
+      <c r="BI15" s="151"/>
+      <c r="BJ15" s="151"/>
+      <c r="BK15" s="151"/>
+      <c r="BL15" s="151"/>
+      <c r="BM15" s="151"/>
+      <c r="BN15" s="151"/>
+      <c r="BO15" s="151"/>
+      <c r="BP15" s="151"/>
+      <c r="BQ15" s="151"/>
+      <c r="BR15" s="151"/>
+      <c r="BS15" s="151"/>
+      <c r="BT15" s="151"/>
+      <c r="BU15" s="151"/>
+      <c r="BV15" s="151"/>
+      <c r="BW15" s="151"/>
+      <c r="BX15" s="151"/>
+      <c r="BY15" s="151"/>
+      <c r="BZ15" s="151"/>
+      <c r="CA15" s="151"/>
+      <c r="CB15" s="151"/>
+      <c r="CC15" s="151"/>
+      <c r="CD15" s="151"/>
+      <c r="CE15" s="151"/>
+      <c r="CF15" s="151"/>
+      <c r="CG15" s="151"/>
+      <c r="CH15" s="151"/>
+      <c r="CI15" s="151"/>
+      <c r="CJ15" s="151"/>
+      <c r="CK15" s="151"/>
+      <c r="CL15" s="151"/>
+      <c r="CM15" s="151"/>
+      <c r="CN15" s="151"/>
+      <c r="CO15" s="151"/>
+      <c r="CP15" s="151"/>
+      <c r="CQ15" s="151"/>
+      <c r="CR15" s="151"/>
+      <c r="CS15" s="151"/>
+      <c r="CT15" s="151"/>
+      <c r="CU15" s="151"/>
+      <c r="CV15" s="151"/>
+      <c r="CW15" s="151"/>
+      <c r="CX15" s="151"/>
+      <c r="CY15" s="151"/>
+      <c r="CZ15" s="151"/>
+      <c r="DA15" s="151"/>
+      <c r="DB15" s="151"/>
+      <c r="DC15" s="151"/>
+      <c r="DD15" s="151"/>
+      <c r="DE15" s="151"/>
+      <c r="DF15" s="151"/>
+      <c r="DG15" s="151"/>
+      <c r="DH15" s="151"/>
+      <c r="DI15" s="151"/>
+      <c r="DJ15" s="151"/>
+      <c r="DK15" s="151"/>
+      <c r="DL15" s="151"/>
+      <c r="DM15" s="151"/>
+      <c r="DN15" s="151"/>
+      <c r="DO15" s="151"/>
+      <c r="DP15" s="151"/>
+      <c r="DQ15" s="151"/>
+      <c r="DR15" s="151"/>
+      <c r="DS15" s="151"/>
+      <c r="DT15" s="151"/>
+      <c r="DU15" s="151"/>
+      <c r="DV15" s="151"/>
+      <c r="DW15" s="151"/>
+      <c r="DX15" s="151"/>
+      <c r="DY15" s="151"/>
+      <c r="DZ15" s="151"/>
+      <c r="EA15" s="151"/>
+      <c r="EB15" s="151"/>
+      <c r="EC15" s="151"/>
+      <c r="ED15" s="151"/>
+      <c r="EE15" s="151"/>
+      <c r="EF15" s="151"/>
+      <c r="EG15" s="151"/>
+      <c r="EH15" s="151"/>
+      <c r="EI15" s="151"/>
+      <c r="EJ15" s="151"/>
+      <c r="EK15" s="151"/>
+      <c r="EL15" s="151"/>
+      <c r="EM15" s="151"/>
+      <c r="EN15" s="151"/>
+      <c r="EO15" s="151"/>
+      <c r="EP15" s="151"/>
+      <c r="EQ15" s="151"/>
+      <c r="ER15" s="151"/>
+      <c r="ES15" s="151"/>
+      <c r="ET15" s="151"/>
+      <c r="EU15" s="151"/>
+      <c r="EV15" s="151"/>
+      <c r="EW15" s="151"/>
+      <c r="EX15" s="151"/>
+      <c r="EY15" s="151"/>
+      <c r="EZ15" s="151"/>
+      <c r="FA15" s="151"/>
+      <c r="FB15" s="151"/>
+      <c r="FC15" s="151"/>
+      <c r="FD15" s="151"/>
+      <c r="FE15" s="151"/>
+      <c r="FF15" s="151"/>
+      <c r="FG15" s="151"/>
+      <c r="FH15" s="151"/>
+      <c r="FI15" s="151"/>
+      <c r="FJ15" s="151"/>
+      <c r="FK15" s="151"/>
+      <c r="FL15" s="151"/>
+      <c r="FM15" s="151"/>
+      <c r="FN15" s="151"/>
+      <c r="FO15" s="151"/>
+      <c r="FP15" s="151"/>
+      <c r="FQ15" s="151"/>
+      <c r="FR15" s="151"/>
+      <c r="FS15" s="151"/>
+      <c r="FT15" s="151"/>
+      <c r="FU15" s="151"/>
+      <c r="FV15" s="151"/>
+      <c r="FW15" s="151"/>
+      <c r="FX15" s="151"/>
+      <c r="FY15" s="151"/>
+      <c r="FZ15" s="151"/>
+      <c r="GA15" s="151"/>
+      <c r="GB15" s="151"/>
+      <c r="GC15" s="151"/>
+      <c r="GD15" s="151"/>
+      <c r="GE15" s="151"/>
+      <c r="GF15" s="151"/>
+      <c r="GG15" s="151"/>
+      <c r="GH15" s="151"/>
+      <c r="GI15" s="151"/>
+      <c r="GJ15" s="151"/>
+      <c r="GK15" s="151"/>
+      <c r="GL15" s="151"/>
+      <c r="GM15" s="151"/>
+      <c r="GN15" s="151"/>
+      <c r="GO15" s="151"/>
+      <c r="GP15" s="151"/>
+      <c r="GQ15" s="151"/>
+      <c r="GR15" s="151"/>
+      <c r="GS15" s="151"/>
+      <c r="GT15" s="151"/>
+      <c r="GU15" s="151"/>
+      <c r="GV15" s="151"/>
+      <c r="GW15" s="151"/>
+      <c r="GX15" s="151"/>
+      <c r="GY15" s="151"/>
+      <c r="GZ15" s="151"/>
+      <c r="HA15" s="151"/>
+      <c r="HB15" s="151"/>
+      <c r="HC15" s="151"/>
+      <c r="HD15" s="151"/>
+      <c r="HE15" s="151"/>
+      <c r="HF15" s="151"/>
+      <c r="HG15" s="151"/>
+      <c r="HH15" s="151"/>
+      <c r="HI15" s="151"/>
+      <c r="HJ15" s="151"/>
+      <c r="HK15" s="151"/>
+      <c r="HL15" s="151"/>
+      <c r="HM15" s="151"/>
+      <c r="HN15" s="151"/>
+      <c r="HO15" s="151"/>
+      <c r="HP15" s="151"/>
+      <c r="HQ15" s="151"/>
+      <c r="HR15" s="151"/>
+      <c r="HS15" s="151"/>
+      <c r="HT15" s="151"/>
+      <c r="HU15" s="151"/>
+      <c r="HV15" s="151"/>
+      <c r="HW15" s="151"/>
+      <c r="HX15" s="151"/>
+      <c r="HY15" s="151"/>
+      <c r="HZ15" s="151"/>
+      <c r="IA15" s="151"/>
+      <c r="IB15" s="151"/>
+      <c r="IC15" s="151"/>
+      <c r="ID15" s="151"/>
+      <c r="IE15" s="151"/>
+      <c r="IF15" s="151"/>
+      <c r="IG15" s="151"/>
+      <c r="IH15" s="151"/>
+      <c r="II15" s="151"/>
+      <c r="IJ15" s="151"/>
+      <c r="IK15" s="151"/>
+      <c r="IL15" s="151"/>
+      <c r="IM15" s="151"/>
+      <c r="IN15" s="151"/>
+      <c r="IO15" s="151"/>
+      <c r="IP15" s="151"/>
+      <c r="IQ15" s="151"/>
+      <c r="IR15" s="151"/>
+      <c r="IS15" s="151"/>
+      <c r="IT15" s="151"/>
+      <c r="IU15" s="151"/>
+      <c r="IV15" s="151"/>
+    </row>
+    <row r="16" spans="1:256" ht="22.8" customHeight="1">
+      <c r="A16" s="212"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="213"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="212"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="213"/>
+      <c r="M16" s="213"/>
+      <c r="N16" s="213"/>
+      <c r="O16" s="213"/>
+      <c r="P16" s="213"/>
+      <c r="Q16" s="151"/>
+      <c r="R16" s="151"/>
+      <c r="S16" s="151"/>
+      <c r="T16" s="151"/>
+      <c r="U16" s="151"/>
+      <c r="V16" s="151"/>
+      <c r="W16" s="151"/>
+      <c r="X16" s="151"/>
+      <c r="Y16" s="151"/>
+      <c r="Z16" s="151"/>
+      <c r="AA16" s="151"/>
+      <c r="AB16" s="151"/>
+      <c r="AC16" s="151"/>
+      <c r="AD16" s="151"/>
+      <c r="AE16" s="151"/>
+      <c r="AF16" s="151"/>
+      <c r="AG16" s="151"/>
+      <c r="AH16" s="151"/>
+      <c r="AI16" s="151"/>
+      <c r="AJ16" s="151"/>
+      <c r="AK16" s="151"/>
+      <c r="AL16" s="151"/>
+      <c r="AM16" s="151"/>
+      <c r="AN16" s="151"/>
+      <c r="AO16" s="151"/>
+      <c r="AP16" s="151"/>
+      <c r="AQ16" s="151"/>
+      <c r="AR16" s="151"/>
+      <c r="AS16" s="151"/>
+      <c r="AT16" s="151"/>
+      <c r="AU16" s="151"/>
+      <c r="AV16" s="151"/>
+      <c r="AW16" s="151"/>
+      <c r="AX16" s="151"/>
+      <c r="AY16" s="151"/>
+      <c r="AZ16" s="151"/>
+      <c r="BA16" s="151"/>
+      <c r="BB16" s="151"/>
+      <c r="BC16" s="151"/>
+      <c r="BD16" s="151"/>
+      <c r="BE16" s="151"/>
+      <c r="BF16" s="151"/>
+      <c r="BG16" s="151"/>
+      <c r="BH16" s="151"/>
+      <c r="BI16" s="151"/>
+      <c r="BJ16" s="151"/>
+      <c r="BK16" s="151"/>
+      <c r="BL16" s="151"/>
+      <c r="BM16" s="151"/>
+      <c r="BN16" s="151"/>
+      <c r="BO16" s="151"/>
+      <c r="BP16" s="151"/>
+      <c r="BQ16" s="151"/>
+      <c r="BR16" s="151"/>
+      <c r="BS16" s="151"/>
+      <c r="BT16" s="151"/>
+      <c r="BU16" s="151"/>
+      <c r="BV16" s="151"/>
+      <c r="BW16" s="151"/>
+      <c r="BX16" s="151"/>
+      <c r="BY16" s="151"/>
+      <c r="BZ16" s="151"/>
+      <c r="CA16" s="151"/>
+      <c r="CB16" s="151"/>
+      <c r="CC16" s="151"/>
+      <c r="CD16" s="151"/>
+      <c r="CE16" s="151"/>
+      <c r="CF16" s="151"/>
+      <c r="CG16" s="151"/>
+      <c r="CH16" s="151"/>
+      <c r="CI16" s="151"/>
+      <c r="CJ16" s="151"/>
+      <c r="CK16" s="151"/>
+      <c r="CL16" s="151"/>
+      <c r="CM16" s="151"/>
+      <c r="CN16" s="151"/>
+      <c r="CO16" s="151"/>
+      <c r="CP16" s="151"/>
+      <c r="CQ16" s="151"/>
+      <c r="CR16" s="151"/>
+      <c r="CS16" s="151"/>
+      <c r="CT16" s="151"/>
+      <c r="CU16" s="151"/>
+      <c r="CV16" s="151"/>
+      <c r="CW16" s="151"/>
+      <c r="CX16" s="151"/>
+      <c r="CY16" s="151"/>
+      <c r="CZ16" s="151"/>
+      <c r="DA16" s="151"/>
+      <c r="DB16" s="151"/>
+      <c r="DC16" s="151"/>
+      <c r="DD16" s="151"/>
+      <c r="DE16" s="151"/>
+      <c r="DF16" s="151"/>
+      <c r="DG16" s="151"/>
+      <c r="DH16" s="151"/>
+      <c r="DI16" s="151"/>
+      <c r="DJ16" s="151"/>
+      <c r="DK16" s="151"/>
+      <c r="DL16" s="151"/>
+      <c r="DM16" s="151"/>
+      <c r="DN16" s="151"/>
+      <c r="DO16" s="151"/>
+      <c r="DP16" s="151"/>
+      <c r="DQ16" s="151"/>
+      <c r="DR16" s="151"/>
+      <c r="DS16" s="151"/>
+      <c r="DT16" s="151"/>
+      <c r="DU16" s="151"/>
+      <c r="DV16" s="151"/>
+      <c r="DW16" s="151"/>
+      <c r="DX16" s="151"/>
+      <c r="DY16" s="151"/>
+      <c r="DZ16" s="151"/>
+      <c r="EA16" s="151"/>
+      <c r="EB16" s="151"/>
+      <c r="EC16" s="151"/>
+      <c r="ED16" s="151"/>
+      <c r="EE16" s="151"/>
+      <c r="EF16" s="151"/>
+      <c r="EG16" s="151"/>
+      <c r="EH16" s="151"/>
+      <c r="EI16" s="151"/>
+      <c r="EJ16" s="151"/>
+      <c r="EK16" s="151"/>
+      <c r="EL16" s="151"/>
+      <c r="EM16" s="151"/>
+      <c r="EN16" s="151"/>
+      <c r="EO16" s="151"/>
+      <c r="EP16" s="151"/>
+      <c r="EQ16" s="151"/>
+      <c r="ER16" s="151"/>
+      <c r="ES16" s="151"/>
+      <c r="ET16" s="151"/>
+      <c r="EU16" s="151"/>
+      <c r="EV16" s="151"/>
+      <c r="EW16" s="151"/>
+      <c r="EX16" s="151"/>
+      <c r="EY16" s="151"/>
+      <c r="EZ16" s="151"/>
+      <c r="FA16" s="151"/>
+      <c r="FB16" s="151"/>
+      <c r="FC16" s="151"/>
+      <c r="FD16" s="151"/>
+      <c r="FE16" s="151"/>
+      <c r="FF16" s="151"/>
+      <c r="FG16" s="151"/>
+      <c r="FH16" s="151"/>
+      <c r="FI16" s="151"/>
+      <c r="FJ16" s="151"/>
+      <c r="FK16" s="151"/>
+      <c r="FL16" s="151"/>
+      <c r="FM16" s="151"/>
+      <c r="FN16" s="151"/>
+      <c r="FO16" s="151"/>
+      <c r="FP16" s="151"/>
+      <c r="FQ16" s="151"/>
+      <c r="FR16" s="151"/>
+      <c r="FS16" s="151"/>
+      <c r="FT16" s="151"/>
+      <c r="FU16" s="151"/>
+      <c r="FV16" s="151"/>
+      <c r="FW16" s="151"/>
+      <c r="FX16" s="151"/>
+      <c r="FY16" s="151"/>
+      <c r="FZ16" s="151"/>
+      <c r="GA16" s="151"/>
+      <c r="GB16" s="151"/>
+      <c r="GC16" s="151"/>
+      <c r="GD16" s="151"/>
+      <c r="GE16" s="151"/>
+      <c r="GF16" s="151"/>
+      <c r="GG16" s="151"/>
+      <c r="GH16" s="151"/>
+      <c r="GI16" s="151"/>
+      <c r="GJ16" s="151"/>
+      <c r="GK16" s="151"/>
+      <c r="GL16" s="151"/>
+      <c r="GM16" s="151"/>
+      <c r="GN16" s="151"/>
+      <c r="GO16" s="151"/>
+      <c r="GP16" s="151"/>
+      <c r="GQ16" s="151"/>
+      <c r="GR16" s="151"/>
+      <c r="GS16" s="151"/>
+      <c r="GT16" s="151"/>
+      <c r="GU16" s="151"/>
+      <c r="GV16" s="151"/>
+      <c r="GW16" s="151"/>
+      <c r="GX16" s="151"/>
+      <c r="GY16" s="151"/>
+      <c r="GZ16" s="151"/>
+      <c r="HA16" s="151"/>
+      <c r="HB16" s="151"/>
+      <c r="HC16" s="151"/>
+      <c r="HD16" s="151"/>
+      <c r="HE16" s="151"/>
+      <c r="HF16" s="151"/>
+      <c r="HG16" s="151"/>
+      <c r="HH16" s="151"/>
+      <c r="HI16" s="151"/>
+      <c r="HJ16" s="151"/>
+      <c r="HK16" s="151"/>
+      <c r="HL16" s="151"/>
+      <c r="HM16" s="151"/>
+      <c r="HN16" s="151"/>
+      <c r="HO16" s="151"/>
+      <c r="HP16" s="151"/>
+      <c r="HQ16" s="151"/>
+      <c r="HR16" s="151"/>
+      <c r="HS16" s="151"/>
+      <c r="HT16" s="151"/>
+      <c r="HU16" s="151"/>
+      <c r="HV16" s="151"/>
+      <c r="HW16" s="151"/>
+      <c r="HX16" s="151"/>
+      <c r="HY16" s="151"/>
+      <c r="HZ16" s="151"/>
+      <c r="IA16" s="151"/>
+      <c r="IB16" s="151"/>
+      <c r="IC16" s="151"/>
+      <c r="ID16" s="151"/>
+      <c r="IE16" s="151"/>
+      <c r="IF16" s="151"/>
+      <c r="IG16" s="151"/>
+      <c r="IH16" s="151"/>
+      <c r="II16" s="151"/>
+      <c r="IJ16" s="151"/>
+      <c r="IK16" s="151"/>
+      <c r="IL16" s="151"/>
+      <c r="IM16" s="151"/>
+      <c r="IN16" s="151"/>
+      <c r="IO16" s="151"/>
+      <c r="IP16" s="151"/>
+      <c r="IQ16" s="151"/>
+      <c r="IR16" s="151"/>
+      <c r="IS16" s="151"/>
+      <c r="IT16" s="151"/>
+      <c r="IU16" s="151"/>
+      <c r="IV16" s="151"/>
+    </row>
+    <row r="17" spans="1:256" ht="22.8" customHeight="1">
+      <c r="A17" s="212"/>
+      <c r="B17" s="216"/>
+      <c r="C17" s="214"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="212"/>
+      <c r="K17" s="216"/>
+      <c r="L17" s="214"/>
+      <c r="M17" s="214"/>
+      <c r="N17" s="214"/>
+      <c r="O17" s="214"/>
+      <c r="P17" s="214"/>
+      <c r="Q17" s="151"/>
+      <c r="R17" s="151"/>
+      <c r="S17" s="151"/>
+      <c r="T17" s="151"/>
+      <c r="U17" s="151"/>
+      <c r="V17" s="151"/>
+      <c r="W17" s="151"/>
+      <c r="X17" s="151"/>
+      <c r="Y17" s="151"/>
+      <c r="Z17" s="151"/>
+      <c r="AA17" s="151"/>
+      <c r="AB17" s="151"/>
+      <c r="AC17" s="151"/>
+      <c r="AD17" s="151"/>
+      <c r="AE17" s="151"/>
+      <c r="AF17" s="151"/>
+      <c r="AG17" s="151"/>
+      <c r="AH17" s="151"/>
+      <c r="AI17" s="151"/>
+      <c r="AJ17" s="151"/>
+      <c r="AK17" s="151"/>
+      <c r="AL17" s="151"/>
+      <c r="AM17" s="151"/>
+      <c r="AN17" s="151"/>
+      <c r="AO17" s="151"/>
+      <c r="AP17" s="151"/>
+      <c r="AQ17" s="151"/>
+      <c r="AR17" s="151"/>
+      <c r="AS17" s="151"/>
+      <c r="AT17" s="151"/>
+      <c r="AU17" s="151"/>
+      <c r="AV17" s="151"/>
+      <c r="AW17" s="151"/>
+      <c r="AX17" s="151"/>
+      <c r="AY17" s="151"/>
+      <c r="AZ17" s="151"/>
+      <c r="BA17" s="151"/>
+      <c r="BB17" s="151"/>
+      <c r="BC17" s="151"/>
+      <c r="BD17" s="151"/>
+      <c r="BE17" s="151"/>
+      <c r="BF17" s="151"/>
+      <c r="BG17" s="151"/>
+      <c r="BH17" s="151"/>
+      <c r="BI17" s="151"/>
+      <c r="BJ17" s="151"/>
+      <c r="BK17" s="151"/>
+      <c r="BL17" s="151"/>
+      <c r="BM17" s="151"/>
+      <c r="BN17" s="151"/>
+      <c r="BO17" s="151"/>
+      <c r="BP17" s="151"/>
+      <c r="BQ17" s="151"/>
+      <c r="BR17" s="151"/>
+      <c r="BS17" s="151"/>
+      <c r="BT17" s="151"/>
+      <c r="BU17" s="151"/>
+      <c r="BV17" s="151"/>
+      <c r="BW17" s="151"/>
+      <c r="BX17" s="151"/>
+      <c r="BY17" s="151"/>
+      <c r="BZ17" s="151"/>
+      <c r="CA17" s="151"/>
+      <c r="CB17" s="151"/>
+      <c r="CC17" s="151"/>
+      <c r="CD17" s="151"/>
+      <c r="CE17" s="151"/>
+      <c r="CF17" s="151"/>
+      <c r="CG17" s="151"/>
+      <c r="CH17" s="151"/>
+      <c r="CI17" s="151"/>
+      <c r="CJ17" s="151"/>
+      <c r="CK17" s="151"/>
+      <c r="CL17" s="151"/>
+      <c r="CM17" s="151"/>
+      <c r="CN17" s="151"/>
+      <c r="CO17" s="151"/>
+      <c r="CP17" s="151"/>
+      <c r="CQ17" s="151"/>
+      <c r="CR17" s="151"/>
+      <c r="CS17" s="151"/>
+      <c r="CT17" s="151"/>
+      <c r="CU17" s="151"/>
+      <c r="CV17" s="151"/>
+      <c r="CW17" s="151"/>
+      <c r="CX17" s="151"/>
+      <c r="CY17" s="151"/>
+      <c r="CZ17" s="151"/>
+      <c r="DA17" s="151"/>
+      <c r="DB17" s="151"/>
+      <c r="DC17" s="151"/>
+      <c r="DD17" s="151"/>
+      <c r="DE17" s="151"/>
+      <c r="DF17" s="151"/>
+      <c r="DG17" s="151"/>
+      <c r="DH17" s="151"/>
+      <c r="DI17" s="151"/>
+      <c r="DJ17" s="151"/>
+      <c r="DK17" s="151"/>
+      <c r="DL17" s="151"/>
+      <c r="DM17" s="151"/>
+      <c r="DN17" s="151"/>
+      <c r="DO17" s="151"/>
+      <c r="DP17" s="151"/>
+      <c r="DQ17" s="151"/>
+      <c r="DR17" s="151"/>
+      <c r="DS17" s="151"/>
+      <c r="DT17" s="151"/>
+      <c r="DU17" s="151"/>
+      <c r="DV17" s="151"/>
+      <c r="DW17" s="151"/>
+      <c r="DX17" s="151"/>
+      <c r="DY17" s="151"/>
+      <c r="DZ17" s="151"/>
+      <c r="EA17" s="151"/>
+      <c r="EB17" s="151"/>
+      <c r="EC17" s="151"/>
+      <c r="ED17" s="151"/>
+      <c r="EE17" s="151"/>
+      <c r="EF17" s="151"/>
+      <c r="EG17" s="151"/>
+      <c r="EH17" s="151"/>
+      <c r="EI17" s="151"/>
+      <c r="EJ17" s="151"/>
+      <c r="EK17" s="151"/>
+      <c r="EL17" s="151"/>
+      <c r="EM17" s="151"/>
+      <c r="EN17" s="151"/>
+      <c r="EO17" s="151"/>
+      <c r="EP17" s="151"/>
+      <c r="EQ17" s="151"/>
+      <c r="ER17" s="151"/>
+      <c r="ES17" s="151"/>
+      <c r="ET17" s="151"/>
+      <c r="EU17" s="151"/>
+      <c r="EV17" s="151"/>
+      <c r="EW17" s="151"/>
+      <c r="EX17" s="151"/>
+      <c r="EY17" s="151"/>
+      <c r="EZ17" s="151"/>
+      <c r="FA17" s="151"/>
+      <c r="FB17" s="151"/>
+      <c r="FC17" s="151"/>
+      <c r="FD17" s="151"/>
+      <c r="FE17" s="151"/>
+      <c r="FF17" s="151"/>
+      <c r="FG17" s="151"/>
+      <c r="FH17" s="151"/>
+      <c r="FI17" s="151"/>
+      <c r="FJ17" s="151"/>
+      <c r="FK17" s="151"/>
+      <c r="FL17" s="151"/>
+      <c r="FM17" s="151"/>
+      <c r="FN17" s="151"/>
+      <c r="FO17" s="151"/>
+      <c r="FP17" s="151"/>
+      <c r="FQ17" s="151"/>
+      <c r="FR17" s="151"/>
+      <c r="FS17" s="151"/>
+      <c r="FT17" s="151"/>
+      <c r="FU17" s="151"/>
+      <c r="FV17" s="151"/>
+      <c r="FW17" s="151"/>
+      <c r="FX17" s="151"/>
+      <c r="FY17" s="151"/>
+      <c r="FZ17" s="151"/>
+      <c r="GA17" s="151"/>
+      <c r="GB17" s="151"/>
+      <c r="GC17" s="151"/>
+      <c r="GD17" s="151"/>
+      <c r="GE17" s="151"/>
+      <c r="GF17" s="151"/>
+      <c r="GG17" s="151"/>
+      <c r="GH17" s="151"/>
+      <c r="GI17" s="151"/>
+      <c r="GJ17" s="151"/>
+      <c r="GK17" s="151"/>
+      <c r="GL17" s="151"/>
+      <c r="GM17" s="151"/>
+      <c r="GN17" s="151"/>
+      <c r="GO17" s="151"/>
+      <c r="GP17" s="151"/>
+      <c r="GQ17" s="151"/>
+      <c r="GR17" s="151"/>
+      <c r="GS17" s="151"/>
+      <c r="GT17" s="151"/>
+      <c r="GU17" s="151"/>
+      <c r="GV17" s="151"/>
+      <c r="GW17" s="151"/>
+      <c r="GX17" s="151"/>
+      <c r="GY17" s="151"/>
+      <c r="GZ17" s="151"/>
+      <c r="HA17" s="151"/>
+      <c r="HB17" s="151"/>
+      <c r="HC17" s="151"/>
+      <c r="HD17" s="151"/>
+      <c r="HE17" s="151"/>
+      <c r="HF17" s="151"/>
+      <c r="HG17" s="151"/>
+      <c r="HH17" s="151"/>
+      <c r="HI17" s="151"/>
+      <c r="HJ17" s="151"/>
+      <c r="HK17" s="151"/>
+      <c r="HL17" s="151"/>
+      <c r="HM17" s="151"/>
+      <c r="HN17" s="151"/>
+      <c r="HO17" s="151"/>
+      <c r="HP17" s="151"/>
+      <c r="HQ17" s="151"/>
+      <c r="HR17" s="151"/>
+      <c r="HS17" s="151"/>
+      <c r="HT17" s="151"/>
+      <c r="HU17" s="151"/>
+      <c r="HV17" s="151"/>
+      <c r="HW17" s="151"/>
+      <c r="HX17" s="151"/>
+      <c r="HY17" s="151"/>
+      <c r="HZ17" s="151"/>
+      <c r="IA17" s="151"/>
+      <c r="IB17" s="151"/>
+      <c r="IC17" s="151"/>
+      <c r="ID17" s="151"/>
+      <c r="IE17" s="151"/>
+      <c r="IF17" s="151"/>
+      <c r="IG17" s="151"/>
+      <c r="IH17" s="151"/>
+      <c r="II17" s="151"/>
+      <c r="IJ17" s="151"/>
+      <c r="IK17" s="151"/>
+      <c r="IL17" s="151"/>
+      <c r="IM17" s="151"/>
+      <c r="IN17" s="151"/>
+      <c r="IO17" s="151"/>
+      <c r="IP17" s="151"/>
+      <c r="IQ17" s="151"/>
+      <c r="IR17" s="151"/>
+      <c r="IS17" s="151"/>
+      <c r="IT17" s="151"/>
+      <c r="IU17" s="151"/>
+      <c r="IV17" s="151"/>
+    </row>
+    <row r="18" spans="1:256" ht="22.8" customHeight="1">
+      <c r="A18" s="212"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="213"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="212"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="213"/>
+      <c r="M18" s="213"/>
+      <c r="N18" s="213"/>
+      <c r="O18" s="213"/>
+      <c r="P18" s="213"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="151"/>
+      <c r="T18" s="151"/>
+      <c r="U18" s="151"/>
+      <c r="V18" s="151"/>
+      <c r="W18" s="151"/>
+      <c r="X18" s="151"/>
+      <c r="Y18" s="151"/>
+      <c r="Z18" s="151"/>
+      <c r="AA18" s="151"/>
+      <c r="AB18" s="151"/>
+      <c r="AC18" s="151"/>
+      <c r="AD18" s="151"/>
+      <c r="AE18" s="151"/>
+      <c r="AF18" s="151"/>
+      <c r="AG18" s="151"/>
+      <c r="AH18" s="151"/>
+      <c r="AI18" s="151"/>
+      <c r="AJ18" s="151"/>
+      <c r="AK18" s="151"/>
+      <c r="AL18" s="151"/>
+      <c r="AM18" s="151"/>
+      <c r="AN18" s="151"/>
+      <c r="AO18" s="151"/>
+      <c r="AP18" s="151"/>
+      <c r="AQ18" s="151"/>
+      <c r="AR18" s="151"/>
+      <c r="AS18" s="151"/>
+      <c r="AT18" s="151"/>
+      <c r="AU18" s="151"/>
+      <c r="AV18" s="151"/>
+      <c r="AW18" s="151"/>
+      <c r="AX18" s="151"/>
+      <c r="AY18" s="151"/>
+      <c r="AZ18" s="151"/>
+      <c r="BA18" s="151"/>
+      <c r="BB18" s="151"/>
+      <c r="BC18" s="151"/>
+      <c r="BD18" s="151"/>
+      <c r="BE18" s="151"/>
+      <c r="BF18" s="151"/>
+      <c r="BG18" s="151"/>
+      <c r="BH18" s="151"/>
+      <c r="BI18" s="151"/>
+      <c r="BJ18" s="151"/>
+      <c r="BK18" s="151"/>
+      <c r="BL18" s="151"/>
+      <c r="BM18" s="151"/>
+      <c r="BN18" s="151"/>
+      <c r="BO18" s="151"/>
+      <c r="BP18" s="151"/>
+      <c r="BQ18" s="151"/>
+      <c r="BR18" s="151"/>
+      <c r="BS18" s="151"/>
+      <c r="BT18" s="151"/>
+      <c r="BU18" s="151"/>
+      <c r="BV18" s="151"/>
+      <c r="BW18" s="151"/>
+      <c r="BX18" s="151"/>
+      <c r="BY18" s="151"/>
+      <c r="BZ18" s="151"/>
+      <c r="CA18" s="151"/>
+      <c r="CB18" s="151"/>
+      <c r="CC18" s="151"/>
+      <c r="CD18" s="151"/>
+      <c r="CE18" s="151"/>
+      <c r="CF18" s="151"/>
+      <c r="CG18" s="151"/>
+      <c r="CH18" s="151"/>
+      <c r="CI18" s="151"/>
+      <c r="CJ18" s="151"/>
+      <c r="CK18" s="151"/>
+      <c r="CL18" s="151"/>
+      <c r="CM18" s="151"/>
+      <c r="CN18" s="151"/>
+      <c r="CO18" s="151"/>
+      <c r="CP18" s="151"/>
+      <c r="CQ18" s="151"/>
+      <c r="CR18" s="151"/>
+      <c r="CS18" s="151"/>
+      <c r="CT18" s="151"/>
+      <c r="CU18" s="151"/>
+      <c r="CV18" s="151"/>
+      <c r="CW18" s="151"/>
+      <c r="CX18" s="151"/>
+      <c r="CY18" s="151"/>
+      <c r="CZ18" s="151"/>
+      <c r="DA18" s="151"/>
+      <c r="DB18" s="151"/>
+      <c r="DC18" s="151"/>
+      <c r="DD18" s="151"/>
+      <c r="DE18" s="151"/>
+      <c r="DF18" s="151"/>
+      <c r="DG18" s="151"/>
+      <c r="DH18" s="151"/>
+      <c r="DI18" s="151"/>
+      <c r="DJ18" s="151"/>
+      <c r="DK18" s="151"/>
+      <c r="DL18" s="151"/>
+      <c r="DM18" s="151"/>
+      <c r="DN18" s="151"/>
+      <c r="DO18" s="151"/>
+      <c r="DP18" s="151"/>
+      <c r="DQ18" s="151"/>
+      <c r="DR18" s="151"/>
+      <c r="DS18" s="151"/>
+      <c r="DT18" s="151"/>
+      <c r="DU18" s="151"/>
+      <c r="DV18" s="151"/>
+      <c r="DW18" s="151"/>
+      <c r="DX18" s="151"/>
+      <c r="DY18" s="151"/>
+      <c r="DZ18" s="151"/>
+      <c r="EA18" s="151"/>
+      <c r="EB18" s="151"/>
+      <c r="EC18" s="151"/>
+      <c r="ED18" s="151"/>
+      <c r="EE18" s="151"/>
+      <c r="EF18" s="151"/>
+      <c r="EG18" s="151"/>
+      <c r="EH18" s="151"/>
+      <c r="EI18" s="151"/>
+      <c r="EJ18" s="151"/>
+      <c r="EK18" s="151"/>
+      <c r="EL18" s="151"/>
+      <c r="EM18" s="151"/>
+      <c r="EN18" s="151"/>
+      <c r="EO18" s="151"/>
+      <c r="EP18" s="151"/>
+      <c r="EQ18" s="151"/>
+      <c r="ER18" s="151"/>
+      <c r="ES18" s="151"/>
+      <c r="ET18" s="151"/>
+      <c r="EU18" s="151"/>
+      <c r="EV18" s="151"/>
+      <c r="EW18" s="151"/>
+      <c r="EX18" s="151"/>
+      <c r="EY18" s="151"/>
+      <c r="EZ18" s="151"/>
+      <c r="FA18" s="151"/>
+      <c r="FB18" s="151"/>
+      <c r="FC18" s="151"/>
+      <c r="FD18" s="151"/>
+      <c r="FE18" s="151"/>
+      <c r="FF18" s="151"/>
+      <c r="FG18" s="151"/>
+      <c r="FH18" s="151"/>
+      <c r="FI18" s="151"/>
+      <c r="FJ18" s="151"/>
+      <c r="FK18" s="151"/>
+      <c r="FL18" s="151"/>
+      <c r="FM18" s="151"/>
+      <c r="FN18" s="151"/>
+      <c r="FO18" s="151"/>
+      <c r="FP18" s="151"/>
+      <c r="FQ18" s="151"/>
+      <c r="FR18" s="151"/>
+      <c r="FS18" s="151"/>
+      <c r="FT18" s="151"/>
+      <c r="FU18" s="151"/>
+      <c r="FV18" s="151"/>
+      <c r="FW18" s="151"/>
+      <c r="FX18" s="151"/>
+      <c r="FY18" s="151"/>
+      <c r="FZ18" s="151"/>
+      <c r="GA18" s="151"/>
+      <c r="GB18" s="151"/>
+      <c r="GC18" s="151"/>
+      <c r="GD18" s="151"/>
+      <c r="GE18" s="151"/>
+      <c r="GF18" s="151"/>
+      <c r="GG18" s="151"/>
+      <c r="GH18" s="151"/>
+      <c r="GI18" s="151"/>
+      <c r="GJ18" s="151"/>
+      <c r="GK18" s="151"/>
+      <c r="GL18" s="151"/>
+      <c r="GM18" s="151"/>
+      <c r="GN18" s="151"/>
+      <c r="GO18" s="151"/>
+      <c r="GP18" s="151"/>
+      <c r="GQ18" s="151"/>
+      <c r="GR18" s="151"/>
+      <c r="GS18" s="151"/>
+      <c r="GT18" s="151"/>
+      <c r="GU18" s="151"/>
+      <c r="GV18" s="151"/>
+      <c r="GW18" s="151"/>
+      <c r="GX18" s="151"/>
+      <c r="GY18" s="151"/>
+      <c r="GZ18" s="151"/>
+      <c r="HA18" s="151"/>
+      <c r="HB18" s="151"/>
+      <c r="HC18" s="151"/>
+      <c r="HD18" s="151"/>
+      <c r="HE18" s="151"/>
+      <c r="HF18" s="151"/>
+      <c r="HG18" s="151"/>
+      <c r="HH18" s="151"/>
+      <c r="HI18" s="151"/>
+      <c r="HJ18" s="151"/>
+      <c r="HK18" s="151"/>
+      <c r="HL18" s="151"/>
+      <c r="HM18" s="151"/>
+      <c r="HN18" s="151"/>
+      <c r="HO18" s="151"/>
+      <c r="HP18" s="151"/>
+      <c r="HQ18" s="151"/>
+      <c r="HR18" s="151"/>
+      <c r="HS18" s="151"/>
+      <c r="HT18" s="151"/>
+      <c r="HU18" s="151"/>
+      <c r="HV18" s="151"/>
+      <c r="HW18" s="151"/>
+      <c r="HX18" s="151"/>
+      <c r="HY18" s="151"/>
+      <c r="HZ18" s="151"/>
+      <c r="IA18" s="151"/>
+      <c r="IB18" s="151"/>
+      <c r="IC18" s="151"/>
+      <c r="ID18" s="151"/>
+      <c r="IE18" s="151"/>
+      <c r="IF18" s="151"/>
+      <c r="IG18" s="151"/>
+      <c r="IH18" s="151"/>
+      <c r="II18" s="151"/>
+      <c r="IJ18" s="151"/>
+      <c r="IK18" s="151"/>
+      <c r="IL18" s="151"/>
+      <c r="IM18" s="151"/>
+      <c r="IN18" s="151"/>
+      <c r="IO18" s="151"/>
+      <c r="IP18" s="151"/>
+      <c r="IQ18" s="151"/>
+      <c r="IR18" s="151"/>
+      <c r="IS18" s="151"/>
+      <c r="IT18" s="151"/>
+      <c r="IU18" s="151"/>
+      <c r="IV18" s="151"/>
+    </row>
+    <row r="19" spans="1:256" ht="22.8" customHeight="1">
+      <c r="A19" s="212"/>
+      <c r="B19" s="216"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="212"/>
+      <c r="K19" s="216"/>
+      <c r="L19" s="214"/>
+      <c r="M19" s="214"/>
+      <c r="N19" s="214"/>
+      <c r="O19" s="214"/>
+      <c r="P19" s="214"/>
+      <c r="Q19" s="151"/>
+      <c r="R19" s="151"/>
+      <c r="S19" s="151"/>
+      <c r="T19" s="151"/>
+      <c r="U19" s="151"/>
+      <c r="V19" s="151"/>
+      <c r="W19" s="151"/>
+      <c r="X19" s="151"/>
+      <c r="Y19" s="151"/>
+      <c r="Z19" s="151"/>
+      <c r="AA19" s="151"/>
+      <c r="AB19" s="151"/>
+      <c r="AC19" s="151"/>
+      <c r="AD19" s="151"/>
+      <c r="AE19" s="151"/>
+      <c r="AF19" s="151"/>
+      <c r="AG19" s="151"/>
+      <c r="AH19" s="151"/>
+      <c r="AI19" s="151"/>
+      <c r="AJ19" s="151"/>
+      <c r="AK19" s="151"/>
+      <c r="AL19" s="151"/>
+      <c r="AM19" s="151"/>
+      <c r="AN19" s="151"/>
+      <c r="AO19" s="151"/>
+      <c r="AP19" s="151"/>
+      <c r="AQ19" s="151"/>
+      <c r="AR19" s="151"/>
+      <c r="AS19" s="151"/>
+      <c r="AT19" s="151"/>
+      <c r="AU19" s="151"/>
+      <c r="AV19" s="151"/>
+      <c r="AW19" s="151"/>
+      <c r="AX19" s="151"/>
+      <c r="AY19" s="151"/>
+      <c r="AZ19" s="151"/>
+      <c r="BA19" s="151"/>
+      <c r="BB19" s="151"/>
+      <c r="BC19" s="151"/>
+      <c r="BD19" s="151"/>
+      <c r="BE19" s="151"/>
+      <c r="BF19" s="151"/>
+      <c r="BG19" s="151"/>
+      <c r="BH19" s="151"/>
+      <c r="BI19" s="151"/>
+      <c r="BJ19" s="151"/>
+      <c r="BK19" s="151"/>
+      <c r="BL19" s="151"/>
+      <c r="BM19" s="151"/>
+      <c r="BN19" s="151"/>
+      <c r="BO19" s="151"/>
+      <c r="BP19" s="151"/>
+      <c r="BQ19" s="151"/>
+      <c r="BR19" s="151"/>
+      <c r="BS19" s="151"/>
+      <c r="BT19" s="151"/>
+      <c r="BU19" s="151"/>
+      <c r="BV19" s="151"/>
+      <c r="BW19" s="151"/>
+      <c r="BX19" s="151"/>
+      <c r="BY19" s="151"/>
+      <c r="BZ19" s="151"/>
+      <c r="CA19" s="151"/>
+      <c r="CB19" s="151"/>
+      <c r="CC19" s="151"/>
+      <c r="CD19" s="151"/>
+      <c r="CE19" s="151"/>
+      <c r="CF19" s="151"/>
+      <c r="CG19" s="151"/>
+      <c r="CH19" s="151"/>
+      <c r="CI19" s="151"/>
+      <c r="CJ19" s="151"/>
+      <c r="CK19" s="151"/>
+      <c r="CL19" s="151"/>
+      <c r="CM19" s="151"/>
+      <c r="CN19" s="151"/>
+      <c r="CO19" s="151"/>
+      <c r="CP19" s="151"/>
+      <c r="CQ19" s="151"/>
+      <c r="CR19" s="151"/>
+      <c r="CS19" s="151"/>
+      <c r="CT19" s="151"/>
+      <c r="CU19" s="151"/>
+      <c r="CV19" s="151"/>
+      <c r="CW19" s="151"/>
+      <c r="CX19" s="151"/>
+      <c r="CY19" s="151"/>
+      <c r="CZ19" s="151"/>
+      <c r="DA19" s="151"/>
+      <c r="DB19" s="151"/>
+      <c r="DC19" s="151"/>
+      <c r="DD19" s="151"/>
+      <c r="DE19" s="151"/>
+      <c r="DF19" s="151"/>
+      <c r="DG19" s="151"/>
+      <c r="DH19" s="151"/>
+      <c r="DI19" s="151"/>
+      <c r="DJ19" s="151"/>
+      <c r="DK19" s="151"/>
+      <c r="DL19" s="151"/>
+      <c r="DM19" s="151"/>
+      <c r="DN19" s="151"/>
+      <c r="DO19" s="151"/>
+      <c r="DP19" s="151"/>
+      <c r="DQ19" s="151"/>
+      <c r="DR19" s="151"/>
+      <c r="DS19" s="151"/>
+      <c r="DT19" s="151"/>
+      <c r="DU19" s="151"/>
+      <c r="DV19" s="151"/>
+      <c r="DW19" s="151"/>
+      <c r="DX19" s="151"/>
+      <c r="DY19" s="151"/>
+      <c r="DZ19" s="151"/>
+      <c r="EA19" s="151"/>
+      <c r="EB19" s="151"/>
+      <c r="EC19" s="151"/>
+      <c r="ED19" s="151"/>
+      <c r="EE19" s="151"/>
+      <c r="EF19" s="151"/>
+      <c r="EG19" s="151"/>
+      <c r="EH19" s="151"/>
+      <c r="EI19" s="151"/>
+      <c r="EJ19" s="151"/>
+      <c r="EK19" s="151"/>
+      <c r="EL19" s="151"/>
+      <c r="EM19" s="151"/>
+      <c r="EN19" s="151"/>
+      <c r="EO19" s="151"/>
+      <c r="EP19" s="151"/>
+      <c r="EQ19" s="151"/>
+      <c r="ER19" s="151"/>
+      <c r="ES19" s="151"/>
+      <c r="ET19" s="151"/>
+      <c r="EU19" s="151"/>
+      <c r="EV19" s="151"/>
+      <c r="EW19" s="151"/>
+      <c r="EX19" s="151"/>
+      <c r="EY19" s="151"/>
+      <c r="EZ19" s="151"/>
+      <c r="FA19" s="151"/>
+      <c r="FB19" s="151"/>
+      <c r="FC19" s="151"/>
+      <c r="FD19" s="151"/>
+      <c r="FE19" s="151"/>
+      <c r="FF19" s="151"/>
+      <c r="FG19" s="151"/>
+      <c r="FH19" s="151"/>
+      <c r="FI19" s="151"/>
+      <c r="FJ19" s="151"/>
+      <c r="FK19" s="151"/>
+      <c r="FL19" s="151"/>
+      <c r="FM19" s="151"/>
+      <c r="FN19" s="151"/>
+      <c r="FO19" s="151"/>
+      <c r="FP19" s="151"/>
+      <c r="FQ19" s="151"/>
+      <c r="FR19" s="151"/>
+      <c r="FS19" s="151"/>
+      <c r="FT19" s="151"/>
+      <c r="FU19" s="151"/>
+      <c r="FV19" s="151"/>
+      <c r="FW19" s="151"/>
+      <c r="FX19" s="151"/>
+      <c r="FY19" s="151"/>
+      <c r="FZ19" s="151"/>
+      <c r="GA19" s="151"/>
+      <c r="GB19" s="151"/>
+      <c r="GC19" s="151"/>
+      <c r="GD19" s="151"/>
+      <c r="GE19" s="151"/>
+      <c r="GF19" s="151"/>
+      <c r="GG19" s="151"/>
+      <c r="GH19" s="151"/>
+      <c r="GI19" s="151"/>
+      <c r="GJ19" s="151"/>
+      <c r="GK19" s="151"/>
+      <c r="GL19" s="151"/>
+      <c r="GM19" s="151"/>
+      <c r="GN19" s="151"/>
+      <c r="GO19" s="151"/>
+      <c r="GP19" s="151"/>
+      <c r="GQ19" s="151"/>
+      <c r="GR19" s="151"/>
+      <c r="GS19" s="151"/>
+      <c r="GT19" s="151"/>
+      <c r="GU19" s="151"/>
+      <c r="GV19" s="151"/>
+      <c r="GW19" s="151"/>
+      <c r="GX19" s="151"/>
+      <c r="GY19" s="151"/>
+      <c r="GZ19" s="151"/>
+      <c r="HA19" s="151"/>
+      <c r="HB19" s="151"/>
+      <c r="HC19" s="151"/>
+      <c r="HD19" s="151"/>
+      <c r="HE19" s="151"/>
+      <c r="HF19" s="151"/>
+      <c r="HG19" s="151"/>
+      <c r="HH19" s="151"/>
+      <c r="HI19" s="151"/>
+      <c r="HJ19" s="151"/>
+      <c r="HK19" s="151"/>
+      <c r="HL19" s="151"/>
+      <c r="HM19" s="151"/>
+      <c r="HN19" s="151"/>
+      <c r="HO19" s="151"/>
+      <c r="HP19" s="151"/>
+      <c r="HQ19" s="151"/>
+      <c r="HR19" s="151"/>
+      <c r="HS19" s="151"/>
+      <c r="HT19" s="151"/>
+      <c r="HU19" s="151"/>
+      <c r="HV19" s="151"/>
+      <c r="HW19" s="151"/>
+      <c r="HX19" s="151"/>
+      <c r="HY19" s="151"/>
+      <c r="HZ19" s="151"/>
+      <c r="IA19" s="151"/>
+      <c r="IB19" s="151"/>
+      <c r="IC19" s="151"/>
+      <c r="ID19" s="151"/>
+      <c r="IE19" s="151"/>
+      <c r="IF19" s="151"/>
+      <c r="IG19" s="151"/>
+      <c r="IH19" s="151"/>
+      <c r="II19" s="151"/>
+      <c r="IJ19" s="151"/>
+      <c r="IK19" s="151"/>
+      <c r="IL19" s="151"/>
+      <c r="IM19" s="151"/>
+      <c r="IN19" s="151"/>
+      <c r="IO19" s="151"/>
+      <c r="IP19" s="151"/>
+      <c r="IQ19" s="151"/>
+      <c r="IR19" s="151"/>
+      <c r="IS19" s="151"/>
+      <c r="IT19" s="151"/>
+      <c r="IU19" s="151"/>
+      <c r="IV19" s="151"/>
+    </row>
+    <row r="20" spans="1:256" ht="22.8" customHeight="1">
+      <c r="A20" s="212"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="212"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="213"/>
+      <c r="M20" s="213"/>
+      <c r="N20" s="213"/>
+      <c r="O20" s="213"/>
+      <c r="P20" s="213"/>
+      <c r="Q20" s="151"/>
+      <c r="R20" s="151"/>
+      <c r="S20" s="151"/>
+      <c r="T20" s="151"/>
+      <c r="U20" s="151"/>
+      <c r="V20" s="151"/>
+      <c r="W20" s="151"/>
+      <c r="X20" s="151"/>
+      <c r="Y20" s="151"/>
+      <c r="Z20" s="151"/>
+      <c r="AA20" s="151"/>
+      <c r="AB20" s="151"/>
+      <c r="AC20" s="151"/>
+      <c r="AD20" s="151"/>
+      <c r="AE20" s="151"/>
+      <c r="AF20" s="151"/>
+      <c r="AG20" s="151"/>
+      <c r="AH20" s="151"/>
+      <c r="AI20" s="151"/>
+      <c r="AJ20" s="151"/>
+      <c r="AK20" s="151"/>
+      <c r="AL20" s="151"/>
+      <c r="AM20" s="151"/>
+      <c r="AN20" s="151"/>
+      <c r="AO20" s="151"/>
+      <c r="AP20" s="151"/>
+      <c r="AQ20" s="151"/>
+      <c r="AR20" s="151"/>
+      <c r="AS20" s="151"/>
+      <c r="AT20" s="151"/>
+      <c r="AU20" s="151"/>
+      <c r="AV20" s="151"/>
+      <c r="AW20" s="151"/>
+      <c r="AX20" s="151"/>
+      <c r="AY20" s="151"/>
+      <c r="AZ20" s="151"/>
+      <c r="BA20" s="151"/>
+      <c r="BB20" s="151"/>
+      <c r="BC20" s="151"/>
+      <c r="BD20" s="151"/>
+      <c r="BE20" s="151"/>
+      <c r="BF20" s="151"/>
+      <c r="BG20" s="151"/>
+      <c r="BH20" s="151"/>
+      <c r="BI20" s="151"/>
+      <c r="BJ20" s="151"/>
+      <c r="BK20" s="151"/>
+      <c r="BL20" s="151"/>
+      <c r="BM20" s="151"/>
+      <c r="BN20" s="151"/>
+      <c r="BO20" s="151"/>
+      <c r="BP20" s="151"/>
+      <c r="BQ20" s="151"/>
+      <c r="BR20" s="151"/>
+      <c r="BS20" s="151"/>
+      <c r="BT20" s="151"/>
+      <c r="BU20" s="151"/>
+      <c r="BV20" s="151"/>
+      <c r="BW20" s="151"/>
+      <c r="BX20" s="151"/>
+      <c r="BY20" s="151"/>
+      <c r="BZ20" s="151"/>
+      <c r="CA20" s="151"/>
+      <c r="CB20" s="151"/>
+      <c r="CC20" s="151"/>
+      <c r="CD20" s="151"/>
+      <c r="CE20" s="151"/>
+      <c r="CF20" s="151"/>
+      <c r="CG20" s="151"/>
+      <c r="CH20" s="151"/>
+      <c r="CI20" s="151"/>
+      <c r="CJ20" s="151"/>
+      <c r="CK20" s="151"/>
+      <c r="CL20" s="151"/>
+      <c r="CM20" s="151"/>
+      <c r="CN20" s="151"/>
+      <c r="CO20" s="151"/>
+      <c r="CP20" s="151"/>
+      <c r="CQ20" s="151"/>
+      <c r="CR20" s="151"/>
+      <c r="CS20" s="151"/>
+      <c r="CT20" s="151"/>
+      <c r="CU20" s="151"/>
+      <c r="CV20" s="151"/>
+      <c r="CW20" s="151"/>
+      <c r="CX20" s="151"/>
+      <c r="CY20" s="151"/>
+      <c r="CZ20" s="151"/>
+      <c r="DA20" s="151"/>
+      <c r="DB20" s="151"/>
+      <c r="DC20" s="151"/>
+      <c r="DD20" s="151"/>
+      <c r="DE20" s="151"/>
+      <c r="DF20" s="151"/>
+      <c r="DG20" s="151"/>
+      <c r="DH20" s="151"/>
+      <c r="DI20" s="151"/>
+      <c r="DJ20" s="151"/>
+      <c r="DK20" s="151"/>
+      <c r="DL20" s="151"/>
+      <c r="DM20" s="151"/>
+      <c r="DN20" s="151"/>
+      <c r="DO20" s="151"/>
+      <c r="DP20" s="151"/>
+      <c r="DQ20" s="151"/>
+      <c r="DR20" s="151"/>
+      <c r="DS20" s="151"/>
+      <c r="DT20" s="151"/>
+      <c r="DU20" s="151"/>
+      <c r="DV20" s="151"/>
+      <c r="DW20" s="151"/>
+      <c r="DX20" s="151"/>
+      <c r="DY20" s="151"/>
+      <c r="DZ20" s="151"/>
+      <c r="EA20" s="151"/>
+      <c r="EB20" s="151"/>
+      <c r="EC20" s="151"/>
+      <c r="ED20" s="151"/>
+      <c r="EE20" s="151"/>
+      <c r="EF20" s="151"/>
+      <c r="EG20" s="151"/>
+      <c r="EH20" s="151"/>
+      <c r="EI20" s="151"/>
+      <c r="EJ20" s="151"/>
+      <c r="EK20" s="151"/>
+      <c r="EL20" s="151"/>
+      <c r="EM20" s="151"/>
+      <c r="EN20" s="151"/>
+      <c r="EO20" s="151"/>
+      <c r="EP20" s="151"/>
+      <c r="EQ20" s="151"/>
+      <c r="ER20" s="151"/>
+      <c r="ES20" s="151"/>
+      <c r="ET20" s="151"/>
+      <c r="EU20" s="151"/>
+      <c r="EV20" s="151"/>
+      <c r="EW20" s="151"/>
+      <c r="EX20" s="151"/>
+      <c r="EY20" s="151"/>
+      <c r="EZ20" s="151"/>
+      <c r="FA20" s="151"/>
+      <c r="FB20" s="151"/>
+      <c r="FC20" s="151"/>
+      <c r="FD20" s="151"/>
+      <c r="FE20" s="151"/>
+      <c r="FF20" s="151"/>
+      <c r="FG20" s="151"/>
+      <c r="FH20" s="151"/>
+      <c r="FI20" s="151"/>
+      <c r="FJ20" s="151"/>
+      <c r="FK20" s="151"/>
+      <c r="FL20" s="151"/>
+      <c r="FM20" s="151"/>
+      <c r="FN20" s="151"/>
+      <c r="FO20" s="151"/>
+      <c r="FP20" s="151"/>
+      <c r="FQ20" s="151"/>
+      <c r="FR20" s="151"/>
+      <c r="FS20" s="151"/>
+      <c r="FT20" s="151"/>
+      <c r="FU20" s="151"/>
+      <c r="FV20" s="151"/>
+      <c r="FW20" s="151"/>
+      <c r="FX20" s="151"/>
+      <c r="FY20" s="151"/>
+      <c r="FZ20" s="151"/>
+      <c r="GA20" s="151"/>
+      <c r="GB20" s="151"/>
+      <c r="GC20" s="151"/>
+      <c r="GD20" s="151"/>
+      <c r="GE20" s="151"/>
+      <c r="GF20" s="151"/>
+      <c r="GG20" s="151"/>
+      <c r="GH20" s="151"/>
+      <c r="GI20" s="151"/>
+      <c r="GJ20" s="151"/>
+      <c r="GK20" s="151"/>
+      <c r="GL20" s="151"/>
+      <c r="GM20" s="151"/>
+      <c r="GN20" s="151"/>
+      <c r="GO20" s="151"/>
+      <c r="GP20" s="151"/>
+      <c r="GQ20" s="151"/>
+      <c r="GR20" s="151"/>
+      <c r="GS20" s="151"/>
+      <c r="GT20" s="151"/>
+      <c r="GU20" s="151"/>
+      <c r="GV20" s="151"/>
+      <c r="GW20" s="151"/>
+      <c r="GX20" s="151"/>
+      <c r="GY20" s="151"/>
+      <c r="GZ20" s="151"/>
+      <c r="HA20" s="151"/>
+      <c r="HB20" s="151"/>
+      <c r="HC20" s="151"/>
+      <c r="HD20" s="151"/>
+      <c r="HE20" s="151"/>
+      <c r="HF20" s="151"/>
+      <c r="HG20" s="151"/>
+      <c r="HH20" s="151"/>
+      <c r="HI20" s="151"/>
+      <c r="HJ20" s="151"/>
+      <c r="HK20" s="151"/>
+      <c r="HL20" s="151"/>
+      <c r="HM20" s="151"/>
+      <c r="HN20" s="151"/>
+      <c r="HO20" s="151"/>
+      <c r="HP20" s="151"/>
+      <c r="HQ20" s="151"/>
+      <c r="HR20" s="151"/>
+      <c r="HS20" s="151"/>
+      <c r="HT20" s="151"/>
+      <c r="HU20" s="151"/>
+      <c r="HV20" s="151"/>
+      <c r="HW20" s="151"/>
+      <c r="HX20" s="151"/>
+      <c r="HY20" s="151"/>
+      <c r="HZ20" s="151"/>
+      <c r="IA20" s="151"/>
+      <c r="IB20" s="151"/>
+      <c r="IC20" s="151"/>
+      <c r="ID20" s="151"/>
+      <c r="IE20" s="151"/>
+      <c r="IF20" s="151"/>
+      <c r="IG20" s="151"/>
+      <c r="IH20" s="151"/>
+      <c r="II20" s="151"/>
+      <c r="IJ20" s="151"/>
+      <c r="IK20" s="151"/>
+      <c r="IL20" s="151"/>
+      <c r="IM20" s="151"/>
+      <c r="IN20" s="151"/>
+      <c r="IO20" s="151"/>
+      <c r="IP20" s="151"/>
+      <c r="IQ20" s="151"/>
+      <c r="IR20" s="151"/>
+      <c r="IS20" s="151"/>
+      <c r="IT20" s="151"/>
+      <c r="IU20" s="151"/>
+      <c r="IV20" s="151"/>
+    </row>
+    <row r="21" spans="1:256" ht="22.8" customHeight="1">
+      <c r="A21" s="212"/>
+      <c r="B21" s="164" t="s">
+        <v>392</v>
+      </c>
+      <c r="C21" s="213"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="213"/>
+      <c r="G21" s="213"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="151"/>
+      <c r="Q21" s="151"/>
+      <c r="R21" s="151"/>
+      <c r="S21" s="151"/>
+      <c r="T21" s="151"/>
+      <c r="U21" s="151"/>
+      <c r="V21" s="151"/>
+      <c r="W21" s="151"/>
+      <c r="X21" s="151"/>
+      <c r="Y21" s="151"/>
+      <c r="Z21" s="151"/>
+      <c r="AA21" s="151"/>
+      <c r="AB21" s="151"/>
+      <c r="AC21" s="151"/>
+      <c r="AD21" s="151"/>
+      <c r="AE21" s="151"/>
+      <c r="AF21" s="151"/>
+      <c r="AG21" s="151"/>
+      <c r="AH21" s="151"/>
+      <c r="AI21" s="151"/>
+      <c r="AJ21" s="151"/>
+      <c r="AK21" s="151"/>
+      <c r="AL21" s="151"/>
+      <c r="AM21" s="151"/>
+      <c r="AN21" s="151"/>
+      <c r="AO21" s="151"/>
+      <c r="AP21" s="151"/>
+      <c r="AQ21" s="151"/>
+      <c r="AR21" s="151"/>
+      <c r="AS21" s="151"/>
+      <c r="AT21" s="151"/>
+      <c r="AU21" s="151"/>
+      <c r="AV21" s="151"/>
+      <c r="AW21" s="151"/>
+      <c r="AX21" s="151"/>
+      <c r="AY21" s="151"/>
+      <c r="AZ21" s="151"/>
+      <c r="BA21" s="151"/>
+      <c r="BB21" s="151"/>
+      <c r="BC21" s="151"/>
+      <c r="BD21" s="151"/>
+      <c r="BE21" s="151"/>
+      <c r="BF21" s="151"/>
+      <c r="BG21" s="151"/>
+      <c r="BH21" s="151"/>
+      <c r="BI21" s="151"/>
+      <c r="BJ21" s="151"/>
+      <c r="BK21" s="151"/>
+      <c r="BL21" s="151"/>
+      <c r="BM21" s="151"/>
+      <c r="BN21" s="151"/>
+      <c r="BO21" s="151"/>
+      <c r="BP21" s="151"/>
+      <c r="BQ21" s="151"/>
+      <c r="BR21" s="151"/>
+      <c r="BS21" s="151"/>
+      <c r="BT21" s="151"/>
+      <c r="BU21" s="151"/>
+      <c r="BV21" s="151"/>
+      <c r="BW21" s="151"/>
+      <c r="BX21" s="151"/>
+      <c r="BY21" s="151"/>
+      <c r="BZ21" s="151"/>
+      <c r="CA21" s="151"/>
+      <c r="CB21" s="151"/>
+      <c r="CC21" s="151"/>
+      <c r="CD21" s="151"/>
+      <c r="CE21" s="151"/>
+      <c r="CF21" s="151"/>
+      <c r="CG21" s="151"/>
+      <c r="CH21" s="151"/>
+      <c r="CI21" s="151"/>
+      <c r="CJ21" s="151"/>
+      <c r="CK21" s="151"/>
+      <c r="CL21" s="151"/>
+      <c r="CM21" s="151"/>
+      <c r="CN21" s="151"/>
+      <c r="CO21" s="151"/>
+      <c r="CP21" s="151"/>
+      <c r="CQ21" s="151"/>
+      <c r="CR21" s="151"/>
+      <c r="CS21" s="151"/>
+      <c r="CT21" s="151"/>
+      <c r="CU21" s="151"/>
+      <c r="CV21" s="151"/>
+      <c r="CW21" s="151"/>
+      <c r="CX21" s="151"/>
+      <c r="CY21" s="151"/>
+      <c r="CZ21" s="151"/>
+      <c r="DA21" s="151"/>
+      <c r="DB21" s="151"/>
+      <c r="DC21" s="151"/>
+      <c r="DD21" s="151"/>
+      <c r="DE21" s="151"/>
+      <c r="DF21" s="151"/>
+      <c r="DG21" s="151"/>
+      <c r="DH21" s="151"/>
+      <c r="DI21" s="151"/>
+      <c r="DJ21" s="151"/>
+      <c r="DK21" s="151"/>
+      <c r="DL21" s="151"/>
+      <c r="DM21" s="151"/>
+      <c r="DN21" s="151"/>
+      <c r="DO21" s="151"/>
+      <c r="DP21" s="151"/>
+      <c r="DQ21" s="151"/>
+      <c r="DR21" s="151"/>
+      <c r="DS21" s="151"/>
+      <c r="DT21" s="151"/>
+      <c r="DU21" s="151"/>
+      <c r="DV21" s="151"/>
+      <c r="DW21" s="151"/>
+      <c r="DX21" s="151"/>
+      <c r="DY21" s="151"/>
+      <c r="DZ21" s="151"/>
+      <c r="EA21" s="151"/>
+      <c r="EB21" s="151"/>
+      <c r="EC21" s="151"/>
+      <c r="ED21" s="151"/>
+      <c r="EE21" s="151"/>
+      <c r="EF21" s="151"/>
+      <c r="EG21" s="151"/>
+      <c r="EH21" s="151"/>
+      <c r="EI21" s="151"/>
+      <c r="EJ21" s="151"/>
+      <c r="EK21" s="151"/>
+      <c r="EL21" s="151"/>
+      <c r="EM21" s="151"/>
+      <c r="EN21" s="151"/>
+      <c r="EO21" s="151"/>
+      <c r="EP21" s="151"/>
+      <c r="EQ21" s="151"/>
+      <c r="ER21" s="151"/>
+      <c r="ES21" s="151"/>
+      <c r="ET21" s="151"/>
+      <c r="EU21" s="151"/>
+      <c r="EV21" s="151"/>
+      <c r="EW21" s="151"/>
+      <c r="EX21" s="151"/>
+      <c r="EY21" s="151"/>
+      <c r="EZ21" s="151"/>
+      <c r="FA21" s="151"/>
+      <c r="FB21" s="151"/>
+      <c r="FC21" s="151"/>
+      <c r="FD21" s="151"/>
+      <c r="FE21" s="151"/>
+      <c r="FF21" s="151"/>
+      <c r="FG21" s="151"/>
+      <c r="FH21" s="151"/>
+      <c r="FI21" s="151"/>
+      <c r="FJ21" s="151"/>
+      <c r="FK21" s="151"/>
+      <c r="FL21" s="151"/>
+      <c r="FM21" s="151"/>
+      <c r="FN21" s="151"/>
+      <c r="FO21" s="151"/>
+      <c r="FP21" s="151"/>
+      <c r="FQ21" s="151"/>
+      <c r="FR21" s="151"/>
+      <c r="FS21" s="151"/>
+      <c r="FT21" s="151"/>
+      <c r="FU21" s="151"/>
+      <c r="FV21" s="151"/>
+      <c r="FW21" s="151"/>
+      <c r="FX21" s="151"/>
+      <c r="FY21" s="151"/>
+      <c r="FZ21" s="151"/>
+      <c r="GA21" s="151"/>
+      <c r="GB21" s="151"/>
+      <c r="GC21" s="151"/>
+      <c r="GD21" s="151"/>
+      <c r="GE21" s="151"/>
+      <c r="GF21" s="151"/>
+      <c r="GG21" s="151"/>
+      <c r="GH21" s="151"/>
+      <c r="GI21" s="151"/>
+      <c r="GJ21" s="151"/>
+      <c r="GK21" s="151"/>
+      <c r="GL21" s="151"/>
+      <c r="GM21" s="151"/>
+      <c r="GN21" s="151"/>
+      <c r="GO21" s="151"/>
+      <c r="GP21" s="151"/>
+      <c r="GQ21" s="151"/>
+      <c r="GR21" s="151"/>
+      <c r="GS21" s="151"/>
+      <c r="GT21" s="151"/>
+      <c r="GU21" s="151"/>
+      <c r="GV21" s="151"/>
+      <c r="GW21" s="151"/>
+      <c r="GX21" s="151"/>
+      <c r="GY21" s="151"/>
+      <c r="GZ21" s="151"/>
+      <c r="HA21" s="151"/>
+      <c r="HB21" s="151"/>
+      <c r="HC21" s="151"/>
+      <c r="HD21" s="151"/>
+      <c r="HE21" s="151"/>
+      <c r="HF21" s="151"/>
+      <c r="HG21" s="151"/>
+      <c r="HH21" s="151"/>
+      <c r="HI21" s="151"/>
+      <c r="HJ21" s="151"/>
+      <c r="HK21" s="151"/>
+      <c r="HL21" s="151"/>
+      <c r="HM21" s="151"/>
+      <c r="HN21" s="151"/>
+      <c r="HO21" s="151"/>
+      <c r="HP21" s="151"/>
+      <c r="HQ21" s="151"/>
+      <c r="HR21" s="151"/>
+      <c r="HS21" s="151"/>
+      <c r="HT21" s="151"/>
+      <c r="HU21" s="151"/>
+      <c r="HV21" s="151"/>
+      <c r="HW21" s="151"/>
+      <c r="HX21" s="151"/>
+      <c r="HY21" s="151"/>
+      <c r="HZ21" s="151"/>
+      <c r="IA21" s="151"/>
+      <c r="IB21" s="151"/>
+      <c r="IC21" s="151"/>
+      <c r="ID21" s="151"/>
+      <c r="IE21" s="151"/>
+      <c r="IF21" s="151"/>
+      <c r="IG21" s="151"/>
+      <c r="IH21" s="151"/>
+      <c r="II21" s="151"/>
+      <c r="IJ21" s="151"/>
+      <c r="IK21" s="151"/>
+      <c r="IL21" s="151"/>
+      <c r="IM21" s="151"/>
+      <c r="IN21" s="151"/>
+      <c r="IO21" s="151"/>
+      <c r="IP21" s="151"/>
+      <c r="IQ21" s="151"/>
+      <c r="IR21" s="151"/>
+      <c r="IS21" s="151"/>
+      <c r="IT21" s="151"/>
+      <c r="IU21" s="151"/>
+      <c r="IV21" s="151"/>
+    </row>
+    <row r="22" spans="1:256" ht="22.8" customHeight="1">
+      <c r="A22" s="209" t="s">
+        <v>399</v>
+      </c>
+      <c r="B22" s="208"/>
+      <c r="C22" s="207"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="207">
+        <v>3</v>
+      </c>
+      <c r="F22" s="207">
+        <v>3</v>
+      </c>
+      <c r="G22" s="207">
+        <v>3</v>
+      </c>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="151"/>
+      <c r="Q22" s="151"/>
+      <c r="R22" s="151"/>
+      <c r="S22" s="151"/>
+      <c r="T22" s="151"/>
+      <c r="U22" s="151"/>
+      <c r="V22" s="151"/>
+      <c r="W22" s="151"/>
+      <c r="X22" s="151"/>
+      <c r="Y22" s="151"/>
+      <c r="Z22" s="151"/>
+      <c r="AA22" s="151"/>
+      <c r="AB22" s="151"/>
+      <c r="AC22" s="151"/>
+      <c r="AD22" s="151"/>
+      <c r="AE22" s="151"/>
+      <c r="AF22" s="151"/>
+      <c r="AG22" s="151"/>
+      <c r="AH22" s="151"/>
+      <c r="AI22" s="151"/>
+      <c r="AJ22" s="151"/>
+      <c r="AK22" s="151"/>
+      <c r="AL22" s="151"/>
+      <c r="AM22" s="151"/>
+      <c r="AN22" s="151"/>
+      <c r="AO22" s="151"/>
+      <c r="AP22" s="151"/>
+      <c r="AQ22" s="151"/>
+      <c r="AR22" s="151"/>
+      <c r="AS22" s="151"/>
+      <c r="AT22" s="151"/>
+      <c r="AU22" s="151"/>
+      <c r="AV22" s="151"/>
+      <c r="AW22" s="151"/>
+      <c r="AX22" s="151"/>
+      <c r="AY22" s="151"/>
+      <c r="AZ22" s="151"/>
+      <c r="BA22" s="151"/>
+      <c r="BB22" s="151"/>
+      <c r="BC22" s="151"/>
+      <c r="BD22" s="151"/>
+      <c r="BE22" s="151"/>
+      <c r="BF22" s="151"/>
+      <c r="BG22" s="151"/>
+      <c r="BH22" s="151"/>
+      <c r="BI22" s="151"/>
+      <c r="BJ22" s="151"/>
+      <c r="BK22" s="151"/>
+      <c r="BL22" s="151"/>
+      <c r="BM22" s="151"/>
+      <c r="BN22" s="151"/>
+      <c r="BO22" s="151"/>
+      <c r="BP22" s="151"/>
+      <c r="BQ22" s="151"/>
+      <c r="BR22" s="151"/>
+      <c r="BS22" s="151"/>
+      <c r="BT22" s="151"/>
+      <c r="BU22" s="151"/>
+      <c r="BV22" s="151"/>
+      <c r="BW22" s="151"/>
+      <c r="BX22" s="151"/>
+      <c r="BY22" s="151"/>
+      <c r="BZ22" s="151"/>
+      <c r="CA22" s="151"/>
+      <c r="CB22" s="151"/>
+      <c r="CC22" s="151"/>
+      <c r="CD22" s="151"/>
+      <c r="CE22" s="151"/>
+      <c r="CF22" s="151"/>
+      <c r="CG22" s="151"/>
+      <c r="CH22" s="151"/>
+      <c r="CI22" s="151"/>
+      <c r="CJ22" s="151"/>
+      <c r="CK22" s="151"/>
+      <c r="CL22" s="151"/>
+      <c r="CM22" s="151"/>
+      <c r="CN22" s="151"/>
+      <c r="CO22" s="151"/>
+      <c r="CP22" s="151"/>
+      <c r="CQ22" s="151"/>
+      <c r="CR22" s="151"/>
+      <c r="CS22" s="151"/>
+      <c r="CT22" s="151"/>
+      <c r="CU22" s="151"/>
+      <c r="CV22" s="151"/>
+      <c r="CW22" s="151"/>
+      <c r="CX22" s="151"/>
+      <c r="CY22" s="151"/>
+      <c r="CZ22" s="151"/>
+      <c r="DA22" s="151"/>
+      <c r="DB22" s="151"/>
+      <c r="DC22" s="151"/>
+      <c r="DD22" s="151"/>
+      <c r="DE22" s="151"/>
+      <c r="DF22" s="151"/>
+      <c r="DG22" s="151"/>
+      <c r="DH22" s="151"/>
+      <c r="DI22" s="151"/>
+      <c r="DJ22" s="151"/>
+      <c r="DK22" s="151"/>
+      <c r="DL22" s="151"/>
+      <c r="DM22" s="151"/>
+      <c r="DN22" s="151"/>
+      <c r="DO22" s="151"/>
+      <c r="DP22" s="151"/>
+      <c r="DQ22" s="151"/>
+      <c r="DR22" s="151"/>
+      <c r="DS22" s="151"/>
+      <c r="DT22" s="151"/>
+      <c r="DU22" s="151"/>
+      <c r="DV22" s="151"/>
+      <c r="DW22" s="151"/>
+      <c r="DX22" s="151"/>
+      <c r="DY22" s="151"/>
+      <c r="DZ22" s="151"/>
+      <c r="EA22" s="151"/>
+      <c r="EB22" s="151"/>
+      <c r="EC22" s="151"/>
+      <c r="ED22" s="151"/>
+      <c r="EE22" s="151"/>
+      <c r="EF22" s="151"/>
+      <c r="EG22" s="151"/>
+      <c r="EH22" s="151"/>
+      <c r="EI22" s="151"/>
+      <c r="EJ22" s="151"/>
+      <c r="EK22" s="151"/>
+      <c r="EL22" s="151"/>
+      <c r="EM22" s="151"/>
+      <c r="EN22" s="151"/>
+      <c r="EO22" s="151"/>
+      <c r="EP22" s="151"/>
+      <c r="EQ22" s="151"/>
+      <c r="ER22" s="151"/>
+      <c r="ES22" s="151"/>
+      <c r="ET22" s="151"/>
+      <c r="EU22" s="151"/>
+      <c r="EV22" s="151"/>
+      <c r="EW22" s="151"/>
+      <c r="EX22" s="151"/>
+      <c r="EY22" s="151"/>
+      <c r="EZ22" s="151"/>
+      <c r="FA22" s="151"/>
+      <c r="FB22" s="151"/>
+      <c r="FC22" s="151"/>
+      <c r="FD22" s="151"/>
+      <c r="FE22" s="151"/>
+      <c r="FF22" s="151"/>
+      <c r="FG22" s="151"/>
+      <c r="FH22" s="151"/>
+      <c r="FI22" s="151"/>
+      <c r="FJ22" s="151"/>
+      <c r="FK22" s="151"/>
+      <c r="FL22" s="151"/>
+      <c r="FM22" s="151"/>
+      <c r="FN22" s="151"/>
+      <c r="FO22" s="151"/>
+      <c r="FP22" s="151"/>
+      <c r="FQ22" s="151"/>
+      <c r="FR22" s="151"/>
+      <c r="FS22" s="151"/>
+      <c r="FT22" s="151"/>
+      <c r="FU22" s="151"/>
+      <c r="FV22" s="151"/>
+      <c r="FW22" s="151"/>
+      <c r="FX22" s="151"/>
+      <c r="FY22" s="151"/>
+      <c r="FZ22" s="151"/>
+      <c r="GA22" s="151"/>
+      <c r="GB22" s="151"/>
+      <c r="GC22" s="151"/>
+      <c r="GD22" s="151"/>
+      <c r="GE22" s="151"/>
+      <c r="GF22" s="151"/>
+      <c r="GG22" s="151"/>
+      <c r="GH22" s="151"/>
+      <c r="GI22" s="151"/>
+      <c r="GJ22" s="151"/>
+      <c r="GK22" s="151"/>
+      <c r="GL22" s="151"/>
+      <c r="GM22" s="151"/>
+      <c r="GN22" s="151"/>
+      <c r="GO22" s="151"/>
+      <c r="GP22" s="151"/>
+      <c r="GQ22" s="151"/>
+      <c r="GR22" s="151"/>
+      <c r="GS22" s="151"/>
+      <c r="GT22" s="151"/>
+      <c r="GU22" s="151"/>
+      <c r="GV22" s="151"/>
+      <c r="GW22" s="151"/>
+      <c r="GX22" s="151"/>
+      <c r="GY22" s="151"/>
+      <c r="GZ22" s="151"/>
+      <c r="HA22" s="151"/>
+      <c r="HB22" s="151"/>
+      <c r="HC22" s="151"/>
+      <c r="HD22" s="151"/>
+      <c r="HE22" s="151"/>
+      <c r="HF22" s="151"/>
+      <c r="HG22" s="151"/>
+      <c r="HH22" s="151"/>
+      <c r="HI22" s="151"/>
+      <c r="HJ22" s="151"/>
+      <c r="HK22" s="151"/>
+      <c r="HL22" s="151"/>
+      <c r="HM22" s="151"/>
+      <c r="HN22" s="151"/>
+      <c r="HO22" s="151"/>
+      <c r="HP22" s="151"/>
+      <c r="HQ22" s="151"/>
+      <c r="HR22" s="151"/>
+      <c r="HS22" s="151"/>
+      <c r="HT22" s="151"/>
+      <c r="HU22" s="151"/>
+      <c r="HV22" s="151"/>
+      <c r="HW22" s="151"/>
+      <c r="HX22" s="151"/>
+      <c r="HY22" s="151"/>
+      <c r="HZ22" s="151"/>
+      <c r="IA22" s="151"/>
+      <c r="IB22" s="151"/>
+      <c r="IC22" s="151"/>
+      <c r="ID22" s="151"/>
+      <c r="IE22" s="151"/>
+      <c r="IF22" s="151"/>
+      <c r="IG22" s="151"/>
+      <c r="IH22" s="151"/>
+      <c r="II22" s="151"/>
+      <c r="IJ22" s="151"/>
+      <c r="IK22" s="151"/>
+      <c r="IL22" s="151"/>
+      <c r="IM22" s="151"/>
+      <c r="IN22" s="151"/>
+      <c r="IO22" s="151"/>
+      <c r="IP22" s="151"/>
+      <c r="IQ22" s="151"/>
+      <c r="IR22" s="151"/>
+      <c r="IS22" s="151"/>
+      <c r="IT22" s="151"/>
+      <c r="IU22" s="151"/>
+      <c r="IV22" s="151"/>
+    </row>
+    <row r="23" spans="1:256" ht="29.4" customHeight="1">
+      <c r="A23" s="204" t="s">
+        <v>376</v>
+      </c>
+      <c r="E23" s="210">
+        <f>SUM(E4:E22)</f>
+        <v>3</v>
+      </c>
+      <c r="F23" s="210">
+        <f>SUM(F4:F22)</f>
+        <v>3</v>
+      </c>
+      <c r="G23" s="210">
+        <f>SUM(G4:G22)</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet9">
@@ -18883,7 +21837,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="21.6" customHeight="1"/>
@@ -18897,24 +21851,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="40.950000000000003" customHeight="1">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="247" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
     </row>
     <row r="2" spans="1:6" ht="22.8" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="248" t="s">
         <v>299</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="243"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="250"/>
     </row>
     <row r="3" spans="1:6" ht="22.65" customHeight="1">
       <c r="A3" s="130" t="s">
@@ -19115,10 +22069,10 @@
   <dimension ref="A1:IV41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="21.6" customHeight="1"/>
@@ -19131,10 +22085,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.95" customHeight="1">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="257" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="251"/>
+      <c r="B1" s="258"/>
       <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
@@ -19143,52 +22097,52 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="247"/>
+      <c r="B2" s="254"/>
       <c r="C2" s="9"/>
       <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A3" s="213"/>
-      <c r="B3" s="216"/>
+      <c r="A3" s="221"/>
+      <c r="B3" s="225"/>
       <c r="C3" s="13"/>
       <c r="D3" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A4" s="213"/>
-      <c r="B4" s="216"/>
+      <c r="A4" s="221"/>
+      <c r="B4" s="225"/>
       <c r="C4" s="15"/>
       <c r="D4" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A5" s="213"/>
-      <c r="B5" s="216"/>
+      <c r="A5" s="221"/>
+      <c r="B5" s="225"/>
       <c r="C5" s="17"/>
       <c r="D5" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A6" s="218"/>
-      <c r="B6" s="217"/>
+      <c r="A6" s="222"/>
+      <c r="B6" s="231"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A7" s="245" t="s">
+      <c r="A7" s="252" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="244" t="s">
+      <c r="B7" s="251" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="21"/>
@@ -19197,40 +22151,40 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A8" s="213"/>
-      <c r="B8" s="216"/>
+      <c r="A8" s="221"/>
+      <c r="B8" s="225"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A9" s="213"/>
-      <c r="B9" s="216"/>
+      <c r="A9" s="221"/>
+      <c r="B9" s="225"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A10" s="213"/>
-      <c r="B10" s="216"/>
+      <c r="A10" s="221"/>
+      <c r="B10" s="225"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A11" s="213"/>
-      <c r="B11" s="217"/>
+      <c r="A11" s="221"/>
+      <c r="B11" s="231"/>
       <c r="C11" s="23"/>
       <c r="D11" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A12" s="213"/>
-      <c r="B12" s="244" t="s">
+      <c r="A12" s="221"/>
+      <c r="B12" s="251" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="25"/>
@@ -19239,32 +22193,32 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A13" s="213"/>
-      <c r="B13" s="216"/>
+      <c r="A13" s="221"/>
+      <c r="B13" s="225"/>
       <c r="C13" s="17"/>
       <c r="D13" s="162" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A14" s="213"/>
-      <c r="B14" s="216"/>
+      <c r="A14" s="221"/>
+      <c r="B14" s="225"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A15" s="213"/>
-      <c r="B15" s="217"/>
+      <c r="A15" s="221"/>
+      <c r="B15" s="231"/>
       <c r="C15" s="23"/>
       <c r="D15" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A16" s="213"/>
-      <c r="B16" s="244" t="s">
+      <c r="A16" s="221"/>
+      <c r="B16" s="251" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="25"/>
@@ -19273,24 +22227,24 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A17" s="213"/>
-      <c r="B17" s="216"/>
+      <c r="A17" s="221"/>
+      <c r="B17" s="225"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A18" s="213"/>
-      <c r="B18" s="217"/>
+      <c r="A18" s="221"/>
+      <c r="B18" s="231"/>
       <c r="C18" s="29"/>
       <c r="D18" s="30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A19" s="213"/>
-      <c r="B19" s="244" t="s">
+      <c r="A19" s="221"/>
+      <c r="B19" s="251" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="21"/>
@@ -19299,72 +22253,72 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A20" s="213"/>
-      <c r="B20" s="216"/>
+      <c r="A20" s="221"/>
+      <c r="B20" s="225"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A21" s="213"/>
-      <c r="B21" s="216"/>
+      <c r="A21" s="221"/>
+      <c r="B21" s="225"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A22" s="213"/>
-      <c r="B22" s="216"/>
+      <c r="A22" s="221"/>
+      <c r="B22" s="225"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A23" s="213"/>
-      <c r="B23" s="216"/>
+      <c r="A23" s="221"/>
+      <c r="B23" s="225"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A24" s="213"/>
-      <c r="B24" s="216"/>
+      <c r="A24" s="221"/>
+      <c r="B24" s="225"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A25" s="213"/>
-      <c r="B25" s="216"/>
+      <c r="A25" s="221"/>
+      <c r="B25" s="225"/>
       <c r="C25" s="31"/>
       <c r="D25" s="32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A26" s="213"/>
-      <c r="B26" s="216"/>
+      <c r="A26" s="221"/>
+      <c r="B26" s="225"/>
       <c r="C26" s="33"/>
       <c r="D26" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A27" s="213"/>
-      <c r="B27" s="217"/>
+      <c r="A27" s="221"/>
+      <c r="B27" s="231"/>
       <c r="C27" s="35"/>
       <c r="D27" s="36" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A28" s="213"/>
-      <c r="B28" s="244" t="s">
+      <c r="A28" s="221"/>
+      <c r="B28" s="251" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="25"/>
@@ -19373,32 +22327,32 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="22.95" customHeight="1">
-      <c r="A29" s="213"/>
-      <c r="B29" s="216"/>
+      <c r="A29" s="221"/>
+      <c r="B29" s="225"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A30" s="213"/>
-      <c r="B30" s="216"/>
+      <c r="A30" s="221"/>
+      <c r="B30" s="225"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A31" s="213"/>
-      <c r="B31" s="217"/>
+      <c r="A31" s="221"/>
+      <c r="B31" s="231"/>
       <c r="C31" s="37"/>
       <c r="D31" s="38" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A32" s="213"/>
-      <c r="B32" s="244" t="s">
+      <c r="A32" s="221"/>
+      <c r="B32" s="251" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="25"/>
@@ -19407,74 +22361,74 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A33" s="213"/>
-      <c r="B33" s="216"/>
+      <c r="A33" s="221"/>
+      <c r="B33" s="225"/>
       <c r="C33" s="17"/>
       <c r="D33" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A34" s="213"/>
-      <c r="B34" s="216"/>
+      <c r="A34" s="221"/>
+      <c r="B34" s="225"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A35" s="213"/>
-      <c r="B35" s="216"/>
+      <c r="A35" s="221"/>
+      <c r="B35" s="225"/>
       <c r="C35" s="17"/>
       <c r="D35" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A36" s="213"/>
-      <c r="B36" s="216"/>
+      <c r="A36" s="221"/>
+      <c r="B36" s="225"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A37" s="213"/>
-      <c r="B37" s="216"/>
+      <c r="A37" s="221"/>
+      <c r="B37" s="225"/>
       <c r="C37" s="17"/>
       <c r="D37" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A38" s="213"/>
-      <c r="B38" s="216"/>
+      <c r="A38" s="221"/>
+      <c r="B38" s="225"/>
       <c r="C38" s="15"/>
       <c r="D38" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A39" s="213"/>
-      <c r="B39" s="216"/>
+      <c r="A39" s="221"/>
+      <c r="B39" s="225"/>
       <c r="C39" s="17"/>
       <c r="D39" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A40" s="218"/>
-      <c r="B40" s="217"/>
+      <c r="A40" s="222"/>
+      <c r="B40" s="231"/>
       <c r="C40" s="19"/>
       <c r="D40" s="20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="22.95" customHeight="1">
-      <c r="A41" s="248" t="s">
+      <c r="A41" s="255" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="249"/>
+      <c r="B41" s="256"/>
       <c r="C41" s="39"/>
       <c r="D41" s="40"/>
     </row>

--- a/personal_decorating/AA预算表_水电卫厨砖.xlsx
+++ b/personal_decorating/AA预算表_水电卫厨砖.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="431">
   <si>
     <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
   </si>
@@ -1585,7 +1585,139 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>胖子净味_绿</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胖子高强石膏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Avenir Next"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓝</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胖子嵌缝石膏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Avenir Next"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紫</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前实际</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子粉刷石膏_红</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量墙砖</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估数量</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>80m</t>
+  </si>
+  <si>
+    <t>龙眼款</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>石膏线</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包工包料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Avenir Next"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元/米</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>97*2.5=240</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>面漆</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2834,7 +2966,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3486,60 +3618,69 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3637,9 +3778,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3961,7 +4099,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4157,7 +4295,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4253,7 +4391,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4446,7 +4584,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -5761,11 +5899,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="49.95" customHeight="1">
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
     </row>
     <row r="7" spans="2:4" ht="17.399999999999999">
       <c r="B7" s="1" t="s">
@@ -6139,39 +6277,39 @@
   <sheetData>
     <row r="1" spans="1:12" ht="49.65" customHeight="1"/>
     <row r="2" spans="1:12" ht="22.2" customHeight="1">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="264" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="261" t="s">
+      <c r="B2" s="264" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="261" t="s">
+      <c r="C2" s="264" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="261" t="s">
+      <c r="D2" s="264" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
       <c r="G2" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="261" t="s">
+      <c r="H2" s="264" t="s">
         <v>238</v>
       </c>
-      <c r="I2" s="236"/>
-      <c r="J2" s="261" t="s">
+      <c r="I2" s="239"/>
+      <c r="J2" s="264" t="s">
         <v>234</v>
       </c>
-      <c r="K2" s="236"/>
-      <c r="L2" s="261" t="s">
+      <c r="K2" s="239"/>
+      <c r="L2" s="264" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="22.65" customHeight="1">
-      <c r="A3" s="262"/>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
+      <c r="A3" s="265"/>
+      <c r="B3" s="265"/>
+      <c r="C3" s="265"/>
       <c r="D3" s="102" t="s">
         <v>234</v>
       </c>
@@ -6194,7 +6332,7 @@
       <c r="K3" s="102" t="s">
         <v>244</v>
       </c>
-      <c r="L3" s="262"/>
+      <c r="L3" s="265"/>
     </row>
     <row r="4" spans="1:12" ht="22.8" customHeight="1">
       <c r="A4" s="63"/>
@@ -6477,10 +6615,10 @@
       <c r="L23" s="109"/>
     </row>
     <row r="24" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A24" s="259" t="s">
+      <c r="A24" s="262" t="s">
         <v>230</v>
       </c>
-      <c r="B24" s="260"/>
+      <c r="B24" s="263"/>
       <c r="C24" s="110"/>
       <c r="D24" s="111"/>
       <c r="E24" s="112">
@@ -6542,16 +6680,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="238" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
     </row>
     <row r="2" spans="1:8" ht="22.65" customHeight="1">
       <c r="A2" s="116" t="s">
@@ -6576,7 +6714,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="138.6" customHeight="1">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="266" t="s">
         <v>171</v>
       </c>
       <c r="B3" s="117" t="s">
@@ -6590,7 +6728,7 @@
       <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8" ht="82.65" customHeight="1">
-      <c r="A4" s="227"/>
+      <c r="A4" s="236"/>
       <c r="B4" s="83" t="s">
         <v>251</v>
       </c>
@@ -6602,7 +6740,7 @@
       <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:8" ht="148.65" customHeight="1">
-      <c r="A5" s="264" t="s">
+      <c r="A5" s="267" t="s">
         <v>205</v>
       </c>
       <c r="B5" s="83" t="s">
@@ -6616,7 +6754,7 @@
       <c r="H5" s="69"/>
     </row>
     <row r="6" spans="1:8" ht="72" customHeight="1">
-      <c r="A6" s="227"/>
+      <c r="A6" s="236"/>
       <c r="B6" s="83" t="s">
         <v>251</v>
       </c>
@@ -6865,12 +7003,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="41.85" customHeight="1">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="268" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
     </row>
     <row r="2" spans="1:4" ht="22.8" customHeight="1">
       <c r="A2" s="146"/>
@@ -7033,12 +7171,12 @@
     <row r="1" spans="2:8" ht="6.45" customHeight="1"/>
     <row r="2" spans="2:8" ht="41.25" customHeight="1">
       <c r="B2" s="152"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7083,20 +7221,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="163.95" customHeight="1"/>
     <row r="2" spans="1:12" ht="31.35" customHeight="1">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="234" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
-      <c r="L2" s="219"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1">
       <c r="A3" s="56" t="s">
@@ -7137,10 +7275,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A4" s="223" t="s">
+      <c r="A4" s="235" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="229" t="s">
+      <c r="B4" s="231" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="61" t="b">
@@ -7163,8 +7301,8 @@
       <c r="L4" s="63"/>
     </row>
     <row r="5" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A5" s="221"/>
-      <c r="B5" s="225"/>
+      <c r="A5" s="223"/>
+      <c r="B5" s="226"/>
       <c r="C5" s="64" t="b">
         <v>0</v>
       </c>
@@ -7183,8 +7321,8 @@
       <c r="L5" s="66"/>
     </row>
     <row r="6" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A6" s="221"/>
-      <c r="B6" s="225"/>
+      <c r="A6" s="223"/>
+      <c r="B6" s="226"/>
       <c r="C6" s="67" t="b">
         <v>0</v>
       </c>
@@ -7201,8 +7339,8 @@
       <c r="L6" s="69"/>
     </row>
     <row r="7" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A7" s="221"/>
-      <c r="B7" s="224" t="s">
+      <c r="A7" s="223"/>
+      <c r="B7" s="230" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="64" t="b">
@@ -7221,8 +7359,8 @@
       <c r="L7" s="66"/>
     </row>
     <row r="8" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A8" s="222"/>
-      <c r="B8" s="231"/>
+      <c r="A8" s="228"/>
+      <c r="B8" s="227"/>
       <c r="C8" s="71" t="b">
         <v>0</v>
       </c>
@@ -7239,10 +7377,10 @@
       <c r="L8" s="69"/>
     </row>
     <row r="9" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A9" s="220" t="s">
+      <c r="A9" s="222" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="230"/>
+      <c r="B9" s="232"/>
       <c r="C9" s="73" t="b">
         <v>0</v>
       </c>
@@ -7259,8 +7397,8 @@
       <c r="L9" s="66"/>
     </row>
     <row r="10" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A10" s="221"/>
-      <c r="B10" s="225"/>
+      <c r="A10" s="223"/>
+      <c r="B10" s="226"/>
       <c r="C10" s="67" t="b">
         <v>0</v>
       </c>
@@ -7277,8 +7415,8 @@
       <c r="L10" s="69"/>
     </row>
     <row r="11" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A11" s="221"/>
-      <c r="B11" s="225"/>
+      <c r="A11" s="223"/>
+      <c r="B11" s="226"/>
       <c r="C11" s="64" t="b">
         <v>0</v>
       </c>
@@ -7295,8 +7433,8 @@
       <c r="L11" s="66"/>
     </row>
     <row r="12" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A12" s="221"/>
-      <c r="B12" s="225"/>
+      <c r="A12" s="223"/>
+      <c r="B12" s="226"/>
       <c r="C12" s="67" t="b">
         <v>0</v>
       </c>
@@ -7313,8 +7451,8 @@
       <c r="L12" s="69"/>
     </row>
     <row r="13" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A13" s="222"/>
-      <c r="B13" s="231"/>
+      <c r="A13" s="228"/>
+      <c r="B13" s="227"/>
       <c r="C13" s="75" t="b">
         <v>0</v>
       </c>
@@ -7331,7 +7469,7 @@
       <c r="L13" s="66"/>
     </row>
     <row r="14" spans="1:12" ht="23.1" customHeight="1">
-      <c r="A14" s="220" t="s">
+      <c r="A14" s="222" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="77" t="s">
@@ -7353,8 +7491,8 @@
       <c r="L14" s="69"/>
     </row>
     <row r="15" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A15" s="221"/>
-      <c r="B15" s="224" t="s">
+      <c r="A15" s="223"/>
+      <c r="B15" s="230" t="s">
         <v>93</v>
       </c>
       <c r="C15" s="64" t="b">
@@ -7373,8 +7511,8 @@
       <c r="L15" s="66"/>
     </row>
     <row r="16" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A16" s="221"/>
-      <c r="B16" s="225"/>
+      <c r="A16" s="223"/>
+      <c r="B16" s="226"/>
       <c r="C16" s="67" t="b">
         <v>0</v>
       </c>
@@ -7391,8 +7529,8 @@
       <c r="L16" s="69"/>
     </row>
     <row r="17" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A17" s="221"/>
-      <c r="B17" s="225"/>
+      <c r="A17" s="223"/>
+      <c r="B17" s="226"/>
       <c r="C17" s="64" t="b">
         <v>0</v>
       </c>
@@ -7409,8 +7547,8 @@
       <c r="L17" s="66"/>
     </row>
     <row r="18" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A18" s="221"/>
-      <c r="B18" s="225"/>
+      <c r="A18" s="223"/>
+      <c r="B18" s="226"/>
       <c r="C18" s="67" t="b">
         <v>0</v>
       </c>
@@ -7427,8 +7565,8 @@
       <c r="L18" s="69"/>
     </row>
     <row r="19" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A19" s="221"/>
-      <c r="B19" s="225"/>
+      <c r="A19" s="223"/>
+      <c r="B19" s="226"/>
       <c r="C19" s="64" t="b">
         <v>0</v>
       </c>
@@ -7445,8 +7583,8 @@
       <c r="L19" s="66"/>
     </row>
     <row r="20" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A20" s="222"/>
-      <c r="B20" s="231"/>
+      <c r="A20" s="228"/>
+      <c r="B20" s="227"/>
       <c r="C20" s="71" t="b">
         <v>0</v>
       </c>
@@ -7463,10 +7601,10 @@
       <c r="L20" s="69"/>
     </row>
     <row r="21" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A21" s="220" t="s">
+      <c r="A21" s="222" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="232" t="s">
+      <c r="B21" s="233" t="s">
         <v>101</v>
       </c>
       <c r="C21" s="73" t="b">
@@ -7485,8 +7623,8 @@
       <c r="L21" s="66"/>
     </row>
     <row r="22" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A22" s="221"/>
-      <c r="B22" s="225"/>
+      <c r="A22" s="223"/>
+      <c r="B22" s="226"/>
       <c r="C22" s="67" t="b">
         <v>0</v>
       </c>
@@ -7503,8 +7641,8 @@
       <c r="L22" s="69"/>
     </row>
     <row r="23" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A23" s="221"/>
-      <c r="B23" s="225"/>
+      <c r="A23" s="223"/>
+      <c r="B23" s="226"/>
       <c r="C23" s="64" t="b">
         <v>0</v>
       </c>
@@ -7521,8 +7659,8 @@
       <c r="L23" s="66"/>
     </row>
     <row r="24" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A24" s="221"/>
-      <c r="B24" s="225"/>
+      <c r="A24" s="223"/>
+      <c r="B24" s="226"/>
       <c r="C24" s="67" t="b">
         <v>0</v>
       </c>
@@ -7539,8 +7677,8 @@
       <c r="L24" s="69"/>
     </row>
     <row r="25" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A25" s="221"/>
-      <c r="B25" s="234" t="s">
+      <c r="A25" s="223"/>
+      <c r="B25" s="225" t="s">
         <v>106</v>
       </c>
       <c r="C25" s="64" t="b">
@@ -7559,8 +7697,8 @@
       <c r="L25" s="66"/>
     </row>
     <row r="26" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A26" s="221"/>
-      <c r="B26" s="225"/>
+      <c r="A26" s="223"/>
+      <c r="B26" s="226"/>
       <c r="C26" s="67" t="b">
         <v>0</v>
       </c>
@@ -7577,8 +7715,8 @@
       <c r="L26" s="69"/>
     </row>
     <row r="27" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A27" s="221"/>
-      <c r="B27" s="234" t="s">
+      <c r="A27" s="223"/>
+      <c r="B27" s="225" t="s">
         <v>109</v>
       </c>
       <c r="C27" s="64" t="b">
@@ -7597,8 +7735,8 @@
       <c r="L27" s="66"/>
     </row>
     <row r="28" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A28" s="221"/>
-      <c r="B28" s="225"/>
+      <c r="A28" s="223"/>
+      <c r="B28" s="226"/>
       <c r="C28" s="67" t="b">
         <v>0</v>
       </c>
@@ -7615,8 +7753,8 @@
       <c r="L28" s="69"/>
     </row>
     <row r="29" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A29" s="221"/>
-      <c r="B29" s="225"/>
+      <c r="A29" s="223"/>
+      <c r="B29" s="226"/>
       <c r="C29" s="64" t="b">
         <v>0</v>
       </c>
@@ -7633,8 +7771,8 @@
       <c r="L29" s="66"/>
     </row>
     <row r="30" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A30" s="221"/>
-      <c r="B30" s="225"/>
+      <c r="A30" s="223"/>
+      <c r="B30" s="226"/>
       <c r="C30" s="67" t="b">
         <v>0</v>
       </c>
@@ -7651,8 +7789,8 @@
       <c r="L30" s="69"/>
     </row>
     <row r="31" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A31" s="221"/>
-      <c r="B31" s="225"/>
+      <c r="A31" s="223"/>
+      <c r="B31" s="226"/>
       <c r="C31" s="64" t="b">
         <v>0</v>
       </c>
@@ -7669,8 +7807,8 @@
       <c r="L31" s="66"/>
     </row>
     <row r="32" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A32" s="221"/>
-      <c r="B32" s="225"/>
+      <c r="A32" s="223"/>
+      <c r="B32" s="226"/>
       <c r="C32" s="67" t="b">
         <v>0</v>
       </c>
@@ -7687,8 +7825,8 @@
       <c r="L32" s="69"/>
     </row>
     <row r="33" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A33" s="221"/>
-      <c r="B33" s="225"/>
+      <c r="A33" s="223"/>
+      <c r="B33" s="226"/>
       <c r="C33" s="64" t="b">
         <v>0</v>
       </c>
@@ -7705,8 +7843,8 @@
       <c r="L33" s="66"/>
     </row>
     <row r="34" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A34" s="221"/>
-      <c r="B34" s="234" t="s">
+      <c r="A34" s="223"/>
+      <c r="B34" s="225" t="s">
         <v>117</v>
       </c>
       <c r="C34" s="67" t="b">
@@ -7725,8 +7863,8 @@
       <c r="L34" s="69"/>
     </row>
     <row r="35" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A35" s="222"/>
-      <c r="B35" s="231"/>
+      <c r="A35" s="228"/>
+      <c r="B35" s="227"/>
       <c r="C35" s="75" t="b">
         <v>0</v>
       </c>
@@ -7743,10 +7881,10 @@
       <c r="L35" s="66"/>
     </row>
     <row r="36" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A36" s="220" t="s">
+      <c r="A36" s="222" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="226" t="s">
+      <c r="B36" s="229" t="s">
         <v>121</v>
       </c>
       <c r="C36" s="78" t="b">
@@ -7765,8 +7903,8 @@
       <c r="L36" s="69"/>
     </row>
     <row r="37" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A37" s="221"/>
-      <c r="B37" s="225"/>
+      <c r="A37" s="223"/>
+      <c r="B37" s="226"/>
       <c r="C37" s="64" t="b">
         <v>0</v>
       </c>
@@ -7783,7 +7921,7 @@
       <c r="L37" s="66"/>
     </row>
     <row r="38" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A38" s="221"/>
+      <c r="A38" s="223"/>
       <c r="B38" s="70" t="s">
         <v>123</v>
       </c>
@@ -7803,8 +7941,8 @@
       <c r="L38" s="69"/>
     </row>
     <row r="39" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A39" s="221"/>
-      <c r="B39" s="234" t="s">
+      <c r="A39" s="223"/>
+      <c r="B39" s="225" t="s">
         <v>124</v>
       </c>
       <c r="C39" s="64" t="b">
@@ -7823,8 +7961,8 @@
       <c r="L39" s="66"/>
     </row>
     <row r="40" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A40" s="221"/>
-      <c r="B40" s="225"/>
+      <c r="A40" s="223"/>
+      <c r="B40" s="226"/>
       <c r="C40" s="67" t="b">
         <v>0</v>
       </c>
@@ -7841,8 +7979,8 @@
       <c r="L40" s="69"/>
     </row>
     <row r="41" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A41" s="222"/>
-      <c r="B41" s="231"/>
+      <c r="A41" s="228"/>
+      <c r="B41" s="227"/>
       <c r="C41" s="75" t="b">
         <v>0</v>
       </c>
@@ -7859,7 +7997,7 @@
       <c r="L41" s="66"/>
     </row>
     <row r="42" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A42" s="220" t="s">
+      <c r="A42" s="222" t="s">
         <v>128</v>
       </c>
       <c r="B42" s="77" t="s">
@@ -7881,8 +8019,8 @@
       <c r="L42" s="69"/>
     </row>
     <row r="43" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A43" s="221"/>
-      <c r="B43" s="224" t="s">
+      <c r="A43" s="223"/>
+      <c r="B43" s="230" t="s">
         <v>131</v>
       </c>
       <c r="C43" s="64" t="b">
@@ -7901,8 +8039,8 @@
       <c r="L43" s="66"/>
     </row>
     <row r="44" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A44" s="221"/>
-      <c r="B44" s="225"/>
+      <c r="A44" s="223"/>
+      <c r="B44" s="226"/>
       <c r="C44" s="67" t="b">
         <v>0</v>
       </c>
@@ -7919,8 +8057,8 @@
       <c r="L44" s="69"/>
     </row>
     <row r="45" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A45" s="221"/>
-      <c r="B45" s="225"/>
+      <c r="A45" s="223"/>
+      <c r="B45" s="226"/>
       <c r="C45" s="64" t="b">
         <v>0</v>
       </c>
@@ -7937,8 +8075,8 @@
       <c r="L45" s="66"/>
     </row>
     <row r="46" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A46" s="221"/>
-      <c r="B46" s="224" t="s">
+      <c r="A46" s="223"/>
+      <c r="B46" s="230" t="s">
         <v>135</v>
       </c>
       <c r="C46" s="67" t="b">
@@ -7957,8 +8095,8 @@
       <c r="L46" s="69"/>
     </row>
     <row r="47" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A47" s="221"/>
-      <c r="B47" s="225"/>
+      <c r="A47" s="223"/>
+      <c r="B47" s="226"/>
       <c r="C47" s="64" t="b">
         <v>0</v>
       </c>
@@ -7975,15 +8113,15 @@
       <c r="L47" s="66"/>
     </row>
     <row r="48" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A48" s="221"/>
-      <c r="B48" s="225"/>
+      <c r="A48" s="223"/>
+      <c r="B48" s="226"/>
       <c r="C48" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D48" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="227"/>
+      <c r="E48" s="236"/>
       <c r="F48" s="69"/>
       <c r="G48" s="69"/>
       <c r="H48" s="69"/>
@@ -7993,15 +8131,15 @@
       <c r="L48" s="69"/>
     </row>
     <row r="49" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A49" s="221"/>
-      <c r="B49" s="225"/>
+      <c r="A49" s="223"/>
+      <c r="B49" s="226"/>
       <c r="C49" s="64" t="b">
         <v>0</v>
       </c>
       <c r="D49" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="E49" s="228"/>
+      <c r="E49" s="237"/>
       <c r="F49" s="66"/>
       <c r="G49" s="66"/>
       <c r="H49" s="66"/>
@@ -8011,8 +8149,8 @@
       <c r="L49" s="66"/>
     </row>
     <row r="50" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A50" s="221"/>
-      <c r="B50" s="224" t="s">
+      <c r="A50" s="223"/>
+      <c r="B50" s="230" t="s">
         <v>140</v>
       </c>
       <c r="C50" s="67" t="b">
@@ -8021,7 +8159,7 @@
       <c r="D50" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="E50" s="227"/>
+      <c r="E50" s="236"/>
       <c r="F50" s="69"/>
       <c r="G50" s="69"/>
       <c r="H50" s="69"/>
@@ -8031,15 +8169,15 @@
       <c r="L50" s="69"/>
     </row>
     <row r="51" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A51" s="221"/>
-      <c r="B51" s="225"/>
+      <c r="A51" s="223"/>
+      <c r="B51" s="226"/>
       <c r="C51" s="64" t="b">
         <v>0</v>
       </c>
       <c r="D51" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="E51" s="228"/>
+      <c r="E51" s="237"/>
       <c r="F51" s="66"/>
       <c r="G51" s="66"/>
       <c r="H51" s="66"/>
@@ -8049,8 +8187,8 @@
       <c r="L51" s="66"/>
     </row>
     <row r="52" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A52" s="221"/>
-      <c r="B52" s="225"/>
+      <c r="A52" s="223"/>
+      <c r="B52" s="226"/>
       <c r="C52" s="67" t="b">
         <v>0</v>
       </c>
@@ -8067,7 +8205,7 @@
       <c r="L52" s="69"/>
     </row>
     <row r="53" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A53" s="221"/>
+      <c r="A53" s="223"/>
       <c r="B53" s="70" t="s">
         <v>144</v>
       </c>
@@ -8087,7 +8225,7 @@
       <c r="L53" s="66"/>
     </row>
     <row r="54" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A54" s="221"/>
+      <c r="A54" s="223"/>
       <c r="B54" s="70" t="s">
         <v>146</v>
       </c>
@@ -8107,7 +8245,7 @@
       <c r="L54" s="69"/>
     </row>
     <row r="55" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A55" s="222"/>
+      <c r="A55" s="228"/>
       <c r="B55" s="84" t="s">
         <v>148</v>
       </c>
@@ -8127,10 +8265,10 @@
       <c r="L55" s="66"/>
     </row>
     <row r="56" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A56" s="220" t="s">
+      <c r="A56" s="222" t="s">
         <v>150</v>
       </c>
-      <c r="B56" s="226" t="s">
+      <c r="B56" s="229" t="s">
         <v>151</v>
       </c>
       <c r="C56" s="78" t="b">
@@ -8149,8 +8287,8 @@
       <c r="L56" s="69"/>
     </row>
     <row r="57" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A57" s="221"/>
-      <c r="B57" s="225"/>
+      <c r="A57" s="223"/>
+      <c r="B57" s="226"/>
       <c r="C57" s="64" t="b">
         <v>0</v>
       </c>
@@ -8167,8 +8305,8 @@
       <c r="L57" s="66"/>
     </row>
     <row r="58" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A58" s="221"/>
-      <c r="B58" s="225"/>
+      <c r="A58" s="223"/>
+      <c r="B58" s="226"/>
       <c r="C58" s="67" t="b">
         <v>0</v>
       </c>
@@ -8185,8 +8323,8 @@
       <c r="L58" s="69"/>
     </row>
     <row r="59" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A59" s="221"/>
-      <c r="B59" s="225"/>
+      <c r="A59" s="223"/>
+      <c r="B59" s="226"/>
       <c r="C59" s="64" t="b">
         <v>0</v>
       </c>
@@ -8203,8 +8341,8 @@
       <c r="L59" s="66"/>
     </row>
     <row r="60" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A60" s="221"/>
-      <c r="B60" s="225"/>
+      <c r="A60" s="223"/>
+      <c r="B60" s="226"/>
       <c r="C60" s="67" t="b">
         <v>0</v>
       </c>
@@ -8221,8 +8359,8 @@
       <c r="L60" s="69"/>
     </row>
     <row r="61" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A61" s="221"/>
-      <c r="B61" s="225"/>
+      <c r="A61" s="223"/>
+      <c r="B61" s="226"/>
       <c r="C61" s="64" t="b">
         <v>0</v>
       </c>
@@ -8239,8 +8377,8 @@
       <c r="L61" s="66"/>
     </row>
     <row r="62" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A62" s="221"/>
-      <c r="B62" s="224" t="s">
+      <c r="A62" s="223"/>
+      <c r="B62" s="230" t="s">
         <v>158</v>
       </c>
       <c r="C62" s="67" t="b">
@@ -8259,8 +8397,8 @@
       <c r="L62" s="69"/>
     </row>
     <row r="63" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A63" s="221"/>
-      <c r="B63" s="225"/>
+      <c r="A63" s="223"/>
+      <c r="B63" s="226"/>
       <c r="C63" s="64" t="b">
         <v>0</v>
       </c>
@@ -8277,7 +8415,7 @@
       <c r="L63" s="66"/>
     </row>
     <row r="64" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A64" s="222"/>
+      <c r="A64" s="228"/>
       <c r="B64" s="84" t="s">
         <v>161</v>
       </c>
@@ -8297,10 +8435,10 @@
       <c r="L64" s="69"/>
     </row>
     <row r="65" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A65" s="220" t="s">
+      <c r="A65" s="222" t="s">
         <v>163</v>
       </c>
-      <c r="B65" s="226" t="s">
+      <c r="B65" s="229" t="s">
         <v>158</v>
       </c>
       <c r="C65" s="73" t="b">
@@ -8319,8 +8457,8 @@
       <c r="L65" s="66"/>
     </row>
     <row r="66" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A66" s="221"/>
-      <c r="B66" s="225"/>
+      <c r="A66" s="223"/>
+      <c r="B66" s="226"/>
       <c r="C66" s="67" t="b">
         <v>0</v>
       </c>
@@ -8337,8 +8475,8 @@
       <c r="L66" s="69"/>
     </row>
     <row r="67" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A67" s="221"/>
-      <c r="B67" s="225"/>
+      <c r="A67" s="223"/>
+      <c r="B67" s="226"/>
       <c r="C67" s="64" t="b">
         <v>0</v>
       </c>
@@ -8355,8 +8493,8 @@
       <c r="L67" s="66"/>
     </row>
     <row r="68" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A68" s="221"/>
-      <c r="B68" s="225"/>
+      <c r="A68" s="223"/>
+      <c r="B68" s="226"/>
       <c r="C68" s="67" t="b">
         <v>0</v>
       </c>
@@ -8373,8 +8511,8 @@
       <c r="L68" s="69"/>
     </row>
     <row r="69" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A69" s="221"/>
-      <c r="B69" s="224" t="s">
+      <c r="A69" s="223"/>
+      <c r="B69" s="230" t="s">
         <v>161</v>
       </c>
       <c r="C69" s="64" t="b">
@@ -8393,8 +8531,8 @@
       <c r="L69" s="66"/>
     </row>
     <row r="70" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A70" s="221"/>
-      <c r="B70" s="225"/>
+      <c r="A70" s="223"/>
+      <c r="B70" s="226"/>
       <c r="C70" s="67" t="b">
         <v>0</v>
       </c>
@@ -8411,8 +8549,8 @@
       <c r="L70" s="69"/>
     </row>
     <row r="71" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A71" s="221"/>
-      <c r="B71" s="225"/>
+      <c r="A71" s="223"/>
+      <c r="B71" s="226"/>
       <c r="C71" s="64" t="b">
         <v>0</v>
       </c>
@@ -8429,8 +8567,8 @@
       <c r="L71" s="66"/>
     </row>
     <row r="72" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A72" s="221"/>
-      <c r="B72" s="224" t="s">
+      <c r="A72" s="223"/>
+      <c r="B72" s="230" t="s">
         <v>171</v>
       </c>
       <c r="C72" s="67" t="b">
@@ -8449,8 +8587,8 @@
       <c r="L72" s="69"/>
     </row>
     <row r="73" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A73" s="221"/>
-      <c r="B73" s="225"/>
+      <c r="A73" s="223"/>
+      <c r="B73" s="226"/>
       <c r="C73" s="64" t="b">
         <v>0</v>
       </c>
@@ -8467,8 +8605,8 @@
       <c r="L73" s="66"/>
     </row>
     <row r="74" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A74" s="221"/>
-      <c r="B74" s="225"/>
+      <c r="A74" s="223"/>
+      <c r="B74" s="226"/>
       <c r="C74" s="67" t="b">
         <v>0</v>
       </c>
@@ -8485,7 +8623,7 @@
       <c r="L74" s="69"/>
     </row>
     <row r="75" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A75" s="222"/>
+      <c r="A75" s="228"/>
       <c r="B75" s="84" t="s">
         <v>151</v>
       </c>
@@ -8505,10 +8643,10 @@
       <c r="L75" s="66"/>
     </row>
     <row r="76" spans="1:12" ht="23.1" customHeight="1">
-      <c r="A76" s="220" t="s">
+      <c r="A76" s="222" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="226" t="s">
+      <c r="B76" s="229" t="s">
         <v>177</v>
       </c>
       <c r="C76" s="78" t="b">
@@ -8527,8 +8665,8 @@
       <c r="L76" s="69"/>
     </row>
     <row r="77" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A77" s="221"/>
-      <c r="B77" s="225"/>
+      <c r="A77" s="223"/>
+      <c r="B77" s="226"/>
       <c r="C77" s="64" t="b">
         <v>0</v>
       </c>
@@ -8545,8 +8683,8 @@
       <c r="L77" s="66"/>
     </row>
     <row r="78" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A78" s="221"/>
-      <c r="B78" s="224" t="s">
+      <c r="A78" s="223"/>
+      <c r="B78" s="230" t="s">
         <v>180</v>
       </c>
       <c r="C78" s="67" t="b">
@@ -8565,8 +8703,8 @@
       <c r="L78" s="69"/>
     </row>
     <row r="79" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A79" s="221"/>
-      <c r="B79" s="225"/>
+      <c r="A79" s="223"/>
+      <c r="B79" s="226"/>
       <c r="C79" s="64" t="b">
         <v>0</v>
       </c>
@@ -8583,8 +8721,8 @@
       <c r="L79" s="66"/>
     </row>
     <row r="80" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A80" s="221"/>
-      <c r="B80" s="225"/>
+      <c r="A80" s="223"/>
+      <c r="B80" s="226"/>
       <c r="C80" s="67" t="b">
         <v>0</v>
       </c>
@@ -8601,8 +8739,8 @@
       <c r="L80" s="69"/>
     </row>
     <row r="81" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A81" s="221"/>
-      <c r="B81" s="225"/>
+      <c r="A81" s="223"/>
+      <c r="B81" s="226"/>
       <c r="C81" s="64" t="b">
         <v>0</v>
       </c>
@@ -8619,8 +8757,8 @@
       <c r="L81" s="66"/>
     </row>
     <row r="82" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A82" s="221"/>
-      <c r="B82" s="225"/>
+      <c r="A82" s="223"/>
+      <c r="B82" s="226"/>
       <c r="C82" s="67" t="b">
         <v>0</v>
       </c>
@@ -8637,8 +8775,8 @@
       <c r="L82" s="69"/>
     </row>
     <row r="83" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A83" s="221"/>
-      <c r="B83" s="225"/>
+      <c r="A83" s="223"/>
+      <c r="B83" s="226"/>
       <c r="C83" s="64" t="b">
         <v>0</v>
       </c>
@@ -8655,8 +8793,8 @@
       <c r="L83" s="66"/>
     </row>
     <row r="84" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A84" s="221"/>
-      <c r="B84" s="224" t="s">
+      <c r="A84" s="223"/>
+      <c r="B84" s="230" t="s">
         <v>171</v>
       </c>
       <c r="C84" s="67" t="b">
@@ -8675,8 +8813,8 @@
       <c r="L84" s="69"/>
     </row>
     <row r="85" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A85" s="221"/>
-      <c r="B85" s="225"/>
+      <c r="A85" s="223"/>
+      <c r="B85" s="226"/>
       <c r="C85" s="64" t="b">
         <v>0</v>
       </c>
@@ -8693,8 +8831,8 @@
       <c r="L85" s="66"/>
     </row>
     <row r="86" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A86" s="221"/>
-      <c r="B86" s="225"/>
+      <c r="A86" s="223"/>
+      <c r="B86" s="226"/>
       <c r="C86" s="67" t="b">
         <v>0</v>
       </c>
@@ -8711,8 +8849,8 @@
       <c r="L86" s="69"/>
     </row>
     <row r="87" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A87" s="221"/>
-      <c r="B87" s="225"/>
+      <c r="A87" s="223"/>
+      <c r="B87" s="226"/>
       <c r="C87" s="64" t="b">
         <v>0</v>
       </c>
@@ -8729,8 +8867,8 @@
       <c r="L87" s="66"/>
     </row>
     <row r="88" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A88" s="221"/>
-      <c r="B88" s="225"/>
+      <c r="A88" s="223"/>
+      <c r="B88" s="226"/>
       <c r="C88" s="67" t="b">
         <v>0</v>
       </c>
@@ -8747,8 +8885,8 @@
       <c r="L88" s="69"/>
     </row>
     <row r="89" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A89" s="221"/>
-      <c r="B89" s="224" t="s">
+      <c r="A89" s="223"/>
+      <c r="B89" s="230" t="s">
         <v>161</v>
       </c>
       <c r="C89" s="64" t="b">
@@ -8767,8 +8905,8 @@
       <c r="L89" s="66"/>
     </row>
     <row r="90" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A90" s="221"/>
-      <c r="B90" s="225"/>
+      <c r="A90" s="223"/>
+      <c r="B90" s="226"/>
       <c r="C90" s="67" t="b">
         <v>0</v>
       </c>
@@ -8785,8 +8923,8 @@
       <c r="L90" s="69"/>
     </row>
     <row r="91" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A91" s="221"/>
-      <c r="B91" s="224" t="s">
+      <c r="A91" s="223"/>
+      <c r="B91" s="230" t="s">
         <v>193</v>
       </c>
       <c r="C91" s="64" t="b">
@@ -8805,8 +8943,8 @@
       <c r="L91" s="66"/>
     </row>
     <row r="92" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A92" s="221"/>
-      <c r="B92" s="225"/>
+      <c r="A92" s="223"/>
+      <c r="B92" s="226"/>
       <c r="C92" s="67" t="b">
         <v>0</v>
       </c>
@@ -8823,8 +8961,8 @@
       <c r="L92" s="69"/>
     </row>
     <row r="93" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A93" s="221"/>
-      <c r="B93" s="225"/>
+      <c r="A93" s="223"/>
+      <c r="B93" s="226"/>
       <c r="C93" s="64" t="b">
         <v>0</v>
       </c>
@@ -8841,8 +8979,8 @@
       <c r="L93" s="66"/>
     </row>
     <row r="94" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A94" s="221"/>
-      <c r="B94" s="225"/>
+      <c r="A94" s="223"/>
+      <c r="B94" s="226"/>
       <c r="C94" s="67" t="b">
         <v>0</v>
       </c>
@@ -8859,8 +8997,8 @@
       <c r="L94" s="69"/>
     </row>
     <row r="95" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A95" s="221"/>
-      <c r="B95" s="225"/>
+      <c r="A95" s="223"/>
+      <c r="B95" s="226"/>
       <c r="C95" s="64" t="b">
         <v>0</v>
       </c>
@@ -8877,8 +9015,8 @@
       <c r="L95" s="66"/>
     </row>
     <row r="96" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A96" s="221"/>
-      <c r="B96" s="225"/>
+      <c r="A96" s="223"/>
+      <c r="B96" s="226"/>
       <c r="C96" s="67" t="b">
         <v>0</v>
       </c>
@@ -8895,8 +9033,8 @@
       <c r="L96" s="69"/>
     </row>
     <row r="97" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A97" s="221"/>
-      <c r="B97" s="225"/>
+      <c r="A97" s="223"/>
+      <c r="B97" s="226"/>
       <c r="C97" s="64" t="b">
         <v>0</v>
       </c>
@@ -8913,8 +9051,8 @@
       <c r="L97" s="66"/>
     </row>
     <row r="98" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A98" s="221"/>
-      <c r="B98" s="234" t="s">
+      <c r="A98" s="223"/>
+      <c r="B98" s="225" t="s">
         <v>201</v>
       </c>
       <c r="C98" s="67" t="b">
@@ -8933,8 +9071,8 @@
       <c r="L98" s="69"/>
     </row>
     <row r="99" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A99" s="221"/>
-      <c r="B99" s="225"/>
+      <c r="A99" s="223"/>
+      <c r="B99" s="226"/>
       <c r="C99" s="64" t="b">
         <v>0</v>
       </c>
@@ -8951,8 +9089,8 @@
       <c r="L99" s="66"/>
     </row>
     <row r="100" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A100" s="221"/>
-      <c r="B100" s="225"/>
+      <c r="A100" s="223"/>
+      <c r="B100" s="226"/>
       <c r="C100" s="67" t="b">
         <v>0</v>
       </c>
@@ -8969,8 +9107,8 @@
       <c r="L100" s="69"/>
     </row>
     <row r="101" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A101" s="221"/>
-      <c r="B101" s="225"/>
+      <c r="A101" s="223"/>
+      <c r="B101" s="226"/>
       <c r="C101" s="64" t="b">
         <v>0</v>
       </c>
@@ -8987,8 +9125,8 @@
       <c r="L101" s="66"/>
     </row>
     <row r="102" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A102" s="221"/>
-      <c r="B102" s="234" t="s">
+      <c r="A102" s="223"/>
+      <c r="B102" s="225" t="s">
         <v>205</v>
       </c>
       <c r="C102" s="67" t="b">
@@ -9007,8 +9145,8 @@
       <c r="L102" s="69"/>
     </row>
     <row r="103" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A103" s="221"/>
-      <c r="B103" s="225"/>
+      <c r="A103" s="223"/>
+      <c r="B103" s="226"/>
       <c r="C103" s="64" t="b">
         <v>0</v>
       </c>
@@ -9025,8 +9163,8 @@
       <c r="L103" s="66"/>
     </row>
     <row r="104" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A104" s="221"/>
-      <c r="B104" s="224" t="s">
+      <c r="A104" s="223"/>
+      <c r="B104" s="230" t="s">
         <v>151</v>
       </c>
       <c r="C104" s="67" t="b">
@@ -9045,8 +9183,8 @@
       <c r="L104" s="69"/>
     </row>
     <row r="105" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A105" s="221"/>
-      <c r="B105" s="225"/>
+      <c r="A105" s="223"/>
+      <c r="B105" s="226"/>
       <c r="C105" s="64" t="b">
         <v>0</v>
       </c>
@@ -9063,8 +9201,8 @@
       <c r="L105" s="66"/>
     </row>
     <row r="106" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A106" s="221"/>
-      <c r="B106" s="225"/>
+      <c r="A106" s="223"/>
+      <c r="B106" s="226"/>
       <c r="C106" s="67" t="b">
         <v>0</v>
       </c>
@@ -9081,8 +9219,8 @@
       <c r="L106" s="69"/>
     </row>
     <row r="107" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A107" s="221"/>
-      <c r="B107" s="225"/>
+      <c r="A107" s="223"/>
+      <c r="B107" s="226"/>
       <c r="C107" s="64" t="b">
         <v>0</v>
       </c>
@@ -9099,8 +9237,8 @@
       <c r="L107" s="66"/>
     </row>
     <row r="108" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A108" s="221"/>
-      <c r="B108" s="225"/>
+      <c r="A108" s="223"/>
+      <c r="B108" s="226"/>
       <c r="C108" s="67" t="b">
         <v>0</v>
       </c>
@@ -9117,8 +9255,8 @@
       <c r="L108" s="69"/>
     </row>
     <row r="109" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A109" s="221"/>
-      <c r="B109" s="224" t="s">
+      <c r="A109" s="223"/>
+      <c r="B109" s="230" t="s">
         <v>213</v>
       </c>
       <c r="C109" s="64" t="b">
@@ -9137,8 +9275,8 @@
       <c r="L109" s="66"/>
     </row>
     <row r="110" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A110" s="221"/>
-      <c r="B110" s="225"/>
+      <c r="A110" s="223"/>
+      <c r="B110" s="226"/>
       <c r="C110" s="67" t="b">
         <v>0</v>
       </c>
@@ -9155,8 +9293,8 @@
       <c r="L110" s="69"/>
     </row>
     <row r="111" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A111" s="222"/>
-      <c r="B111" s="231"/>
+      <c r="A111" s="228"/>
+      <c r="B111" s="227"/>
       <c r="C111" s="75" t="b">
         <v>0</v>
       </c>
@@ -9195,7 +9333,7 @@
       <c r="L112" s="69"/>
     </row>
     <row r="113" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A113" s="220" t="s">
+      <c r="A113" s="222" t="s">
         <v>220</v>
       </c>
       <c r="B113" s="77" t="s">
@@ -9217,7 +9355,7 @@
       <c r="L113" s="66"/>
     </row>
     <row r="114" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A114" s="221"/>
+      <c r="A114" s="223"/>
       <c r="B114" s="70" t="s">
         <v>223</v>
       </c>
@@ -9237,7 +9375,7 @@
       <c r="L114" s="69"/>
     </row>
     <row r="115" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A115" s="221"/>
+      <c r="A115" s="223"/>
       <c r="B115" s="89"/>
       <c r="C115" s="64" t="b">
         <v>0</v>
@@ -9255,7 +9393,7 @@
       <c r="L115" s="66"/>
     </row>
     <row r="116" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A116" s="221"/>
+      <c r="A116" s="223"/>
       <c r="B116" s="89"/>
       <c r="C116" s="67" t="b">
         <v>0</v>
@@ -9273,7 +9411,7 @@
       <c r="L116" s="69"/>
     </row>
     <row r="117" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A117" s="221"/>
+      <c r="A117" s="223"/>
       <c r="B117" s="70" t="s">
         <v>227</v>
       </c>
@@ -9291,7 +9429,7 @@
       <c r="L117" s="66"/>
     </row>
     <row r="118" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A118" s="221"/>
+      <c r="A118" s="223"/>
       <c r="B118" s="70" t="s">
         <v>228</v>
       </c>
@@ -9309,7 +9447,7 @@
       <c r="L118" s="69"/>
     </row>
     <row r="119" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A119" s="233"/>
+      <c r="A119" s="224"/>
       <c r="B119" s="90" t="s">
         <v>229</v>
       </c>
@@ -9356,6 +9494,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A65:A75"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="A113:A119"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B27:B33"/>
@@ -9372,29 +9533,6 @@
     <mergeCell ref="A76:A111"/>
     <mergeCell ref="B104:B108"/>
     <mergeCell ref="B84:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A65:A75"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A42:A55"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="E48:E51"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="K120">
@@ -9436,24 +9574,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="238" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
     </row>
     <row r="2" spans="1:6" ht="30.6" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="240" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
     </row>
     <row r="3" spans="1:6" ht="22.65" customHeight="1">
       <c r="A3" s="116" t="s">
@@ -9479,7 +9617,7 @@
       <c r="A4" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="241" t="s">
         <v>269</v>
       </c>
       <c r="C4" s="63"/>
@@ -9489,7 +9627,7 @@
     </row>
     <row r="5" spans="1:6" ht="22.8" customHeight="1">
       <c r="A5" s="154"/>
-      <c r="B5" s="239"/>
+      <c r="B5" s="242"/>
       <c r="C5" s="158"/>
       <c r="D5" s="158"/>
       <c r="E5" s="158"/>
@@ -9507,7 +9645,7 @@
     </row>
     <row r="7" spans="1:6" ht="22.8" customHeight="1">
       <c r="A7" s="154"/>
-      <c r="B7" s="240" t="s">
+      <c r="B7" s="243" t="s">
         <v>271</v>
       </c>
       <c r="C7" s="158"/>
@@ -9517,7 +9655,7 @@
     </row>
     <row r="8" spans="1:6" ht="22.8" customHeight="1">
       <c r="A8" s="154"/>
-      <c r="B8" s="221"/>
+      <c r="B8" s="223"/>
       <c r="C8" s="157"/>
       <c r="D8" s="157"/>
       <c r="E8" s="157"/>
@@ -9525,7 +9663,7 @@
     </row>
     <row r="9" spans="1:6" ht="22.8" customHeight="1">
       <c r="A9" s="154"/>
-      <c r="B9" s="239"/>
+      <c r="B9" s="242"/>
       <c r="C9" s="158"/>
       <c r="D9" s="158"/>
       <c r="E9" s="158"/>
@@ -9564,7 +9702,7 @@
       <c r="F12" s="157"/>
     </row>
     <row r="13" spans="1:6" ht="22.8" customHeight="1">
-      <c r="A13" s="268" t="s">
+      <c r="A13" s="219" t="s">
         <v>408</v>
       </c>
       <c r="B13" s="160"/>
@@ -9872,38 +10010,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:263" ht="41.25" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="238" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
+      <c r="L1" s="239"/>
+      <c r="M1" s="239"/>
     </row>
     <row r="2" spans="1:263" ht="39" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="240" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
     </row>
     <row r="3" spans="1:263" ht="22.65" customHeight="1">
       <c r="A3" s="116" t="s">
@@ -12543,24 +12681,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="238" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="240" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
     </row>
     <row r="3" spans="1:6" ht="22.65" customHeight="1">
       <c r="A3" s="116" t="s">
@@ -12743,25 +12881,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="34.200000000000003" customHeight="1">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="244" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="243"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="246"/>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:256" ht="40.200000000000003" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="247" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="245"/>
-      <c r="F2" s="246"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
+      <c r="E2" s="248"/>
+      <c r="F2" s="249"/>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:256">
@@ -18947,59 +19085,61 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:IV23"/>
+  <dimension ref="A1:IV20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="210"/>
     <col min="2" max="2" width="12.77734375" style="210" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="210" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="210" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="210" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="210" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="210"/>
     <col min="6" max="6" width="12.5546875" style="210" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" style="210" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="210"/>
+    <col min="8" max="12" width="8.88671875" style="210"/>
+    <col min="13" max="13" width="11.88671875" style="210" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="210"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="34.200000000000003" customHeight="1">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="244" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="243"/>
-      <c r="J1" s="241" t="s">
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="246"/>
+      <c r="J1" s="244" t="s">
         <v>413</v>
       </c>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="242"/>
-      <c r="O1" s="243"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="245"/>
+      <c r="N1" s="245"/>
+      <c r="O1" s="246"/>
     </row>
     <row r="2" spans="1:256" ht="40.200000000000003" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="247" t="s">
         <v>409</v>
       </c>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="245"/>
-      <c r="F2" s="246"/>
-      <c r="J2" s="244" t="s">
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
+      <c r="E2" s="248"/>
+      <c r="F2" s="249"/>
+      <c r="J2" s="247" t="s">
         <v>409</v>
       </c>
-      <c r="K2" s="245"/>
-      <c r="L2" s="245"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="245"/>
-      <c r="O2" s="246"/>
+      <c r="K2" s="248"/>
+      <c r="L2" s="248"/>
+      <c r="M2" s="248"/>
+      <c r="N2" s="248"/>
+      <c r="O2" s="249"/>
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="116" t="s">
@@ -19015,13 +19155,13 @@
         <v>390</v>
       </c>
       <c r="E3" s="116" t="s">
-        <v>70</v>
+        <v>423</v>
       </c>
       <c r="F3" s="116" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="G3" s="116" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="J3" s="116" t="s">
         <v>264</v>
@@ -19037,7 +19177,7 @@
       </c>
       <c r="N3" s="116"/>
       <c r="O3" s="116" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="P3" s="116" t="s">
         <v>414</v>
@@ -19068,10 +19208,16 @@
       <c r="B5" s="172" t="s">
         <v>412</v>
       </c>
-      <c r="C5" s="172"/>
+      <c r="C5" s="172" t="s">
+        <v>417</v>
+      </c>
       <c r="D5" s="214"/>
-      <c r="E5" s="214"/>
-      <c r="F5" s="214"/>
+      <c r="E5" s="214">
+        <v>20</v>
+      </c>
+      <c r="F5" s="218">
+        <v>20</v>
+      </c>
       <c r="G5" s="214"/>
       <c r="J5" s="212"/>
       <c r="K5" s="172"/>
@@ -19084,10 +19230,16 @@
     <row r="6" spans="1:256" ht="22.2" customHeight="1">
       <c r="A6" s="212"/>
       <c r="B6" s="164"/>
-      <c r="C6" s="213"/>
+      <c r="C6" s="171" t="s">
+        <v>421</v>
+      </c>
       <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="213"/>
+      <c r="E6" s="213">
+        <v>3</v>
+      </c>
+      <c r="F6" s="217">
+        <v>3</v>
+      </c>
       <c r="G6" s="213"/>
       <c r="J6" s="212"/>
       <c r="K6" s="164"/>
@@ -19100,10 +19252,16 @@
     <row r="7" spans="1:256" ht="22.2" customHeight="1">
       <c r="A7" s="212"/>
       <c r="B7" s="178"/>
-      <c r="C7" s="214"/>
+      <c r="C7" s="182" t="s">
+        <v>418</v>
+      </c>
       <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
+      <c r="E7" s="214">
+        <v>2</v>
+      </c>
+      <c r="F7" s="218">
+        <v>1</v>
+      </c>
       <c r="G7" s="214"/>
       <c r="J7" s="212"/>
       <c r="K7" s="178"/>
@@ -19116,10 +19274,16 @@
     <row r="8" spans="1:256" ht="22.2" customHeight="1">
       <c r="A8" s="212"/>
       <c r="B8" s="202"/>
-      <c r="C8" s="213"/>
+      <c r="C8" s="173" t="s">
+        <v>419</v>
+      </c>
       <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
+      <c r="E8" s="213">
+        <v>1</v>
+      </c>
+      <c r="F8" s="217">
+        <v>1</v>
+      </c>
       <c r="G8" s="213"/>
       <c r="J8" s="212"/>
       <c r="K8" s="202"/>
@@ -19180,13 +19344,19 @@
       <c r="P11" s="214"/>
     </row>
     <row r="12" spans="1:256" ht="22.2" customHeight="1">
-      <c r="A12" s="180" t="s">
-        <v>417</v>
-      </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="213"/>
-      <c r="D12" s="213"/>
-      <c r="E12" s="213"/>
+      <c r="A12" s="180"/>
+      <c r="B12" s="164" t="s">
+        <v>426</v>
+      </c>
+      <c r="C12" s="171" t="s">
+        <v>425</v>
+      </c>
+      <c r="D12" s="173" t="s">
+        <v>427</v>
+      </c>
+      <c r="E12" s="217" t="s">
+        <v>424</v>
+      </c>
       <c r="F12" s="213"/>
       <c r="G12" s="213"/>
       <c r="J12" s="212"/>
@@ -19469,16 +19639,14 @@
       <c r="K14" s="164" t="s">
         <v>415</v>
       </c>
-      <c r="L14" s="213">
-        <v>800</v>
-      </c>
-      <c r="M14" s="213">
-        <v>4.952</v>
-      </c>
-      <c r="N14" s="213">
-        <v>8</v>
-      </c>
-      <c r="O14" s="213"/>
+      <c r="L14" s="213"/>
+      <c r="M14" s="173" t="s">
+        <v>429</v>
+      </c>
+      <c r="N14" s="213"/>
+      <c r="O14" s="217">
+        <v>14</v>
+      </c>
       <c r="P14" s="213"/>
       <c r="Q14" s="151"/>
       <c r="R14" s="151"/>
@@ -19723,7 +19891,9 @@
     </row>
     <row r="15" spans="1:256" ht="22.8" customHeight="1">
       <c r="A15" s="212"/>
-      <c r="B15" s="163"/>
+      <c r="B15" s="163" t="s">
+        <v>430</v>
+      </c>
       <c r="C15" s="214"/>
       <c r="D15" s="214"/>
       <c r="E15" s="214"/>
@@ -21013,805 +21183,24 @@
       <c r="IU19" s="151"/>
       <c r="IV19" s="151"/>
     </row>
-    <row r="20" spans="1:256" ht="22.8" customHeight="1">
-      <c r="A20" s="212"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="213"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="212"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="213"/>
-      <c r="M20" s="213"/>
-      <c r="N20" s="213"/>
-      <c r="O20" s="213"/>
-      <c r="P20" s="213"/>
-      <c r="Q20" s="151"/>
-      <c r="R20" s="151"/>
-      <c r="S20" s="151"/>
-      <c r="T20" s="151"/>
-      <c r="U20" s="151"/>
-      <c r="V20" s="151"/>
-      <c r="W20" s="151"/>
-      <c r="X20" s="151"/>
-      <c r="Y20" s="151"/>
-      <c r="Z20" s="151"/>
-      <c r="AA20" s="151"/>
-      <c r="AB20" s="151"/>
-      <c r="AC20" s="151"/>
-      <c r="AD20" s="151"/>
-      <c r="AE20" s="151"/>
-      <c r="AF20" s="151"/>
-      <c r="AG20" s="151"/>
-      <c r="AH20" s="151"/>
-      <c r="AI20" s="151"/>
-      <c r="AJ20" s="151"/>
-      <c r="AK20" s="151"/>
-      <c r="AL20" s="151"/>
-      <c r="AM20" s="151"/>
-      <c r="AN20" s="151"/>
-      <c r="AO20" s="151"/>
-      <c r="AP20" s="151"/>
-      <c r="AQ20" s="151"/>
-      <c r="AR20" s="151"/>
-      <c r="AS20" s="151"/>
-      <c r="AT20" s="151"/>
-      <c r="AU20" s="151"/>
-      <c r="AV20" s="151"/>
-      <c r="AW20" s="151"/>
-      <c r="AX20" s="151"/>
-      <c r="AY20" s="151"/>
-      <c r="AZ20" s="151"/>
-      <c r="BA20" s="151"/>
-      <c r="BB20" s="151"/>
-      <c r="BC20" s="151"/>
-      <c r="BD20" s="151"/>
-      <c r="BE20" s="151"/>
-      <c r="BF20" s="151"/>
-      <c r="BG20" s="151"/>
-      <c r="BH20" s="151"/>
-      <c r="BI20" s="151"/>
-      <c r="BJ20" s="151"/>
-      <c r="BK20" s="151"/>
-      <c r="BL20" s="151"/>
-      <c r="BM20" s="151"/>
-      <c r="BN20" s="151"/>
-      <c r="BO20" s="151"/>
-      <c r="BP20" s="151"/>
-      <c r="BQ20" s="151"/>
-      <c r="BR20" s="151"/>
-      <c r="BS20" s="151"/>
-      <c r="BT20" s="151"/>
-      <c r="BU20" s="151"/>
-      <c r="BV20" s="151"/>
-      <c r="BW20" s="151"/>
-      <c r="BX20" s="151"/>
-      <c r="BY20" s="151"/>
-      <c r="BZ20" s="151"/>
-      <c r="CA20" s="151"/>
-      <c r="CB20" s="151"/>
-      <c r="CC20" s="151"/>
-      <c r="CD20" s="151"/>
-      <c r="CE20" s="151"/>
-      <c r="CF20" s="151"/>
-      <c r="CG20" s="151"/>
-      <c r="CH20" s="151"/>
-      <c r="CI20" s="151"/>
-      <c r="CJ20" s="151"/>
-      <c r="CK20" s="151"/>
-      <c r="CL20" s="151"/>
-      <c r="CM20" s="151"/>
-      <c r="CN20" s="151"/>
-      <c r="CO20" s="151"/>
-      <c r="CP20" s="151"/>
-      <c r="CQ20" s="151"/>
-      <c r="CR20" s="151"/>
-      <c r="CS20" s="151"/>
-      <c r="CT20" s="151"/>
-      <c r="CU20" s="151"/>
-      <c r="CV20" s="151"/>
-      <c r="CW20" s="151"/>
-      <c r="CX20" s="151"/>
-      <c r="CY20" s="151"/>
-      <c r="CZ20" s="151"/>
-      <c r="DA20" s="151"/>
-      <c r="DB20" s="151"/>
-      <c r="DC20" s="151"/>
-      <c r="DD20" s="151"/>
-      <c r="DE20" s="151"/>
-      <c r="DF20" s="151"/>
-      <c r="DG20" s="151"/>
-      <c r="DH20" s="151"/>
-      <c r="DI20" s="151"/>
-      <c r="DJ20" s="151"/>
-      <c r="DK20" s="151"/>
-      <c r="DL20" s="151"/>
-      <c r="DM20" s="151"/>
-      <c r="DN20" s="151"/>
-      <c r="DO20" s="151"/>
-      <c r="DP20" s="151"/>
-      <c r="DQ20" s="151"/>
-      <c r="DR20" s="151"/>
-      <c r="DS20" s="151"/>
-      <c r="DT20" s="151"/>
-      <c r="DU20" s="151"/>
-      <c r="DV20" s="151"/>
-      <c r="DW20" s="151"/>
-      <c r="DX20" s="151"/>
-      <c r="DY20" s="151"/>
-      <c r="DZ20" s="151"/>
-      <c r="EA20" s="151"/>
-      <c r="EB20" s="151"/>
-      <c r="EC20" s="151"/>
-      <c r="ED20" s="151"/>
-      <c r="EE20" s="151"/>
-      <c r="EF20" s="151"/>
-      <c r="EG20" s="151"/>
-      <c r="EH20" s="151"/>
-      <c r="EI20" s="151"/>
-      <c r="EJ20" s="151"/>
-      <c r="EK20" s="151"/>
-      <c r="EL20" s="151"/>
-      <c r="EM20" s="151"/>
-      <c r="EN20" s="151"/>
-      <c r="EO20" s="151"/>
-      <c r="EP20" s="151"/>
-      <c r="EQ20" s="151"/>
-      <c r="ER20" s="151"/>
-      <c r="ES20" s="151"/>
-      <c r="ET20" s="151"/>
-      <c r="EU20" s="151"/>
-      <c r="EV20" s="151"/>
-      <c r="EW20" s="151"/>
-      <c r="EX20" s="151"/>
-      <c r="EY20" s="151"/>
-      <c r="EZ20" s="151"/>
-      <c r="FA20" s="151"/>
-      <c r="FB20" s="151"/>
-      <c r="FC20" s="151"/>
-      <c r="FD20" s="151"/>
-      <c r="FE20" s="151"/>
-      <c r="FF20" s="151"/>
-      <c r="FG20" s="151"/>
-      <c r="FH20" s="151"/>
-      <c r="FI20" s="151"/>
-      <c r="FJ20" s="151"/>
-      <c r="FK20" s="151"/>
-      <c r="FL20" s="151"/>
-      <c r="FM20" s="151"/>
-      <c r="FN20" s="151"/>
-      <c r="FO20" s="151"/>
-      <c r="FP20" s="151"/>
-      <c r="FQ20" s="151"/>
-      <c r="FR20" s="151"/>
-      <c r="FS20" s="151"/>
-      <c r="FT20" s="151"/>
-      <c r="FU20" s="151"/>
-      <c r="FV20" s="151"/>
-      <c r="FW20" s="151"/>
-      <c r="FX20" s="151"/>
-      <c r="FY20" s="151"/>
-      <c r="FZ20" s="151"/>
-      <c r="GA20" s="151"/>
-      <c r="GB20" s="151"/>
-      <c r="GC20" s="151"/>
-      <c r="GD20" s="151"/>
-      <c r="GE20" s="151"/>
-      <c r="GF20" s="151"/>
-      <c r="GG20" s="151"/>
-      <c r="GH20" s="151"/>
-      <c r="GI20" s="151"/>
-      <c r="GJ20" s="151"/>
-      <c r="GK20" s="151"/>
-      <c r="GL20" s="151"/>
-      <c r="GM20" s="151"/>
-      <c r="GN20" s="151"/>
-      <c r="GO20" s="151"/>
-      <c r="GP20" s="151"/>
-      <c r="GQ20" s="151"/>
-      <c r="GR20" s="151"/>
-      <c r="GS20" s="151"/>
-      <c r="GT20" s="151"/>
-      <c r="GU20" s="151"/>
-      <c r="GV20" s="151"/>
-      <c r="GW20" s="151"/>
-      <c r="GX20" s="151"/>
-      <c r="GY20" s="151"/>
-      <c r="GZ20" s="151"/>
-      <c r="HA20" s="151"/>
-      <c r="HB20" s="151"/>
-      <c r="HC20" s="151"/>
-      <c r="HD20" s="151"/>
-      <c r="HE20" s="151"/>
-      <c r="HF20" s="151"/>
-      <c r="HG20" s="151"/>
-      <c r="HH20" s="151"/>
-      <c r="HI20" s="151"/>
-      <c r="HJ20" s="151"/>
-      <c r="HK20" s="151"/>
-      <c r="HL20" s="151"/>
-      <c r="HM20" s="151"/>
-      <c r="HN20" s="151"/>
-      <c r="HO20" s="151"/>
-      <c r="HP20" s="151"/>
-      <c r="HQ20" s="151"/>
-      <c r="HR20" s="151"/>
-      <c r="HS20" s="151"/>
-      <c r="HT20" s="151"/>
-      <c r="HU20" s="151"/>
-      <c r="HV20" s="151"/>
-      <c r="HW20" s="151"/>
-      <c r="HX20" s="151"/>
-      <c r="HY20" s="151"/>
-      <c r="HZ20" s="151"/>
-      <c r="IA20" s="151"/>
-      <c r="IB20" s="151"/>
-      <c r="IC20" s="151"/>
-      <c r="ID20" s="151"/>
-      <c r="IE20" s="151"/>
-      <c r="IF20" s="151"/>
-      <c r="IG20" s="151"/>
-      <c r="IH20" s="151"/>
-      <c r="II20" s="151"/>
-      <c r="IJ20" s="151"/>
-      <c r="IK20" s="151"/>
-      <c r="IL20" s="151"/>
-      <c r="IM20" s="151"/>
-      <c r="IN20" s="151"/>
-      <c r="IO20" s="151"/>
-      <c r="IP20" s="151"/>
-      <c r="IQ20" s="151"/>
-      <c r="IR20" s="151"/>
-      <c r="IS20" s="151"/>
-      <c r="IT20" s="151"/>
-      <c r="IU20" s="151"/>
-      <c r="IV20" s="151"/>
-    </row>
-    <row r="21" spans="1:256" ht="22.8" customHeight="1">
-      <c r="A21" s="212"/>
-      <c r="B21" s="164" t="s">
-        <v>392</v>
-      </c>
-      <c r="C21" s="213"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="151"/>
-      <c r="Q21" s="151"/>
-      <c r="R21" s="151"/>
-      <c r="S21" s="151"/>
-      <c r="T21" s="151"/>
-      <c r="U21" s="151"/>
-      <c r="V21" s="151"/>
-      <c r="W21" s="151"/>
-      <c r="X21" s="151"/>
-      <c r="Y21" s="151"/>
-      <c r="Z21" s="151"/>
-      <c r="AA21" s="151"/>
-      <c r="AB21" s="151"/>
-      <c r="AC21" s="151"/>
-      <c r="AD21" s="151"/>
-      <c r="AE21" s="151"/>
-      <c r="AF21" s="151"/>
-      <c r="AG21" s="151"/>
-      <c r="AH21" s="151"/>
-      <c r="AI21" s="151"/>
-      <c r="AJ21" s="151"/>
-      <c r="AK21" s="151"/>
-      <c r="AL21" s="151"/>
-      <c r="AM21" s="151"/>
-      <c r="AN21" s="151"/>
-      <c r="AO21" s="151"/>
-      <c r="AP21" s="151"/>
-      <c r="AQ21" s="151"/>
-      <c r="AR21" s="151"/>
-      <c r="AS21" s="151"/>
-      <c r="AT21" s="151"/>
-      <c r="AU21" s="151"/>
-      <c r="AV21" s="151"/>
-      <c r="AW21" s="151"/>
-      <c r="AX21" s="151"/>
-      <c r="AY21" s="151"/>
-      <c r="AZ21" s="151"/>
-      <c r="BA21" s="151"/>
-      <c r="BB21" s="151"/>
-      <c r="BC21" s="151"/>
-      <c r="BD21" s="151"/>
-      <c r="BE21" s="151"/>
-      <c r="BF21" s="151"/>
-      <c r="BG21" s="151"/>
-      <c r="BH21" s="151"/>
-      <c r="BI21" s="151"/>
-      <c r="BJ21" s="151"/>
-      <c r="BK21" s="151"/>
-      <c r="BL21" s="151"/>
-      <c r="BM21" s="151"/>
-      <c r="BN21" s="151"/>
-      <c r="BO21" s="151"/>
-      <c r="BP21" s="151"/>
-      <c r="BQ21" s="151"/>
-      <c r="BR21" s="151"/>
-      <c r="BS21" s="151"/>
-      <c r="BT21" s="151"/>
-      <c r="BU21" s="151"/>
-      <c r="BV21" s="151"/>
-      <c r="BW21" s="151"/>
-      <c r="BX21" s="151"/>
-      <c r="BY21" s="151"/>
-      <c r="BZ21" s="151"/>
-      <c r="CA21" s="151"/>
-      <c r="CB21" s="151"/>
-      <c r="CC21" s="151"/>
-      <c r="CD21" s="151"/>
-      <c r="CE21" s="151"/>
-      <c r="CF21" s="151"/>
-      <c r="CG21" s="151"/>
-      <c r="CH21" s="151"/>
-      <c r="CI21" s="151"/>
-      <c r="CJ21" s="151"/>
-      <c r="CK21" s="151"/>
-      <c r="CL21" s="151"/>
-      <c r="CM21" s="151"/>
-      <c r="CN21" s="151"/>
-      <c r="CO21" s="151"/>
-      <c r="CP21" s="151"/>
-      <c r="CQ21" s="151"/>
-      <c r="CR21" s="151"/>
-      <c r="CS21" s="151"/>
-      <c r="CT21" s="151"/>
-      <c r="CU21" s="151"/>
-      <c r="CV21" s="151"/>
-      <c r="CW21" s="151"/>
-      <c r="CX21" s="151"/>
-      <c r="CY21" s="151"/>
-      <c r="CZ21" s="151"/>
-      <c r="DA21" s="151"/>
-      <c r="DB21" s="151"/>
-      <c r="DC21" s="151"/>
-      <c r="DD21" s="151"/>
-      <c r="DE21" s="151"/>
-      <c r="DF21" s="151"/>
-      <c r="DG21" s="151"/>
-      <c r="DH21" s="151"/>
-      <c r="DI21" s="151"/>
-      <c r="DJ21" s="151"/>
-      <c r="DK21" s="151"/>
-      <c r="DL21" s="151"/>
-      <c r="DM21" s="151"/>
-      <c r="DN21" s="151"/>
-      <c r="DO21" s="151"/>
-      <c r="DP21" s="151"/>
-      <c r="DQ21" s="151"/>
-      <c r="DR21" s="151"/>
-      <c r="DS21" s="151"/>
-      <c r="DT21" s="151"/>
-      <c r="DU21" s="151"/>
-      <c r="DV21" s="151"/>
-      <c r="DW21" s="151"/>
-      <c r="DX21" s="151"/>
-      <c r="DY21" s="151"/>
-      <c r="DZ21" s="151"/>
-      <c r="EA21" s="151"/>
-      <c r="EB21" s="151"/>
-      <c r="EC21" s="151"/>
-      <c r="ED21" s="151"/>
-      <c r="EE21" s="151"/>
-      <c r="EF21" s="151"/>
-      <c r="EG21" s="151"/>
-      <c r="EH21" s="151"/>
-      <c r="EI21" s="151"/>
-      <c r="EJ21" s="151"/>
-      <c r="EK21" s="151"/>
-      <c r="EL21" s="151"/>
-      <c r="EM21" s="151"/>
-      <c r="EN21" s="151"/>
-      <c r="EO21" s="151"/>
-      <c r="EP21" s="151"/>
-      <c r="EQ21" s="151"/>
-      <c r="ER21" s="151"/>
-      <c r="ES21" s="151"/>
-      <c r="ET21" s="151"/>
-      <c r="EU21" s="151"/>
-      <c r="EV21" s="151"/>
-      <c r="EW21" s="151"/>
-      <c r="EX21" s="151"/>
-      <c r="EY21" s="151"/>
-      <c r="EZ21" s="151"/>
-      <c r="FA21" s="151"/>
-      <c r="FB21" s="151"/>
-      <c r="FC21" s="151"/>
-      <c r="FD21" s="151"/>
-      <c r="FE21" s="151"/>
-      <c r="FF21" s="151"/>
-      <c r="FG21" s="151"/>
-      <c r="FH21" s="151"/>
-      <c r="FI21" s="151"/>
-      <c r="FJ21" s="151"/>
-      <c r="FK21" s="151"/>
-      <c r="FL21" s="151"/>
-      <c r="FM21" s="151"/>
-      <c r="FN21" s="151"/>
-      <c r="FO21" s="151"/>
-      <c r="FP21" s="151"/>
-      <c r="FQ21" s="151"/>
-      <c r="FR21" s="151"/>
-      <c r="FS21" s="151"/>
-      <c r="FT21" s="151"/>
-      <c r="FU21" s="151"/>
-      <c r="FV21" s="151"/>
-      <c r="FW21" s="151"/>
-      <c r="FX21" s="151"/>
-      <c r="FY21" s="151"/>
-      <c r="FZ21" s="151"/>
-      <c r="GA21" s="151"/>
-      <c r="GB21" s="151"/>
-      <c r="GC21" s="151"/>
-      <c r="GD21" s="151"/>
-      <c r="GE21" s="151"/>
-      <c r="GF21" s="151"/>
-      <c r="GG21" s="151"/>
-      <c r="GH21" s="151"/>
-      <c r="GI21" s="151"/>
-      <c r="GJ21" s="151"/>
-      <c r="GK21" s="151"/>
-      <c r="GL21" s="151"/>
-      <c r="GM21" s="151"/>
-      <c r="GN21" s="151"/>
-      <c r="GO21" s="151"/>
-      <c r="GP21" s="151"/>
-      <c r="GQ21" s="151"/>
-      <c r="GR21" s="151"/>
-      <c r="GS21" s="151"/>
-      <c r="GT21" s="151"/>
-      <c r="GU21" s="151"/>
-      <c r="GV21" s="151"/>
-      <c r="GW21" s="151"/>
-      <c r="GX21" s="151"/>
-      <c r="GY21" s="151"/>
-      <c r="GZ21" s="151"/>
-      <c r="HA21" s="151"/>
-      <c r="HB21" s="151"/>
-      <c r="HC21" s="151"/>
-      <c r="HD21" s="151"/>
-      <c r="HE21" s="151"/>
-      <c r="HF21" s="151"/>
-      <c r="HG21" s="151"/>
-      <c r="HH21" s="151"/>
-      <c r="HI21" s="151"/>
-      <c r="HJ21" s="151"/>
-      <c r="HK21" s="151"/>
-      <c r="HL21" s="151"/>
-      <c r="HM21" s="151"/>
-      <c r="HN21" s="151"/>
-      <c r="HO21" s="151"/>
-      <c r="HP21" s="151"/>
-      <c r="HQ21" s="151"/>
-      <c r="HR21" s="151"/>
-      <c r="HS21" s="151"/>
-      <c r="HT21" s="151"/>
-      <c r="HU21" s="151"/>
-      <c r="HV21" s="151"/>
-      <c r="HW21" s="151"/>
-      <c r="HX21" s="151"/>
-      <c r="HY21" s="151"/>
-      <c r="HZ21" s="151"/>
-      <c r="IA21" s="151"/>
-      <c r="IB21" s="151"/>
-      <c r="IC21" s="151"/>
-      <c r="ID21" s="151"/>
-      <c r="IE21" s="151"/>
-      <c r="IF21" s="151"/>
-      <c r="IG21" s="151"/>
-      <c r="IH21" s="151"/>
-      <c r="II21" s="151"/>
-      <c r="IJ21" s="151"/>
-      <c r="IK21" s="151"/>
-      <c r="IL21" s="151"/>
-      <c r="IM21" s="151"/>
-      <c r="IN21" s="151"/>
-      <c r="IO21" s="151"/>
-      <c r="IP21" s="151"/>
-      <c r="IQ21" s="151"/>
-      <c r="IR21" s="151"/>
-      <c r="IS21" s="151"/>
-      <c r="IT21" s="151"/>
-      <c r="IU21" s="151"/>
-      <c r="IV21" s="151"/>
-    </row>
-    <row r="22" spans="1:256" ht="22.8" customHeight="1">
-      <c r="A22" s="209" t="s">
-        <v>399</v>
-      </c>
-      <c r="B22" s="208"/>
-      <c r="C22" s="207"/>
-      <c r="D22" s="207"/>
-      <c r="E22" s="207">
-        <v>3</v>
-      </c>
-      <c r="F22" s="207">
-        <v>3</v>
-      </c>
-      <c r="G22" s="207">
-        <v>3</v>
-      </c>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
-      <c r="P22" s="151"/>
-      <c r="Q22" s="151"/>
-      <c r="R22" s="151"/>
-      <c r="S22" s="151"/>
-      <c r="T22" s="151"/>
-      <c r="U22" s="151"/>
-      <c r="V22" s="151"/>
-      <c r="W22" s="151"/>
-      <c r="X22" s="151"/>
-      <c r="Y22" s="151"/>
-      <c r="Z22" s="151"/>
-      <c r="AA22" s="151"/>
-      <c r="AB22" s="151"/>
-      <c r="AC22" s="151"/>
-      <c r="AD22" s="151"/>
-      <c r="AE22" s="151"/>
-      <c r="AF22" s="151"/>
-      <c r="AG22" s="151"/>
-      <c r="AH22" s="151"/>
-      <c r="AI22" s="151"/>
-      <c r="AJ22" s="151"/>
-      <c r="AK22" s="151"/>
-      <c r="AL22" s="151"/>
-      <c r="AM22" s="151"/>
-      <c r="AN22" s="151"/>
-      <c r="AO22" s="151"/>
-      <c r="AP22" s="151"/>
-      <c r="AQ22" s="151"/>
-      <c r="AR22" s="151"/>
-      <c r="AS22" s="151"/>
-      <c r="AT22" s="151"/>
-      <c r="AU22" s="151"/>
-      <c r="AV22" s="151"/>
-      <c r="AW22" s="151"/>
-      <c r="AX22" s="151"/>
-      <c r="AY22" s="151"/>
-      <c r="AZ22" s="151"/>
-      <c r="BA22" s="151"/>
-      <c r="BB22" s="151"/>
-      <c r="BC22" s="151"/>
-      <c r="BD22" s="151"/>
-      <c r="BE22" s="151"/>
-      <c r="BF22" s="151"/>
-      <c r="BG22" s="151"/>
-      <c r="BH22" s="151"/>
-      <c r="BI22" s="151"/>
-      <c r="BJ22" s="151"/>
-      <c r="BK22" s="151"/>
-      <c r="BL22" s="151"/>
-      <c r="BM22" s="151"/>
-      <c r="BN22" s="151"/>
-      <c r="BO22" s="151"/>
-      <c r="BP22" s="151"/>
-      <c r="BQ22" s="151"/>
-      <c r="BR22" s="151"/>
-      <c r="BS22" s="151"/>
-      <c r="BT22" s="151"/>
-      <c r="BU22" s="151"/>
-      <c r="BV22" s="151"/>
-      <c r="BW22" s="151"/>
-      <c r="BX22" s="151"/>
-      <c r="BY22" s="151"/>
-      <c r="BZ22" s="151"/>
-      <c r="CA22" s="151"/>
-      <c r="CB22" s="151"/>
-      <c r="CC22" s="151"/>
-      <c r="CD22" s="151"/>
-      <c r="CE22" s="151"/>
-      <c r="CF22" s="151"/>
-      <c r="CG22" s="151"/>
-      <c r="CH22" s="151"/>
-      <c r="CI22" s="151"/>
-      <c r="CJ22" s="151"/>
-      <c r="CK22" s="151"/>
-      <c r="CL22" s="151"/>
-      <c r="CM22" s="151"/>
-      <c r="CN22" s="151"/>
-      <c r="CO22" s="151"/>
-      <c r="CP22" s="151"/>
-      <c r="CQ22" s="151"/>
-      <c r="CR22" s="151"/>
-      <c r="CS22" s="151"/>
-      <c r="CT22" s="151"/>
-      <c r="CU22" s="151"/>
-      <c r="CV22" s="151"/>
-      <c r="CW22" s="151"/>
-      <c r="CX22" s="151"/>
-      <c r="CY22" s="151"/>
-      <c r="CZ22" s="151"/>
-      <c r="DA22" s="151"/>
-      <c r="DB22" s="151"/>
-      <c r="DC22" s="151"/>
-      <c r="DD22" s="151"/>
-      <c r="DE22" s="151"/>
-      <c r="DF22" s="151"/>
-      <c r="DG22" s="151"/>
-      <c r="DH22" s="151"/>
-      <c r="DI22" s="151"/>
-      <c r="DJ22" s="151"/>
-      <c r="DK22" s="151"/>
-      <c r="DL22" s="151"/>
-      <c r="DM22" s="151"/>
-      <c r="DN22" s="151"/>
-      <c r="DO22" s="151"/>
-      <c r="DP22" s="151"/>
-      <c r="DQ22" s="151"/>
-      <c r="DR22" s="151"/>
-      <c r="DS22" s="151"/>
-      <c r="DT22" s="151"/>
-      <c r="DU22" s="151"/>
-      <c r="DV22" s="151"/>
-      <c r="DW22" s="151"/>
-      <c r="DX22" s="151"/>
-      <c r="DY22" s="151"/>
-      <c r="DZ22" s="151"/>
-      <c r="EA22" s="151"/>
-      <c r="EB22" s="151"/>
-      <c r="EC22" s="151"/>
-      <c r="ED22" s="151"/>
-      <c r="EE22" s="151"/>
-      <c r="EF22" s="151"/>
-      <c r="EG22" s="151"/>
-      <c r="EH22" s="151"/>
-      <c r="EI22" s="151"/>
-      <c r="EJ22" s="151"/>
-      <c r="EK22" s="151"/>
-      <c r="EL22" s="151"/>
-      <c r="EM22" s="151"/>
-      <c r="EN22" s="151"/>
-      <c r="EO22" s="151"/>
-      <c r="EP22" s="151"/>
-      <c r="EQ22" s="151"/>
-      <c r="ER22" s="151"/>
-      <c r="ES22" s="151"/>
-      <c r="ET22" s="151"/>
-      <c r="EU22" s="151"/>
-      <c r="EV22" s="151"/>
-      <c r="EW22" s="151"/>
-      <c r="EX22" s="151"/>
-      <c r="EY22" s="151"/>
-      <c r="EZ22" s="151"/>
-      <c r="FA22" s="151"/>
-      <c r="FB22" s="151"/>
-      <c r="FC22" s="151"/>
-      <c r="FD22" s="151"/>
-      <c r="FE22" s="151"/>
-      <c r="FF22" s="151"/>
-      <c r="FG22" s="151"/>
-      <c r="FH22" s="151"/>
-      <c r="FI22" s="151"/>
-      <c r="FJ22" s="151"/>
-      <c r="FK22" s="151"/>
-      <c r="FL22" s="151"/>
-      <c r="FM22" s="151"/>
-      <c r="FN22" s="151"/>
-      <c r="FO22" s="151"/>
-      <c r="FP22" s="151"/>
-      <c r="FQ22" s="151"/>
-      <c r="FR22" s="151"/>
-      <c r="FS22" s="151"/>
-      <c r="FT22" s="151"/>
-      <c r="FU22" s="151"/>
-      <c r="FV22" s="151"/>
-      <c r="FW22" s="151"/>
-      <c r="FX22" s="151"/>
-      <c r="FY22" s="151"/>
-      <c r="FZ22" s="151"/>
-      <c r="GA22" s="151"/>
-      <c r="GB22" s="151"/>
-      <c r="GC22" s="151"/>
-      <c r="GD22" s="151"/>
-      <c r="GE22" s="151"/>
-      <c r="GF22" s="151"/>
-      <c r="GG22" s="151"/>
-      <c r="GH22" s="151"/>
-      <c r="GI22" s="151"/>
-      <c r="GJ22" s="151"/>
-      <c r="GK22" s="151"/>
-      <c r="GL22" s="151"/>
-      <c r="GM22" s="151"/>
-      <c r="GN22" s="151"/>
-      <c r="GO22" s="151"/>
-      <c r="GP22" s="151"/>
-      <c r="GQ22" s="151"/>
-      <c r="GR22" s="151"/>
-      <c r="GS22" s="151"/>
-      <c r="GT22" s="151"/>
-      <c r="GU22" s="151"/>
-      <c r="GV22" s="151"/>
-      <c r="GW22" s="151"/>
-      <c r="GX22" s="151"/>
-      <c r="GY22" s="151"/>
-      <c r="GZ22" s="151"/>
-      <c r="HA22" s="151"/>
-      <c r="HB22" s="151"/>
-      <c r="HC22" s="151"/>
-      <c r="HD22" s="151"/>
-      <c r="HE22" s="151"/>
-      <c r="HF22" s="151"/>
-      <c r="HG22" s="151"/>
-      <c r="HH22" s="151"/>
-      <c r="HI22" s="151"/>
-      <c r="HJ22" s="151"/>
-      <c r="HK22" s="151"/>
-      <c r="HL22" s="151"/>
-      <c r="HM22" s="151"/>
-      <c r="HN22" s="151"/>
-      <c r="HO22" s="151"/>
-      <c r="HP22" s="151"/>
-      <c r="HQ22" s="151"/>
-      <c r="HR22" s="151"/>
-      <c r="HS22" s="151"/>
-      <c r="HT22" s="151"/>
-      <c r="HU22" s="151"/>
-      <c r="HV22" s="151"/>
-      <c r="HW22" s="151"/>
-      <c r="HX22" s="151"/>
-      <c r="HY22" s="151"/>
-      <c r="HZ22" s="151"/>
-      <c r="IA22" s="151"/>
-      <c r="IB22" s="151"/>
-      <c r="IC22" s="151"/>
-      <c r="ID22" s="151"/>
-      <c r="IE22" s="151"/>
-      <c r="IF22" s="151"/>
-      <c r="IG22" s="151"/>
-      <c r="IH22" s="151"/>
-      <c r="II22" s="151"/>
-      <c r="IJ22" s="151"/>
-      <c r="IK22" s="151"/>
-      <c r="IL22" s="151"/>
-      <c r="IM22" s="151"/>
-      <c r="IN22" s="151"/>
-      <c r="IO22" s="151"/>
-      <c r="IP22" s="151"/>
-      <c r="IQ22" s="151"/>
-      <c r="IR22" s="151"/>
-      <c r="IS22" s="151"/>
-      <c r="IT22" s="151"/>
-      <c r="IU22" s="151"/>
-      <c r="IV22" s="151"/>
-    </row>
-    <row r="23" spans="1:256" ht="29.4" customHeight="1">
-      <c r="A23" s="204" t="s">
+    <row r="20" spans="1:256" ht="29.4" customHeight="1">
+      <c r="A20" s="204" t="s">
         <v>376</v>
       </c>
-      <c r="E23" s="210">
-        <f>SUM(E4:E22)</f>
-        <v>3</v>
-      </c>
-      <c r="F23" s="210">
-        <f>SUM(F4:F22)</f>
-        <v>3</v>
-      </c>
-      <c r="G23" s="210">
-        <f>SUM(G4:G22)</f>
-        <v>3</v>
+      <c r="E20" s="210">
+        <f>SUM(E4:E19)</f>
+        <v>26</v>
+      </c>
+      <c r="F20" s="210">
+        <f>SUM(F4:F19)</f>
+        <v>25</v>
+      </c>
+      <c r="G20" s="210">
+        <f>SUM(G4:G19)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="210">
+        <v>3300</v>
       </c>
     </row>
   </sheetData>
@@ -21851,24 +21240,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="40.950000000000003" customHeight="1">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="250" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
     </row>
     <row r="2" spans="1:6" ht="22.8" customHeight="1">
-      <c r="A2" s="248" t="s">
+      <c r="A2" s="251" t="s">
         <v>299</v>
       </c>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="250"/>
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
+      <c r="F2" s="253"/>
     </row>
     <row r="3" spans="1:6" ht="22.65" customHeight="1">
       <c r="A3" s="130" t="s">
@@ -22085,10 +21474,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.95" customHeight="1">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="258"/>
+      <c r="B1" s="261"/>
       <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
@@ -22097,52 +21486,52 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="256" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="254"/>
+      <c r="B2" s="257"/>
       <c r="C2" s="9"/>
       <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A3" s="221"/>
-      <c r="B3" s="225"/>
+      <c r="A3" s="223"/>
+      <c r="B3" s="226"/>
       <c r="C3" s="13"/>
       <c r="D3" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A4" s="221"/>
-      <c r="B4" s="225"/>
+      <c r="A4" s="223"/>
+      <c r="B4" s="226"/>
       <c r="C4" s="15"/>
       <c r="D4" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A5" s="221"/>
-      <c r="B5" s="225"/>
+      <c r="A5" s="223"/>
+      <c r="B5" s="226"/>
       <c r="C5" s="17"/>
       <c r="D5" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A6" s="222"/>
-      <c r="B6" s="231"/>
+      <c r="A6" s="228"/>
+      <c r="B6" s="227"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A7" s="252" t="s">
+      <c r="A7" s="255" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="251" t="s">
+      <c r="B7" s="254" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="21"/>
@@ -22151,40 +21540,40 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A8" s="221"/>
-      <c r="B8" s="225"/>
+      <c r="A8" s="223"/>
+      <c r="B8" s="226"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A9" s="221"/>
-      <c r="B9" s="225"/>
+      <c r="A9" s="223"/>
+      <c r="B9" s="226"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A10" s="221"/>
-      <c r="B10" s="225"/>
+      <c r="A10" s="223"/>
+      <c r="B10" s="226"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A11" s="221"/>
-      <c r="B11" s="231"/>
+      <c r="A11" s="223"/>
+      <c r="B11" s="227"/>
       <c r="C11" s="23"/>
       <c r="D11" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A12" s="221"/>
-      <c r="B12" s="251" t="s">
+      <c r="A12" s="223"/>
+      <c r="B12" s="254" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="25"/>
@@ -22193,32 +21582,32 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A13" s="221"/>
-      <c r="B13" s="225"/>
+      <c r="A13" s="223"/>
+      <c r="B13" s="226"/>
       <c r="C13" s="17"/>
       <c r="D13" s="162" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A14" s="221"/>
-      <c r="B14" s="225"/>
+      <c r="A14" s="223"/>
+      <c r="B14" s="226"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A15" s="221"/>
-      <c r="B15" s="231"/>
+      <c r="A15" s="223"/>
+      <c r="B15" s="227"/>
       <c r="C15" s="23"/>
       <c r="D15" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A16" s="221"/>
-      <c r="B16" s="251" t="s">
+      <c r="A16" s="223"/>
+      <c r="B16" s="254" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="25"/>
@@ -22227,24 +21616,24 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A17" s="221"/>
-      <c r="B17" s="225"/>
+      <c r="A17" s="223"/>
+      <c r="B17" s="226"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A18" s="221"/>
-      <c r="B18" s="231"/>
+      <c r="A18" s="223"/>
+      <c r="B18" s="227"/>
       <c r="C18" s="29"/>
       <c r="D18" s="30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A19" s="221"/>
-      <c r="B19" s="251" t="s">
+      <c r="A19" s="223"/>
+      <c r="B19" s="254" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="21"/>
@@ -22253,72 +21642,72 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A20" s="221"/>
-      <c r="B20" s="225"/>
+      <c r="A20" s="223"/>
+      <c r="B20" s="226"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A21" s="221"/>
-      <c r="B21" s="225"/>
+      <c r="A21" s="223"/>
+      <c r="B21" s="226"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A22" s="221"/>
-      <c r="B22" s="225"/>
+      <c r="A22" s="223"/>
+      <c r="B22" s="226"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A23" s="221"/>
-      <c r="B23" s="225"/>
+      <c r="A23" s="223"/>
+      <c r="B23" s="226"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A24" s="221"/>
-      <c r="B24" s="225"/>
+      <c r="A24" s="223"/>
+      <c r="B24" s="226"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A25" s="221"/>
-      <c r="B25" s="225"/>
+      <c r="A25" s="223"/>
+      <c r="B25" s="226"/>
       <c r="C25" s="31"/>
       <c r="D25" s="32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A26" s="221"/>
-      <c r="B26" s="225"/>
+      <c r="A26" s="223"/>
+      <c r="B26" s="226"/>
       <c r="C26" s="33"/>
       <c r="D26" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A27" s="221"/>
-      <c r="B27" s="231"/>
+      <c r="A27" s="223"/>
+      <c r="B27" s="227"/>
       <c r="C27" s="35"/>
       <c r="D27" s="36" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A28" s="221"/>
-      <c r="B28" s="251" t="s">
+      <c r="A28" s="223"/>
+      <c r="B28" s="254" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="25"/>
@@ -22327,32 +21716,32 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="22.95" customHeight="1">
-      <c r="A29" s="221"/>
-      <c r="B29" s="225"/>
+      <c r="A29" s="223"/>
+      <c r="B29" s="226"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A30" s="221"/>
-      <c r="B30" s="225"/>
+      <c r="A30" s="223"/>
+      <c r="B30" s="226"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A31" s="221"/>
-      <c r="B31" s="231"/>
+      <c r="A31" s="223"/>
+      <c r="B31" s="227"/>
       <c r="C31" s="37"/>
       <c r="D31" s="38" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A32" s="221"/>
-      <c r="B32" s="251" t="s">
+      <c r="A32" s="223"/>
+      <c r="B32" s="254" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="25"/>
@@ -22361,74 +21750,74 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A33" s="221"/>
-      <c r="B33" s="225"/>
+      <c r="A33" s="223"/>
+      <c r="B33" s="226"/>
       <c r="C33" s="17"/>
       <c r="D33" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A34" s="221"/>
-      <c r="B34" s="225"/>
+      <c r="A34" s="223"/>
+      <c r="B34" s="226"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A35" s="221"/>
-      <c r="B35" s="225"/>
+      <c r="A35" s="223"/>
+      <c r="B35" s="226"/>
       <c r="C35" s="17"/>
       <c r="D35" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A36" s="221"/>
-      <c r="B36" s="225"/>
+      <c r="A36" s="223"/>
+      <c r="B36" s="226"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A37" s="221"/>
-      <c r="B37" s="225"/>
+      <c r="A37" s="223"/>
+      <c r="B37" s="226"/>
       <c r="C37" s="17"/>
       <c r="D37" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A38" s="221"/>
-      <c r="B38" s="225"/>
+      <c r="A38" s="223"/>
+      <c r="B38" s="226"/>
       <c r="C38" s="15"/>
       <c r="D38" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A39" s="221"/>
-      <c r="B39" s="225"/>
+      <c r="A39" s="223"/>
+      <c r="B39" s="226"/>
       <c r="C39" s="17"/>
       <c r="D39" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A40" s="222"/>
-      <c r="B40" s="231"/>
+      <c r="A40" s="228"/>
+      <c r="B40" s="227"/>
       <c r="C40" s="19"/>
       <c r="D40" s="20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="22.95" customHeight="1">
-      <c r="A41" s="255" t="s">
+      <c r="A41" s="258" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="256"/>
+      <c r="B41" s="259"/>
       <c r="C41" s="39"/>
       <c r="D41" s="40"/>
     </row>

--- a/personal_decorating/AA预算表_水电卫厨砖.xlsx
+++ b/personal_decorating/AA预算表_水电卫厨砖.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="13176" tabRatio="769" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="13176" tabRatio="769" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -15,20 +15,23 @@
     <sheet name="瓷砖用量预估" sheetId="15" r:id="rId6"/>
     <sheet name="石膏线_批墙" sheetId="14" r:id="rId7"/>
     <sheet name="插座路实际数量统计" sheetId="9" r:id="rId8"/>
-    <sheet name="装修流程和待办 - 表格 2" sheetId="2" r:id="rId9"/>
-    <sheet name="装修流程和待办 - 待办事项列表" sheetId="3" r:id="rId10"/>
-    <sheet name="装修流程和待办 - 绘图" sheetId="4" r:id="rId11"/>
-    <sheet name="装修日记 - 表格 1-1" sheetId="6" r:id="rId12"/>
-    <sheet name="灯具" sheetId="7" r:id="rId13"/>
-    <sheet name="装修Tips" sheetId="10" r:id="rId14"/>
-    <sheet name="施工价格表" sheetId="11" r:id="rId15"/>
+    <sheet name="量门及包套" sheetId="17" r:id="rId9"/>
+    <sheet name="厨卫吊顶" sheetId="16" r:id="rId10"/>
+    <sheet name="橱柜" sheetId="18" r:id="rId11"/>
+    <sheet name="装修流程和待办 - 表格 2" sheetId="2" r:id="rId12"/>
+    <sheet name="装修流程和待办 - 待办事项列表" sheetId="3" r:id="rId13"/>
+    <sheet name="装修流程和待办 - 绘图" sheetId="4" r:id="rId14"/>
+    <sheet name="装修日记 - 表格 1-1" sheetId="6" r:id="rId15"/>
+    <sheet name="灯具" sheetId="7" r:id="rId16"/>
+    <sheet name="装修Tips" sheetId="10" r:id="rId17"/>
+    <sheet name="施工价格表" sheetId="11" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="457">
   <si>
     <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
   </si>
@@ -1718,6 +1721,339 @@
   </si>
   <si>
     <t>面漆</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：总进线，并联[照明1路，双壁挂空调插座A1路，单壁挂空调插座B1路，分总开关1路]；柜式空调1路，普通插座A1路，普通插座B1路，卫生间插座1路，厨房插座1路，共7路;
+总进线B,电冰箱</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>量门及包套</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室门实木复合</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间门双包宽边框</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.73</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平米</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房推拉门</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平米</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>极简白厨房哑口双包</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>入户门单包</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅单包套</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Avenir Next"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Avenir Next"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日已支付</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>货到付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Avenir Next"/>
+      </rPr>
+      <t>4000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尾款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Avenir Next"/>
+      </rPr>
+      <t>4300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装好付清余款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Avenir Next"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫吊顶</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间吊顶</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平米</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房吊顶</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平米</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴霸美的</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2966,7 +3302,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3627,6 +3963,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3778,6 +4132,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5899,11 +6265,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="49.95" customHeight="1">
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="226" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
     </row>
     <row r="7" spans="2:4" ht="17.399999999999999">
       <c r="B7" s="1" t="s">
@@ -6078,6 +6444,661 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" style="220" customWidth="1"/>
+    <col min="2" max="8" width="8.88671875" style="220"/>
+    <col min="9" max="9" width="22.44140625" style="220" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="220" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="220"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30.6">
+      <c r="A1" s="256" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
+      <c r="F1" s="256"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="257"/>
+      <c r="B2" s="258"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="259"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="130" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="116" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="225" t="s">
+        <v>428</v>
+      </c>
+      <c r="F3" s="131" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="277"/>
+      <c r="B4" s="223"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63">
+        <v>3</v>
+      </c>
+      <c r="E4" s="63">
+        <v>850</v>
+      </c>
+      <c r="F4" s="133">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="278" t="s">
+        <v>452</v>
+      </c>
+      <c r="B5" s="224"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="182" t="s">
+        <v>453</v>
+      </c>
+      <c r="E5" s="222">
+        <v>75</v>
+      </c>
+      <c r="F5" s="135">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="278" t="s">
+        <v>454</v>
+      </c>
+      <c r="B6" s="125"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="173" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" s="221">
+        <v>75</v>
+      </c>
+      <c r="F6" s="136">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="278" t="s">
+        <v>456</v>
+      </c>
+      <c r="B7" s="224"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="182" t="s">
+        <v>441</v>
+      </c>
+      <c r="E7" s="222">
+        <v>80</v>
+      </c>
+      <c r="F7" s="135">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="278"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="173" t="s">
+        <v>443</v>
+      </c>
+      <c r="E8" s="221">
+        <v>60</v>
+      </c>
+      <c r="F8" s="136">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="279"/>
+      <c r="B9" s="224"/>
+      <c r="C9" s="222"/>
+      <c r="D9" s="182" t="s">
+        <v>445</v>
+      </c>
+      <c r="E9" s="222">
+        <v>60</v>
+      </c>
+      <c r="F9" s="135">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="134"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="136"/>
+      <c r="I10" s="280" t="s">
+        <v>446</v>
+      </c>
+      <c r="J10" s="280" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="137"/>
+      <c r="B11" s="224"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="135"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="134"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="221"/>
+      <c r="D12" s="221"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="136"/>
+      <c r="I12" s="280" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="134"/>
+      <c r="B13" s="224"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="222"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="135"/>
+      <c r="I13" s="280" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="134"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="221"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="136"/>
+      <c r="I14" s="280" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="134"/>
+      <c r="B15" s="224"/>
+      <c r="C15" s="222"/>
+      <c r="D15" s="222"/>
+      <c r="E15" s="222"/>
+      <c r="F15" s="135"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="134"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="136"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="138"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="140"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="141" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="142"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="144">
+        <f>SUM(F4:F17)</f>
+        <v>6308</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IV41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="21.6" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
+    <col min="5" max="256" width="16.33203125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.95" customHeight="1">
+      <c r="A1" s="266" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="267"/>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A2" s="262" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="263"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A3" s="229"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A4" s="229"/>
+      <c r="B4" s="232"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A5" s="229"/>
+      <c r="B5" s="232"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A6" s="234"/>
+      <c r="B6" s="233"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A7" s="261" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="260" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A8" s="229"/>
+      <c r="B8" s="232"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A9" s="229"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A10" s="229"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A11" s="229"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A12" s="229"/>
+      <c r="B12" s="260" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="161" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A13" s="229"/>
+      <c r="B13" s="232"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="162" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A14" s="229"/>
+      <c r="B14" s="232"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A15" s="229"/>
+      <c r="B15" s="233"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A16" s="229"/>
+      <c r="B16" s="260" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A17" s="229"/>
+      <c r="B17" s="232"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A18" s="229"/>
+      <c r="B18" s="233"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A19" s="229"/>
+      <c r="B19" s="260" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A20" s="229"/>
+      <c r="B20" s="232"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A21" s="229"/>
+      <c r="B21" s="232"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A22" s="229"/>
+      <c r="B22" s="232"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A23" s="229"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A24" s="229"/>
+      <c r="B24" s="232"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A25" s="229"/>
+      <c r="B25" s="232"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A26" s="229"/>
+      <c r="B26" s="232"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A27" s="229"/>
+      <c r="B27" s="233"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A28" s="229"/>
+      <c r="B28" s="260" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="22.95" customHeight="1">
+      <c r="A29" s="229"/>
+      <c r="B29" s="232"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A30" s="229"/>
+      <c r="B30" s="232"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A31" s="229"/>
+      <c r="B31" s="233"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A32" s="229"/>
+      <c r="B32" s="260" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A33" s="229"/>
+      <c r="B33" s="232"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A34" s="229"/>
+      <c r="B34" s="232"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A35" s="229"/>
+      <c r="B35" s="232"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A36" s="229"/>
+      <c r="B36" s="232"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A37" s="229"/>
+      <c r="B37" s="232"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A38" s="229"/>
+      <c r="B38" s="232"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A39" s="229"/>
+      <c r="B39" s="232"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A40" s="234"/>
+      <c r="B40" s="233"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="22.95" customHeight="1">
+      <c r="A41" s="264" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="265"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="A7:A40"/>
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B7:B11"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Avenir Next Demi Bold,Regular"&amp;9&amp;KAAAAAA&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6221,7 +7242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
@@ -6247,7 +7268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
@@ -6277,39 +7298,39 @@
   <sheetData>
     <row r="1" spans="1:12" ht="49.65" customHeight="1"/>
     <row r="2" spans="1:12" ht="22.2" customHeight="1">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="270" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="264" t="s">
+      <c r="B2" s="270" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="264" t="s">
+      <c r="C2" s="270" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="264" t="s">
+      <c r="D2" s="270" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="245"/>
       <c r="G2" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="264" t="s">
+      <c r="H2" s="270" t="s">
         <v>238</v>
       </c>
-      <c r="I2" s="239"/>
-      <c r="J2" s="264" t="s">
+      <c r="I2" s="245"/>
+      <c r="J2" s="270" t="s">
         <v>234</v>
       </c>
-      <c r="K2" s="239"/>
-      <c r="L2" s="264" t="s">
+      <c r="K2" s="245"/>
+      <c r="L2" s="270" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="22.65" customHeight="1">
-      <c r="A3" s="265"/>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
+      <c r="A3" s="271"/>
+      <c r="B3" s="271"/>
+      <c r="C3" s="271"/>
       <c r="D3" s="102" t="s">
         <v>234</v>
       </c>
@@ -6332,7 +7353,7 @@
       <c r="K3" s="102" t="s">
         <v>244</v>
       </c>
-      <c r="L3" s="265"/>
+      <c r="L3" s="271"/>
     </row>
     <row r="4" spans="1:12" ht="22.8" customHeight="1">
       <c r="A4" s="63"/>
@@ -6615,10 +7636,10 @@
       <c r="L23" s="109"/>
     </row>
     <row r="24" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A24" s="262" t="s">
+      <c r="A24" s="268" t="s">
         <v>230</v>
       </c>
-      <c r="B24" s="263"/>
+      <c r="B24" s="269"/>
       <c r="C24" s="110"/>
       <c r="D24" s="111"/>
       <c r="E24" s="112">
@@ -6654,7 +7675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
@@ -6680,16 +7701,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="244" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
     </row>
     <row r="2" spans="1:8" ht="22.65" customHeight="1">
       <c r="A2" s="116" t="s">
@@ -6714,7 +7735,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="138.6" customHeight="1">
-      <c r="A3" s="266" t="s">
+      <c r="A3" s="272" t="s">
         <v>171</v>
       </c>
       <c r="B3" s="117" t="s">
@@ -6728,7 +7749,7 @@
       <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8" ht="82.65" customHeight="1">
-      <c r="A4" s="236"/>
+      <c r="A4" s="242"/>
       <c r="B4" s="83" t="s">
         <v>251</v>
       </c>
@@ -6740,7 +7761,7 @@
       <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:8" ht="148.65" customHeight="1">
-      <c r="A5" s="267" t="s">
+      <c r="A5" s="273" t="s">
         <v>205</v>
       </c>
       <c r="B5" s="83" t="s">
@@ -6754,7 +7775,7 @@
       <c r="H5" s="69"/>
     </row>
     <row r="6" spans="1:8" ht="72" customHeight="1">
-      <c r="A6" s="236"/>
+      <c r="A6" s="242"/>
       <c r="B6" s="83" t="s">
         <v>251</v>
       </c>
@@ -6981,7 +8002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet10">
     <pageSetUpPr fitToPage="1"/>
@@ -7003,12 +8024,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="41.85" customHeight="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="274" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
     </row>
     <row r="2" spans="1:4" ht="22.8" customHeight="1">
       <c r="A2" s="146"/>
@@ -7147,7 +8168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet11">
     <pageSetUpPr fitToPage="1"/>
@@ -7171,12 +8192,12 @@
     <row r="1" spans="2:8" ht="6.45" customHeight="1"/>
     <row r="2" spans="2:8" ht="41.25" customHeight="1">
       <c r="B2" s="152"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7221,20 +8242,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="163.95" customHeight="1"/>
     <row r="2" spans="1:12" ht="31.35" customHeight="1">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="240" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="234"/>
-      <c r="I2" s="234"/>
-      <c r="J2" s="234"/>
-      <c r="K2" s="234"/>
-      <c r="L2" s="234"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
+      <c r="H2" s="240"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="240"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1">
       <c r="A3" s="56" t="s">
@@ -7275,10 +8296,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="241" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="231" t="s">
+      <c r="B4" s="237" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="61" t="b">
@@ -7301,8 +8322,8 @@
       <c r="L4" s="63"/>
     </row>
     <row r="5" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A5" s="223"/>
-      <c r="B5" s="226"/>
+      <c r="A5" s="229"/>
+      <c r="B5" s="232"/>
       <c r="C5" s="64" t="b">
         <v>0</v>
       </c>
@@ -7321,8 +8342,8 @@
       <c r="L5" s="66"/>
     </row>
     <row r="6" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A6" s="223"/>
-      <c r="B6" s="226"/>
+      <c r="A6" s="229"/>
+      <c r="B6" s="232"/>
       <c r="C6" s="67" t="b">
         <v>0</v>
       </c>
@@ -7339,8 +8360,8 @@
       <c r="L6" s="69"/>
     </row>
     <row r="7" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A7" s="223"/>
-      <c r="B7" s="230" t="s">
+      <c r="A7" s="229"/>
+      <c r="B7" s="236" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="64" t="b">
@@ -7359,8 +8380,8 @@
       <c r="L7" s="66"/>
     </row>
     <row r="8" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A8" s="228"/>
-      <c r="B8" s="227"/>
+      <c r="A8" s="234"/>
+      <c r="B8" s="233"/>
       <c r="C8" s="71" t="b">
         <v>0</v>
       </c>
@@ -7377,10 +8398,10 @@
       <c r="L8" s="69"/>
     </row>
     <row r="9" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A9" s="222" t="s">
+      <c r="A9" s="228" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="232"/>
+      <c r="B9" s="238"/>
       <c r="C9" s="73" t="b">
         <v>0</v>
       </c>
@@ -7397,8 +8418,8 @@
       <c r="L9" s="66"/>
     </row>
     <row r="10" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A10" s="223"/>
-      <c r="B10" s="226"/>
+      <c r="A10" s="229"/>
+      <c r="B10" s="232"/>
       <c r="C10" s="67" t="b">
         <v>0</v>
       </c>
@@ -7415,8 +8436,8 @@
       <c r="L10" s="69"/>
     </row>
     <row r="11" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A11" s="223"/>
-      <c r="B11" s="226"/>
+      <c r="A11" s="229"/>
+      <c r="B11" s="232"/>
       <c r="C11" s="64" t="b">
         <v>0</v>
       </c>
@@ -7433,8 +8454,8 @@
       <c r="L11" s="66"/>
     </row>
     <row r="12" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A12" s="223"/>
-      <c r="B12" s="226"/>
+      <c r="A12" s="229"/>
+      <c r="B12" s="232"/>
       <c r="C12" s="67" t="b">
         <v>0</v>
       </c>
@@ -7451,8 +8472,8 @@
       <c r="L12" s="69"/>
     </row>
     <row r="13" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A13" s="228"/>
-      <c r="B13" s="227"/>
+      <c r="A13" s="234"/>
+      <c r="B13" s="233"/>
       <c r="C13" s="75" t="b">
         <v>0</v>
       </c>
@@ -7469,7 +8490,7 @@
       <c r="L13" s="66"/>
     </row>
     <row r="14" spans="1:12" ht="23.1" customHeight="1">
-      <c r="A14" s="222" t="s">
+      <c r="A14" s="228" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="77" t="s">
@@ -7491,8 +8512,8 @@
       <c r="L14" s="69"/>
     </row>
     <row r="15" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A15" s="223"/>
-      <c r="B15" s="230" t="s">
+      <c r="A15" s="229"/>
+      <c r="B15" s="236" t="s">
         <v>93</v>
       </c>
       <c r="C15" s="64" t="b">
@@ -7511,8 +8532,8 @@
       <c r="L15" s="66"/>
     </row>
     <row r="16" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A16" s="223"/>
-      <c r="B16" s="226"/>
+      <c r="A16" s="229"/>
+      <c r="B16" s="232"/>
       <c r="C16" s="67" t="b">
         <v>0</v>
       </c>
@@ -7529,8 +8550,8 @@
       <c r="L16" s="69"/>
     </row>
     <row r="17" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A17" s="223"/>
-      <c r="B17" s="226"/>
+      <c r="A17" s="229"/>
+      <c r="B17" s="232"/>
       <c r="C17" s="64" t="b">
         <v>0</v>
       </c>
@@ -7547,8 +8568,8 @@
       <c r="L17" s="66"/>
     </row>
     <row r="18" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A18" s="223"/>
-      <c r="B18" s="226"/>
+      <c r="A18" s="229"/>
+      <c r="B18" s="232"/>
       <c r="C18" s="67" t="b">
         <v>0</v>
       </c>
@@ -7565,8 +8586,8 @@
       <c r="L18" s="69"/>
     </row>
     <row r="19" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A19" s="223"/>
-      <c r="B19" s="226"/>
+      <c r="A19" s="229"/>
+      <c r="B19" s="232"/>
       <c r="C19" s="64" t="b">
         <v>0</v>
       </c>
@@ -7583,8 +8604,8 @@
       <c r="L19" s="66"/>
     </row>
     <row r="20" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A20" s="228"/>
-      <c r="B20" s="227"/>
+      <c r="A20" s="234"/>
+      <c r="B20" s="233"/>
       <c r="C20" s="71" t="b">
         <v>0</v>
       </c>
@@ -7601,10 +8622,10 @@
       <c r="L20" s="69"/>
     </row>
     <row r="21" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A21" s="222" t="s">
+      <c r="A21" s="228" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="233" t="s">
+      <c r="B21" s="239" t="s">
         <v>101</v>
       </c>
       <c r="C21" s="73" t="b">
@@ -7623,8 +8644,8 @@
       <c r="L21" s="66"/>
     </row>
     <row r="22" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A22" s="223"/>
-      <c r="B22" s="226"/>
+      <c r="A22" s="229"/>
+      <c r="B22" s="232"/>
       <c r="C22" s="67" t="b">
         <v>0</v>
       </c>
@@ -7641,8 +8662,8 @@
       <c r="L22" s="69"/>
     </row>
     <row r="23" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A23" s="223"/>
-      <c r="B23" s="226"/>
+      <c r="A23" s="229"/>
+      <c r="B23" s="232"/>
       <c r="C23" s="64" t="b">
         <v>0</v>
       </c>
@@ -7659,8 +8680,8 @@
       <c r="L23" s="66"/>
     </row>
     <row r="24" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A24" s="223"/>
-      <c r="B24" s="226"/>
+      <c r="A24" s="229"/>
+      <c r="B24" s="232"/>
       <c r="C24" s="67" t="b">
         <v>0</v>
       </c>
@@ -7677,8 +8698,8 @@
       <c r="L24" s="69"/>
     </row>
     <row r="25" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A25" s="223"/>
-      <c r="B25" s="225" t="s">
+      <c r="A25" s="229"/>
+      <c r="B25" s="231" t="s">
         <v>106</v>
       </c>
       <c r="C25" s="64" t="b">
@@ -7697,8 +8718,8 @@
       <c r="L25" s="66"/>
     </row>
     <row r="26" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A26" s="223"/>
-      <c r="B26" s="226"/>
+      <c r="A26" s="229"/>
+      <c r="B26" s="232"/>
       <c r="C26" s="67" t="b">
         <v>0</v>
       </c>
@@ -7715,8 +8736,8 @@
       <c r="L26" s="69"/>
     </row>
     <row r="27" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A27" s="223"/>
-      <c r="B27" s="225" t="s">
+      <c r="A27" s="229"/>
+      <c r="B27" s="231" t="s">
         <v>109</v>
       </c>
       <c r="C27" s="64" t="b">
@@ -7735,8 +8756,8 @@
       <c r="L27" s="66"/>
     </row>
     <row r="28" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A28" s="223"/>
-      <c r="B28" s="226"/>
+      <c r="A28" s="229"/>
+      <c r="B28" s="232"/>
       <c r="C28" s="67" t="b">
         <v>0</v>
       </c>
@@ -7753,8 +8774,8 @@
       <c r="L28" s="69"/>
     </row>
     <row r="29" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A29" s="223"/>
-      <c r="B29" s="226"/>
+      <c r="A29" s="229"/>
+      <c r="B29" s="232"/>
       <c r="C29" s="64" t="b">
         <v>0</v>
       </c>
@@ -7771,8 +8792,8 @@
       <c r="L29" s="66"/>
     </row>
     <row r="30" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A30" s="223"/>
-      <c r="B30" s="226"/>
+      <c r="A30" s="229"/>
+      <c r="B30" s="232"/>
       <c r="C30" s="67" t="b">
         <v>0</v>
       </c>
@@ -7789,8 +8810,8 @@
       <c r="L30" s="69"/>
     </row>
     <row r="31" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A31" s="223"/>
-      <c r="B31" s="226"/>
+      <c r="A31" s="229"/>
+      <c r="B31" s="232"/>
       <c r="C31" s="64" t="b">
         <v>0</v>
       </c>
@@ -7807,8 +8828,8 @@
       <c r="L31" s="66"/>
     </row>
     <row r="32" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A32" s="223"/>
-      <c r="B32" s="226"/>
+      <c r="A32" s="229"/>
+      <c r="B32" s="232"/>
       <c r="C32" s="67" t="b">
         <v>0</v>
       </c>
@@ -7825,8 +8846,8 @@
       <c r="L32" s="69"/>
     </row>
     <row r="33" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A33" s="223"/>
-      <c r="B33" s="226"/>
+      <c r="A33" s="229"/>
+      <c r="B33" s="232"/>
       <c r="C33" s="64" t="b">
         <v>0</v>
       </c>
@@ -7843,8 +8864,8 @@
       <c r="L33" s="66"/>
     </row>
     <row r="34" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A34" s="223"/>
-      <c r="B34" s="225" t="s">
+      <c r="A34" s="229"/>
+      <c r="B34" s="231" t="s">
         <v>117</v>
       </c>
       <c r="C34" s="67" t="b">
@@ -7863,8 +8884,8 @@
       <c r="L34" s="69"/>
     </row>
     <row r="35" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A35" s="228"/>
-      <c r="B35" s="227"/>
+      <c r="A35" s="234"/>
+      <c r="B35" s="233"/>
       <c r="C35" s="75" t="b">
         <v>0</v>
       </c>
@@ -7881,10 +8902,10 @@
       <c r="L35" s="66"/>
     </row>
     <row r="36" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A36" s="222" t="s">
+      <c r="A36" s="228" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="229" t="s">
+      <c r="B36" s="235" t="s">
         <v>121</v>
       </c>
       <c r="C36" s="78" t="b">
@@ -7903,8 +8924,8 @@
       <c r="L36" s="69"/>
     </row>
     <row r="37" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A37" s="223"/>
-      <c r="B37" s="226"/>
+      <c r="A37" s="229"/>
+      <c r="B37" s="232"/>
       <c r="C37" s="64" t="b">
         <v>0</v>
       </c>
@@ -7921,7 +8942,7 @@
       <c r="L37" s="66"/>
     </row>
     <row r="38" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A38" s="223"/>
+      <c r="A38" s="229"/>
       <c r="B38" s="70" t="s">
         <v>123</v>
       </c>
@@ -7941,8 +8962,8 @@
       <c r="L38" s="69"/>
     </row>
     <row r="39" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A39" s="223"/>
-      <c r="B39" s="225" t="s">
+      <c r="A39" s="229"/>
+      <c r="B39" s="231" t="s">
         <v>124</v>
       </c>
       <c r="C39" s="64" t="b">
@@ -7961,8 +8982,8 @@
       <c r="L39" s="66"/>
     </row>
     <row r="40" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A40" s="223"/>
-      <c r="B40" s="226"/>
+      <c r="A40" s="229"/>
+      <c r="B40" s="232"/>
       <c r="C40" s="67" t="b">
         <v>0</v>
       </c>
@@ -7979,8 +9000,8 @@
       <c r="L40" s="69"/>
     </row>
     <row r="41" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A41" s="228"/>
-      <c r="B41" s="227"/>
+      <c r="A41" s="234"/>
+      <c r="B41" s="233"/>
       <c r="C41" s="75" t="b">
         <v>0</v>
       </c>
@@ -7997,7 +9018,7 @@
       <c r="L41" s="66"/>
     </row>
     <row r="42" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A42" s="222" t="s">
+      <c r="A42" s="228" t="s">
         <v>128</v>
       </c>
       <c r="B42" s="77" t="s">
@@ -8019,8 +9040,8 @@
       <c r="L42" s="69"/>
     </row>
     <row r="43" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A43" s="223"/>
-      <c r="B43" s="230" t="s">
+      <c r="A43" s="229"/>
+      <c r="B43" s="236" t="s">
         <v>131</v>
       </c>
       <c r="C43" s="64" t="b">
@@ -8039,8 +9060,8 @@
       <c r="L43" s="66"/>
     </row>
     <row r="44" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A44" s="223"/>
-      <c r="B44" s="226"/>
+      <c r="A44" s="229"/>
+      <c r="B44" s="232"/>
       <c r="C44" s="67" t="b">
         <v>0</v>
       </c>
@@ -8057,8 +9078,8 @@
       <c r="L44" s="69"/>
     </row>
     <row r="45" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A45" s="223"/>
-      <c r="B45" s="226"/>
+      <c r="A45" s="229"/>
+      <c r="B45" s="232"/>
       <c r="C45" s="64" t="b">
         <v>0</v>
       </c>
@@ -8075,8 +9096,8 @@
       <c r="L45" s="66"/>
     </row>
     <row r="46" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A46" s="223"/>
-      <c r="B46" s="230" t="s">
+      <c r="A46" s="229"/>
+      <c r="B46" s="236" t="s">
         <v>135</v>
       </c>
       <c r="C46" s="67" t="b">
@@ -8095,8 +9116,8 @@
       <c r="L46" s="69"/>
     </row>
     <row r="47" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A47" s="223"/>
-      <c r="B47" s="226"/>
+      <c r="A47" s="229"/>
+      <c r="B47" s="232"/>
       <c r="C47" s="64" t="b">
         <v>0</v>
       </c>
@@ -8113,15 +9134,15 @@
       <c r="L47" s="66"/>
     </row>
     <row r="48" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A48" s="223"/>
-      <c r="B48" s="226"/>
+      <c r="A48" s="229"/>
+      <c r="B48" s="232"/>
       <c r="C48" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D48" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="236"/>
+      <c r="E48" s="242"/>
       <c r="F48" s="69"/>
       <c r="G48" s="69"/>
       <c r="H48" s="69"/>
@@ -8131,15 +9152,15 @@
       <c r="L48" s="69"/>
     </row>
     <row r="49" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A49" s="223"/>
-      <c r="B49" s="226"/>
+      <c r="A49" s="229"/>
+      <c r="B49" s="232"/>
       <c r="C49" s="64" t="b">
         <v>0</v>
       </c>
       <c r="D49" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="E49" s="237"/>
+      <c r="E49" s="243"/>
       <c r="F49" s="66"/>
       <c r="G49" s="66"/>
       <c r="H49" s="66"/>
@@ -8149,8 +9170,8 @@
       <c r="L49" s="66"/>
     </row>
     <row r="50" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A50" s="223"/>
-      <c r="B50" s="230" t="s">
+      <c r="A50" s="229"/>
+      <c r="B50" s="236" t="s">
         <v>140</v>
       </c>
       <c r="C50" s="67" t="b">
@@ -8159,7 +9180,7 @@
       <c r="D50" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="E50" s="236"/>
+      <c r="E50" s="242"/>
       <c r="F50" s="69"/>
       <c r="G50" s="69"/>
       <c r="H50" s="69"/>
@@ -8169,15 +9190,15 @@
       <c r="L50" s="69"/>
     </row>
     <row r="51" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A51" s="223"/>
-      <c r="B51" s="226"/>
+      <c r="A51" s="229"/>
+      <c r="B51" s="232"/>
       <c r="C51" s="64" t="b">
         <v>0</v>
       </c>
       <c r="D51" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="E51" s="237"/>
+      <c r="E51" s="243"/>
       <c r="F51" s="66"/>
       <c r="G51" s="66"/>
       <c r="H51" s="66"/>
@@ -8187,8 +9208,8 @@
       <c r="L51" s="66"/>
     </row>
     <row r="52" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A52" s="223"/>
-      <c r="B52" s="226"/>
+      <c r="A52" s="229"/>
+      <c r="B52" s="232"/>
       <c r="C52" s="67" t="b">
         <v>0</v>
       </c>
@@ -8205,7 +9226,7 @@
       <c r="L52" s="69"/>
     </row>
     <row r="53" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A53" s="223"/>
+      <c r="A53" s="229"/>
       <c r="B53" s="70" t="s">
         <v>144</v>
       </c>
@@ -8225,7 +9246,7 @@
       <c r="L53" s="66"/>
     </row>
     <row r="54" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A54" s="223"/>
+      <c r="A54" s="229"/>
       <c r="B54" s="70" t="s">
         <v>146</v>
       </c>
@@ -8245,7 +9266,7 @@
       <c r="L54" s="69"/>
     </row>
     <row r="55" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A55" s="228"/>
+      <c r="A55" s="234"/>
       <c r="B55" s="84" t="s">
         <v>148</v>
       </c>
@@ -8265,10 +9286,10 @@
       <c r="L55" s="66"/>
     </row>
     <row r="56" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A56" s="222" t="s">
+      <c r="A56" s="228" t="s">
         <v>150</v>
       </c>
-      <c r="B56" s="229" t="s">
+      <c r="B56" s="235" t="s">
         <v>151</v>
       </c>
       <c r="C56" s="78" t="b">
@@ -8287,8 +9308,8 @@
       <c r="L56" s="69"/>
     </row>
     <row r="57" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A57" s="223"/>
-      <c r="B57" s="226"/>
+      <c r="A57" s="229"/>
+      <c r="B57" s="232"/>
       <c r="C57" s="64" t="b">
         <v>0</v>
       </c>
@@ -8305,8 +9326,8 @@
       <c r="L57" s="66"/>
     </row>
     <row r="58" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A58" s="223"/>
-      <c r="B58" s="226"/>
+      <c r="A58" s="229"/>
+      <c r="B58" s="232"/>
       <c r="C58" s="67" t="b">
         <v>0</v>
       </c>
@@ -8323,8 +9344,8 @@
       <c r="L58" s="69"/>
     </row>
     <row r="59" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A59" s="223"/>
-      <c r="B59" s="226"/>
+      <c r="A59" s="229"/>
+      <c r="B59" s="232"/>
       <c r="C59" s="64" t="b">
         <v>0</v>
       </c>
@@ -8341,8 +9362,8 @@
       <c r="L59" s="66"/>
     </row>
     <row r="60" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A60" s="223"/>
-      <c r="B60" s="226"/>
+      <c r="A60" s="229"/>
+      <c r="B60" s="232"/>
       <c r="C60" s="67" t="b">
         <v>0</v>
       </c>
@@ -8359,8 +9380,8 @@
       <c r="L60" s="69"/>
     </row>
     <row r="61" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A61" s="223"/>
-      <c r="B61" s="226"/>
+      <c r="A61" s="229"/>
+      <c r="B61" s="232"/>
       <c r="C61" s="64" t="b">
         <v>0</v>
       </c>
@@ -8377,8 +9398,8 @@
       <c r="L61" s="66"/>
     </row>
     <row r="62" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A62" s="223"/>
-      <c r="B62" s="230" t="s">
+      <c r="A62" s="229"/>
+      <c r="B62" s="236" t="s">
         <v>158</v>
       </c>
       <c r="C62" s="67" t="b">
@@ -8397,8 +9418,8 @@
       <c r="L62" s="69"/>
     </row>
     <row r="63" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A63" s="223"/>
-      <c r="B63" s="226"/>
+      <c r="A63" s="229"/>
+      <c r="B63" s="232"/>
       <c r="C63" s="64" t="b">
         <v>0</v>
       </c>
@@ -8415,7 +9436,7 @@
       <c r="L63" s="66"/>
     </row>
     <row r="64" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A64" s="228"/>
+      <c r="A64" s="234"/>
       <c r="B64" s="84" t="s">
         <v>161</v>
       </c>
@@ -8435,10 +9456,10 @@
       <c r="L64" s="69"/>
     </row>
     <row r="65" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A65" s="222" t="s">
+      <c r="A65" s="228" t="s">
         <v>163</v>
       </c>
-      <c r="B65" s="229" t="s">
+      <c r="B65" s="235" t="s">
         <v>158</v>
       </c>
       <c r="C65" s="73" t="b">
@@ -8457,8 +9478,8 @@
       <c r="L65" s="66"/>
     </row>
     <row r="66" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A66" s="223"/>
-      <c r="B66" s="226"/>
+      <c r="A66" s="229"/>
+      <c r="B66" s="232"/>
       <c r="C66" s="67" t="b">
         <v>0</v>
       </c>
@@ -8475,8 +9496,8 @@
       <c r="L66" s="69"/>
     </row>
     <row r="67" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A67" s="223"/>
-      <c r="B67" s="226"/>
+      <c r="A67" s="229"/>
+      <c r="B67" s="232"/>
       <c r="C67" s="64" t="b">
         <v>0</v>
       </c>
@@ -8493,8 +9514,8 @@
       <c r="L67" s="66"/>
     </row>
     <row r="68" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A68" s="223"/>
-      <c r="B68" s="226"/>
+      <c r="A68" s="229"/>
+      <c r="B68" s="232"/>
       <c r="C68" s="67" t="b">
         <v>0</v>
       </c>
@@ -8511,8 +9532,8 @@
       <c r="L68" s="69"/>
     </row>
     <row r="69" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A69" s="223"/>
-      <c r="B69" s="230" t="s">
+      <c r="A69" s="229"/>
+      <c r="B69" s="236" t="s">
         <v>161</v>
       </c>
       <c r="C69" s="64" t="b">
@@ -8531,8 +9552,8 @@
       <c r="L69" s="66"/>
     </row>
     <row r="70" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A70" s="223"/>
-      <c r="B70" s="226"/>
+      <c r="A70" s="229"/>
+      <c r="B70" s="232"/>
       <c r="C70" s="67" t="b">
         <v>0</v>
       </c>
@@ -8549,8 +9570,8 @@
       <c r="L70" s="69"/>
     </row>
     <row r="71" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A71" s="223"/>
-      <c r="B71" s="226"/>
+      <c r="A71" s="229"/>
+      <c r="B71" s="232"/>
       <c r="C71" s="64" t="b">
         <v>0</v>
       </c>
@@ -8567,8 +9588,8 @@
       <c r="L71" s="66"/>
     </row>
     <row r="72" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A72" s="223"/>
-      <c r="B72" s="230" t="s">
+      <c r="A72" s="229"/>
+      <c r="B72" s="236" t="s">
         <v>171</v>
       </c>
       <c r="C72" s="67" t="b">
@@ -8587,8 +9608,8 @@
       <c r="L72" s="69"/>
     </row>
     <row r="73" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A73" s="223"/>
-      <c r="B73" s="226"/>
+      <c r="A73" s="229"/>
+      <c r="B73" s="232"/>
       <c r="C73" s="64" t="b">
         <v>0</v>
       </c>
@@ -8605,8 +9626,8 @@
       <c r="L73" s="66"/>
     </row>
     <row r="74" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A74" s="223"/>
-      <c r="B74" s="226"/>
+      <c r="A74" s="229"/>
+      <c r="B74" s="232"/>
       <c r="C74" s="67" t="b">
         <v>0</v>
       </c>
@@ -8623,7 +9644,7 @@
       <c r="L74" s="69"/>
     </row>
     <row r="75" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A75" s="228"/>
+      <c r="A75" s="234"/>
       <c r="B75" s="84" t="s">
         <v>151</v>
       </c>
@@ -8643,10 +9664,10 @@
       <c r="L75" s="66"/>
     </row>
     <row r="76" spans="1:12" ht="23.1" customHeight="1">
-      <c r="A76" s="222" t="s">
+      <c r="A76" s="228" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="229" t="s">
+      <c r="B76" s="235" t="s">
         <v>177</v>
       </c>
       <c r="C76" s="78" t="b">
@@ -8665,8 +9686,8 @@
       <c r="L76" s="69"/>
     </row>
     <row r="77" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A77" s="223"/>
-      <c r="B77" s="226"/>
+      <c r="A77" s="229"/>
+      <c r="B77" s="232"/>
       <c r="C77" s="64" t="b">
         <v>0</v>
       </c>
@@ -8683,8 +9704,8 @@
       <c r="L77" s="66"/>
     </row>
     <row r="78" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A78" s="223"/>
-      <c r="B78" s="230" t="s">
+      <c r="A78" s="229"/>
+      <c r="B78" s="236" t="s">
         <v>180</v>
       </c>
       <c r="C78" s="67" t="b">
@@ -8703,8 +9724,8 @@
       <c r="L78" s="69"/>
     </row>
     <row r="79" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A79" s="223"/>
-      <c r="B79" s="226"/>
+      <c r="A79" s="229"/>
+      <c r="B79" s="232"/>
       <c r="C79" s="64" t="b">
         <v>0</v>
       </c>
@@ -8721,8 +9742,8 @@
       <c r="L79" s="66"/>
     </row>
     <row r="80" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A80" s="223"/>
-      <c r="B80" s="226"/>
+      <c r="A80" s="229"/>
+      <c r="B80" s="232"/>
       <c r="C80" s="67" t="b">
         <v>0</v>
       </c>
@@ -8739,8 +9760,8 @@
       <c r="L80" s="69"/>
     </row>
     <row r="81" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A81" s="223"/>
-      <c r="B81" s="226"/>
+      <c r="A81" s="229"/>
+      <c r="B81" s="232"/>
       <c r="C81" s="64" t="b">
         <v>0</v>
       </c>
@@ -8757,8 +9778,8 @@
       <c r="L81" s="66"/>
     </row>
     <row r="82" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A82" s="223"/>
-      <c r="B82" s="226"/>
+      <c r="A82" s="229"/>
+      <c r="B82" s="232"/>
       <c r="C82" s="67" t="b">
         <v>0</v>
       </c>
@@ -8775,8 +9796,8 @@
       <c r="L82" s="69"/>
     </row>
     <row r="83" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A83" s="223"/>
-      <c r="B83" s="226"/>
+      <c r="A83" s="229"/>
+      <c r="B83" s="232"/>
       <c r="C83" s="64" t="b">
         <v>0</v>
       </c>
@@ -8793,8 +9814,8 @@
       <c r="L83" s="66"/>
     </row>
     <row r="84" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A84" s="223"/>
-      <c r="B84" s="230" t="s">
+      <c r="A84" s="229"/>
+      <c r="B84" s="236" t="s">
         <v>171</v>
       </c>
       <c r="C84" s="67" t="b">
@@ -8813,8 +9834,8 @@
       <c r="L84" s="69"/>
     </row>
     <row r="85" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A85" s="223"/>
-      <c r="B85" s="226"/>
+      <c r="A85" s="229"/>
+      <c r="B85" s="232"/>
       <c r="C85" s="64" t="b">
         <v>0</v>
       </c>
@@ -8831,8 +9852,8 @@
       <c r="L85" s="66"/>
     </row>
     <row r="86" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A86" s="223"/>
-      <c r="B86" s="226"/>
+      <c r="A86" s="229"/>
+      <c r="B86" s="232"/>
       <c r="C86" s="67" t="b">
         <v>0</v>
       </c>
@@ -8849,8 +9870,8 @@
       <c r="L86" s="69"/>
     </row>
     <row r="87" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A87" s="223"/>
-      <c r="B87" s="226"/>
+      <c r="A87" s="229"/>
+      <c r="B87" s="232"/>
       <c r="C87" s="64" t="b">
         <v>0</v>
       </c>
@@ -8867,8 +9888,8 @@
       <c r="L87" s="66"/>
     </row>
     <row r="88" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A88" s="223"/>
-      <c r="B88" s="226"/>
+      <c r="A88" s="229"/>
+      <c r="B88" s="232"/>
       <c r="C88" s="67" t="b">
         <v>0</v>
       </c>
@@ -8885,8 +9906,8 @@
       <c r="L88" s="69"/>
     </row>
     <row r="89" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A89" s="223"/>
-      <c r="B89" s="230" t="s">
+      <c r="A89" s="229"/>
+      <c r="B89" s="236" t="s">
         <v>161</v>
       </c>
       <c r="C89" s="64" t="b">
@@ -8905,8 +9926,8 @@
       <c r="L89" s="66"/>
     </row>
     <row r="90" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A90" s="223"/>
-      <c r="B90" s="226"/>
+      <c r="A90" s="229"/>
+      <c r="B90" s="232"/>
       <c r="C90" s="67" t="b">
         <v>0</v>
       </c>
@@ -8923,8 +9944,8 @@
       <c r="L90" s="69"/>
     </row>
     <row r="91" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A91" s="223"/>
-      <c r="B91" s="230" t="s">
+      <c r="A91" s="229"/>
+      <c r="B91" s="236" t="s">
         <v>193</v>
       </c>
       <c r="C91" s="64" t="b">
@@ -8943,8 +9964,8 @@
       <c r="L91" s="66"/>
     </row>
     <row r="92" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A92" s="223"/>
-      <c r="B92" s="226"/>
+      <c r="A92" s="229"/>
+      <c r="B92" s="232"/>
       <c r="C92" s="67" t="b">
         <v>0</v>
       </c>
@@ -8961,8 +9982,8 @@
       <c r="L92" s="69"/>
     </row>
     <row r="93" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A93" s="223"/>
-      <c r="B93" s="226"/>
+      <c r="A93" s="229"/>
+      <c r="B93" s="232"/>
       <c r="C93" s="64" t="b">
         <v>0</v>
       </c>
@@ -8979,8 +10000,8 @@
       <c r="L93" s="66"/>
     </row>
     <row r="94" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A94" s="223"/>
-      <c r="B94" s="226"/>
+      <c r="A94" s="229"/>
+      <c r="B94" s="232"/>
       <c r="C94" s="67" t="b">
         <v>0</v>
       </c>
@@ -8997,8 +10018,8 @@
       <c r="L94" s="69"/>
     </row>
     <row r="95" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A95" s="223"/>
-      <c r="B95" s="226"/>
+      <c r="A95" s="229"/>
+      <c r="B95" s="232"/>
       <c r="C95" s="64" t="b">
         <v>0</v>
       </c>
@@ -9015,8 +10036,8 @@
       <c r="L95" s="66"/>
     </row>
     <row r="96" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A96" s="223"/>
-      <c r="B96" s="226"/>
+      <c r="A96" s="229"/>
+      <c r="B96" s="232"/>
       <c r="C96" s="67" t="b">
         <v>0</v>
       </c>
@@ -9033,8 +10054,8 @@
       <c r="L96" s="69"/>
     </row>
     <row r="97" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A97" s="223"/>
-      <c r="B97" s="226"/>
+      <c r="A97" s="229"/>
+      <c r="B97" s="232"/>
       <c r="C97" s="64" t="b">
         <v>0</v>
       </c>
@@ -9051,8 +10072,8 @@
       <c r="L97" s="66"/>
     </row>
     <row r="98" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A98" s="223"/>
-      <c r="B98" s="225" t="s">
+      <c r="A98" s="229"/>
+      <c r="B98" s="231" t="s">
         <v>201</v>
       </c>
       <c r="C98" s="67" t="b">
@@ -9071,8 +10092,8 @@
       <c r="L98" s="69"/>
     </row>
     <row r="99" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A99" s="223"/>
-      <c r="B99" s="226"/>
+      <c r="A99" s="229"/>
+      <c r="B99" s="232"/>
       <c r="C99" s="64" t="b">
         <v>0</v>
       </c>
@@ -9089,8 +10110,8 @@
       <c r="L99" s="66"/>
     </row>
     <row r="100" spans="1:12" ht="22.95" customHeight="1">
-      <c r="A100" s="223"/>
-      <c r="B100" s="226"/>
+      <c r="A100" s="229"/>
+      <c r="B100" s="232"/>
       <c r="C100" s="67" t="b">
         <v>0</v>
       </c>
@@ -9107,8 +10128,8 @@
       <c r="L100" s="69"/>
     </row>
     <row r="101" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A101" s="223"/>
-      <c r="B101" s="226"/>
+      <c r="A101" s="229"/>
+      <c r="B101" s="232"/>
       <c r="C101" s="64" t="b">
         <v>0</v>
       </c>
@@ -9125,8 +10146,8 @@
       <c r="L101" s="66"/>
     </row>
     <row r="102" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A102" s="223"/>
-      <c r="B102" s="225" t="s">
+      <c r="A102" s="229"/>
+      <c r="B102" s="231" t="s">
         <v>205</v>
       </c>
       <c r="C102" s="67" t="b">
@@ -9145,8 +10166,8 @@
       <c r="L102" s="69"/>
     </row>
     <row r="103" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A103" s="223"/>
-      <c r="B103" s="226"/>
+      <c r="A103" s="229"/>
+      <c r="B103" s="232"/>
       <c r="C103" s="64" t="b">
         <v>0</v>
       </c>
@@ -9163,8 +10184,8 @@
       <c r="L103" s="66"/>
     </row>
     <row r="104" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A104" s="223"/>
-      <c r="B104" s="230" t="s">
+      <c r="A104" s="229"/>
+      <c r="B104" s="236" t="s">
         <v>151</v>
       </c>
       <c r="C104" s="67" t="b">
@@ -9183,8 +10204,8 @@
       <c r="L104" s="69"/>
     </row>
     <row r="105" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A105" s="223"/>
-      <c r="B105" s="226"/>
+      <c r="A105" s="229"/>
+      <c r="B105" s="232"/>
       <c r="C105" s="64" t="b">
         <v>0</v>
       </c>
@@ -9201,8 +10222,8 @@
       <c r="L105" s="66"/>
     </row>
     <row r="106" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A106" s="223"/>
-      <c r="B106" s="226"/>
+      <c r="A106" s="229"/>
+      <c r="B106" s="232"/>
       <c r="C106" s="67" t="b">
         <v>0</v>
       </c>
@@ -9219,8 +10240,8 @@
       <c r="L106" s="69"/>
     </row>
     <row r="107" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A107" s="223"/>
-      <c r="B107" s="226"/>
+      <c r="A107" s="229"/>
+      <c r="B107" s="232"/>
       <c r="C107" s="64" t="b">
         <v>0</v>
       </c>
@@ -9237,8 +10258,8 @@
       <c r="L107" s="66"/>
     </row>
     <row r="108" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A108" s="223"/>
-      <c r="B108" s="226"/>
+      <c r="A108" s="229"/>
+      <c r="B108" s="232"/>
       <c r="C108" s="67" t="b">
         <v>0</v>
       </c>
@@ -9255,8 +10276,8 @@
       <c r="L108" s="69"/>
     </row>
     <row r="109" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A109" s="223"/>
-      <c r="B109" s="230" t="s">
+      <c r="A109" s="229"/>
+      <c r="B109" s="236" t="s">
         <v>213</v>
       </c>
       <c r="C109" s="64" t="b">
@@ -9275,8 +10296,8 @@
       <c r="L109" s="66"/>
     </row>
     <row r="110" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A110" s="223"/>
-      <c r="B110" s="226"/>
+      <c r="A110" s="229"/>
+      <c r="B110" s="232"/>
       <c r="C110" s="67" t="b">
         <v>0</v>
       </c>
@@ -9293,8 +10314,8 @@
       <c r="L110" s="69"/>
     </row>
     <row r="111" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A111" s="228"/>
-      <c r="B111" s="227"/>
+      <c r="A111" s="234"/>
+      <c r="B111" s="233"/>
       <c r="C111" s="75" t="b">
         <v>0</v>
       </c>
@@ -9333,7 +10354,7 @@
       <c r="L112" s="69"/>
     </row>
     <row r="113" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A113" s="222" t="s">
+      <c r="A113" s="228" t="s">
         <v>220</v>
       </c>
       <c r="B113" s="77" t="s">
@@ -9355,7 +10376,7 @@
       <c r="L113" s="66"/>
     </row>
     <row r="114" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A114" s="223"/>
+      <c r="A114" s="229"/>
       <c r="B114" s="70" t="s">
         <v>223</v>
       </c>
@@ -9375,7 +10396,7 @@
       <c r="L114" s="69"/>
     </row>
     <row r="115" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A115" s="223"/>
+      <c r="A115" s="229"/>
       <c r="B115" s="89"/>
       <c r="C115" s="64" t="b">
         <v>0</v>
@@ -9393,7 +10414,7 @@
       <c r="L115" s="66"/>
     </row>
     <row r="116" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A116" s="223"/>
+      <c r="A116" s="229"/>
       <c r="B116" s="89"/>
       <c r="C116" s="67" t="b">
         <v>0</v>
@@ -9411,7 +10432,7 @@
       <c r="L116" s="69"/>
     </row>
     <row r="117" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A117" s="223"/>
+      <c r="A117" s="229"/>
       <c r="B117" s="70" t="s">
         <v>227</v>
       </c>
@@ -9429,7 +10450,7 @@
       <c r="L117" s="66"/>
     </row>
     <row r="118" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A118" s="223"/>
+      <c r="A118" s="229"/>
       <c r="B118" s="70" t="s">
         <v>228</v>
       </c>
@@ -9447,7 +10468,7 @@
       <c r="L118" s="69"/>
     </row>
     <row r="119" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A119" s="224"/>
+      <c r="A119" s="230"/>
       <c r="B119" s="90" t="s">
         <v>229</v>
       </c>
@@ -9558,7 +10579,7 @@
   <dimension ref="A1:IV38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD38"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="21.6" customHeight="1"/>
@@ -9574,24 +10595,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="244" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-    </row>
-    <row r="2" spans="1:6" ht="30.6" customHeight="1">
-      <c r="A2" s="240" t="s">
-        <v>345</v>
-      </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+    </row>
+    <row r="2" spans="1:6" ht="52.2" customHeight="1">
+      <c r="A2" s="246" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="245"/>
     </row>
     <row r="3" spans="1:6" ht="22.65" customHeight="1">
       <c r="A3" s="116" t="s">
@@ -9610,14 +10631,14 @@
         <v>267</v>
       </c>
       <c r="F3" s="116" t="s">
-        <v>268</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="22.8" customHeight="1">
       <c r="A4" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="241" t="s">
+      <c r="B4" s="247" t="s">
         <v>269</v>
       </c>
       <c r="C4" s="63"/>
@@ -9627,7 +10648,7 @@
     </row>
     <row r="5" spans="1:6" ht="22.8" customHeight="1">
       <c r="A5" s="154"/>
-      <c r="B5" s="242"/>
+      <c r="B5" s="248"/>
       <c r="C5" s="158"/>
       <c r="D5" s="158"/>
       <c r="E5" s="158"/>
@@ -9645,7 +10666,7 @@
     </row>
     <row r="7" spans="1:6" ht="22.8" customHeight="1">
       <c r="A7" s="154"/>
-      <c r="B7" s="243" t="s">
+      <c r="B7" s="249" t="s">
         <v>271</v>
       </c>
       <c r="C7" s="158"/>
@@ -9655,7 +10676,7 @@
     </row>
     <row r="8" spans="1:6" ht="22.8" customHeight="1">
       <c r="A8" s="154"/>
-      <c r="B8" s="223"/>
+      <c r="B8" s="229"/>
       <c r="C8" s="157"/>
       <c r="D8" s="157"/>
       <c r="E8" s="157"/>
@@ -9663,7 +10684,7 @@
     </row>
     <row r="9" spans="1:6" ht="22.8" customHeight="1">
       <c r="A9" s="154"/>
-      <c r="B9" s="242"/>
+      <c r="B9" s="248"/>
       <c r="C9" s="158"/>
       <c r="D9" s="158"/>
       <c r="E9" s="158"/>
@@ -10010,38 +11031,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:263" ht="41.25" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="244" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="245"/>
     </row>
     <row r="2" spans="1:263" ht="39" customHeight="1">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="246" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
     </row>
     <row r="3" spans="1:263" ht="22.65" customHeight="1">
       <c r="A3" s="116" t="s">
@@ -12681,24 +13702,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="244" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="246" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="245"/>
     </row>
     <row r="3" spans="1:6" ht="22.65" customHeight="1">
       <c r="A3" s="116" t="s">
@@ -12868,7 +13889,7 @@
   <dimension ref="A1:IV36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -12881,25 +13902,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="34.200000000000003" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="250" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="246"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="252"/>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:256" ht="40.200000000000003" customHeight="1">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="253" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="248"/>
-      <c r="E2" s="248"/>
-      <c r="F2" s="249"/>
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="255"/>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:256">
@@ -19087,7 +20108,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -19106,40 +20127,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="34.200000000000003" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="250" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="246"/>
-      <c r="J1" s="244" t="s">
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="252"/>
+      <c r="J1" s="250" t="s">
         <v>413</v>
       </c>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="246"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="252"/>
     </row>
     <row r="2" spans="1:256" ht="40.200000000000003" customHeight="1">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="253" t="s">
         <v>409</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="248"/>
-      <c r="E2" s="248"/>
-      <c r="F2" s="249"/>
-      <c r="J2" s="247" t="s">
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="255"/>
+      <c r="J2" s="253" t="s">
         <v>409</v>
       </c>
-      <c r="K2" s="248"/>
-      <c r="L2" s="248"/>
-      <c r="M2" s="248"/>
-      <c r="N2" s="248"/>
-      <c r="O2" s="249"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
+      <c r="N2" s="254"/>
+      <c r="O2" s="255"/>
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="116" t="s">
@@ -21226,7 +22247,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="21.6" customHeight="1"/>
@@ -21240,24 +22261,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="40.950000000000003" customHeight="1">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="256" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
+      <c r="F1" s="256"/>
     </row>
     <row r="2" spans="1:6" ht="22.8" customHeight="1">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="257" t="s">
         <v>299</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="253"/>
+      <c r="B2" s="258"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="259"/>
     </row>
     <row r="3" spans="1:6" ht="22.65" customHeight="1">
       <c r="A3" s="130" t="s">
@@ -21452,393 +22473,251 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet2">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:IV41"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="21.6" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
-    <col min="5" max="256" width="16.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.95" customHeight="1">
-      <c r="A1" s="260" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A2" s="256" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="257"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A3" s="223"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A4" s="223"/>
-      <c r="B4" s="226"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A5" s="223"/>
-      <c r="B5" s="226"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A6" s="228"/>
-      <c r="B6" s="227"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A7" s="255" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="254" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A8" s="223"/>
-      <c r="B8" s="226"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A9" s="223"/>
-      <c r="B9" s="226"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A10" s="223"/>
-      <c r="B10" s="226"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A11" s="223"/>
-      <c r="B11" s="227"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A12" s="223"/>
-      <c r="B12" s="254" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="161" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A13" s="223"/>
-      <c r="B13" s="226"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="162" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A14" s="223"/>
-      <c r="B14" s="226"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A15" s="223"/>
-      <c r="B15" s="227"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A16" s="223"/>
-      <c r="B16" s="254" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A17" s="223"/>
-      <c r="B17" s="226"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A18" s="223"/>
-      <c r="B18" s="227"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A19" s="223"/>
-      <c r="B19" s="254" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A20" s="223"/>
-      <c r="B20" s="226"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A21" s="223"/>
-      <c r="B21" s="226"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A22" s="223"/>
-      <c r="B22" s="226"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A23" s="223"/>
-      <c r="B23" s="226"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A24" s="223"/>
-      <c r="B24" s="226"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A25" s="223"/>
-      <c r="B25" s="226"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A26" s="223"/>
-      <c r="B26" s="226"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A27" s="223"/>
-      <c r="B27" s="227"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A28" s="223"/>
-      <c r="B28" s="254" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="22.95" customHeight="1">
-      <c r="A29" s="223"/>
-      <c r="B29" s="226"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A30" s="223"/>
-      <c r="B30" s="226"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A31" s="223"/>
-      <c r="B31" s="227"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A32" s="223"/>
-      <c r="B32" s="254" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A33" s="223"/>
-      <c r="B33" s="226"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A34" s="223"/>
-      <c r="B34" s="226"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A35" s="223"/>
-      <c r="B35" s="226"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A36" s="223"/>
-      <c r="B36" s="226"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A37" s="223"/>
-      <c r="B37" s="226"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A38" s="223"/>
-      <c r="B38" s="226"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A39" s="223"/>
-      <c r="B39" s="226"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A40" s="228"/>
-      <c r="B40" s="227"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="22.95" customHeight="1">
-      <c r="A41" s="258" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="259"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="40"/>
+    <row r="1" spans="1:10" ht="30.6">
+      <c r="A1" s="256" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
+      <c r="F1" s="256"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="257"/>
+      <c r="B2" s="258"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="259"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="130" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="116" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="225" t="s">
+        <v>428</v>
+      </c>
+      <c r="F3" s="131" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="277" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" s="223"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63">
+        <v>3</v>
+      </c>
+      <c r="E4" s="63">
+        <v>850</v>
+      </c>
+      <c r="F4" s="133">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="278" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" s="224"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="182" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" s="222">
+        <v>580</v>
+      </c>
+      <c r="F5" s="135">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="278" t="s">
+        <v>438</v>
+      </c>
+      <c r="B6" s="125"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="173" t="s">
+        <v>439</v>
+      </c>
+      <c r="E6" s="221">
+        <v>400</v>
+      </c>
+      <c r="F6" s="136">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="278" t="s">
+        <v>440</v>
+      </c>
+      <c r="B7" s="224"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="182" t="s">
+        <v>441</v>
+      </c>
+      <c r="E7" s="222">
+        <v>80</v>
+      </c>
+      <c r="F7" s="135">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="278" t="s">
+        <v>442</v>
+      </c>
+      <c r="B8" s="125"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="173" t="s">
+        <v>443</v>
+      </c>
+      <c r="E8" s="221">
+        <v>60</v>
+      </c>
+      <c r="F8" s="136">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="279" t="s">
+        <v>444</v>
+      </c>
+      <c r="B9" s="224"/>
+      <c r="C9" s="222"/>
+      <c r="D9" s="182" t="s">
+        <v>445</v>
+      </c>
+      <c r="E9" s="222">
+        <v>60</v>
+      </c>
+      <c r="F9" s="135">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="134"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="136"/>
+      <c r="I10" s="280" t="s">
+        <v>446</v>
+      </c>
+      <c r="J10" s="280" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="137"/>
+      <c r="B11" s="224"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="135"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="134"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="221"/>
+      <c r="D12" s="221"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="136"/>
+      <c r="I12" s="280" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="134"/>
+      <c r="B13" s="224"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="222"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="135"/>
+      <c r="I13" s="280" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="134"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="221"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="136"/>
+      <c r="I14" s="280" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="134"/>
+      <c r="B15" s="224"/>
+      <c r="C15" s="222"/>
+      <c r="D15" s="222"/>
+      <c r="E15" s="222"/>
+      <c r="F15" s="135"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="134"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="136"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="138"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="140"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="141" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="142"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="144">
+        <f>SUM(F4:F17)</f>
+        <v>6308</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="A7:A40"/>
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B7:B11"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Avenir Next Demi Bold,Regular"&amp;9&amp;KAAAAAA&amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>